--- a/Code/Results/Cases/Case_0_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_53/res_line/pl_mw.xlsx
@@ -415,31 +415,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.008234609432708595</v>
+        <v>0.008234609432594908</v>
       </c>
       <c r="D2">
-        <v>0.002789600927378011</v>
+        <v>0.002789600927407321</v>
       </c>
       <c r="E2">
-        <v>0.0425322394098373</v>
+        <v>0.04253223940982664</v>
       </c>
       <c r="F2">
-        <v>1.156656100942428</v>
+        <v>1.156656100942413</v>
       </c>
       <c r="G2">
-        <v>0.839908931852932</v>
+        <v>0.8399089318529036</v>
       </c>
       <c r="H2">
-        <v>0.8317794484617025</v>
+        <v>0.8317794484617096</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.176819122317454</v>
+        <v>8.17681912231734</v>
       </c>
       <c r="K2">
-        <v>0.04161892763328012</v>
+        <v>0.041618927633289</v>
       </c>
       <c r="L2">
         <v>4.830188369909777</v>
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.006969528813009163</v>
+        <v>0.006969528812845738</v>
       </c>
       <c r="D3">
-        <v>0.001668116969569589</v>
+        <v>0.001668116969751665</v>
       </c>
       <c r="E3">
-        <v>0.03850018131824129</v>
+        <v>0.03850018131825372</v>
       </c>
       <c r="F3">
         <v>0.9819582093305996</v>
       </c>
       <c r="G3">
-        <v>0.7105777488838783</v>
+        <v>0.710577748883864</v>
       </c>
       <c r="H3">
-        <v>0.7059305635002957</v>
+        <v>0.7059305635002886</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.060736167911273</v>
+        <v>7.060736167911244</v>
       </c>
       <c r="K3">
-        <v>0.03703068609065419</v>
+        <v>0.03703068609065596</v>
       </c>
       <c r="L3">
-        <v>4.1672796450665</v>
+        <v>4.167279645066472</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.006229711414356132</v>
+        <v>0.006229711414093231</v>
       </c>
       <c r="D4">
-        <v>0.001374623501854799</v>
+        <v>0.001374623501964933</v>
       </c>
       <c r="E4">
-        <v>0.03622815088117548</v>
+        <v>0.03622815088116127</v>
       </c>
       <c r="F4">
-        <v>0.8843895045681904</v>
+        <v>0.884389504568162</v>
       </c>
       <c r="G4">
         <v>0.6394538626350013</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.385275709552445</v>
+        <v>6.385275709552417</v>
       </c>
       <c r="K4">
-        <v>0.03441627500876976</v>
+        <v>0.03441627500875022</v>
       </c>
       <c r="L4">
-        <v>3.766754570698083</v>
+        <v>3.766754570698069</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.005935747570458005</v>
+        <v>0.0059357475704509</v>
       </c>
       <c r="D5">
-        <v>0.001340377439698059</v>
+        <v>0.001340377439754903</v>
       </c>
       <c r="E5">
-        <v>0.0353475258288718</v>
+        <v>0.03534752582886824</v>
       </c>
       <c r="F5">
-        <v>0.8467373682832999</v>
+        <v>0.8467373682832857</v>
       </c>
       <c r="G5">
-        <v>0.6122726534585681</v>
+        <v>0.6122726534585823</v>
       </c>
       <c r="H5">
-        <v>0.6097072940542603</v>
+        <v>0.6097072940542674</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.11198623382765</v>
+        <v>6.111986233827565</v>
       </c>
       <c r="K5">
-        <v>0.0333953077643514</v>
+        <v>0.03339530776434607</v>
       </c>
       <c r="L5">
-        <v>3.604852284502044</v>
+        <v>3.604852284501945</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,10 +567,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.005887342362431269</v>
+        <v>0.005887342362417058</v>
       </c>
       <c r="D6">
-        <v>0.001339475432220461</v>
+        <v>0.001339475432335036</v>
       </c>
       <c r="E6">
         <v>0.03520387258454427</v>
@@ -582,7 +582,7 @@
         <v>0.6078605743218191</v>
       </c>
       <c r="H6">
-        <v>0.605373802269213</v>
+        <v>0.6053738022692201</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>6.066712029513809</v>
       </c>
       <c r="K6">
-        <v>0.03322828560524549</v>
+        <v>0.03322828560523838</v>
       </c>
       <c r="L6">
-        <v>3.578039384206448</v>
+        <v>3.578039384206377</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.006225718624307319</v>
+        <v>0.006225718624424559</v>
       </c>
       <c r="D7">
-        <v>0.001373833058213592</v>
+        <v>0.001373833058215368</v>
       </c>
       <c r="E7">
-        <v>0.03621609854969066</v>
+        <v>0.03621609854966756</v>
       </c>
       <c r="F7">
         <v>0.8838735847423038</v>
       </c>
       <c r="G7">
-        <v>0.6390803341430171</v>
+        <v>0.63908033414301</v>
       </c>
       <c r="H7">
-        <v>0.6360074171262085</v>
+        <v>0.6360074171262013</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.381582687497598</v>
+        <v>6.381582687497627</v>
       </c>
       <c r="K7">
-        <v>0.034402334012821</v>
+        <v>0.03440233401283344</v>
       </c>
       <c r="L7">
-        <v>3.764566168393458</v>
+        <v>3.7645661683935</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,34 +643,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.007789583815632994</v>
+        <v>0.007789583815519308</v>
       </c>
       <c r="D8">
-        <v>0.002311796567554758</v>
+        <v>0.002311796567700419</v>
       </c>
       <c r="E8">
-        <v>0.04109584361357577</v>
+        <v>0.04109584361356156</v>
       </c>
       <c r="F8">
-        <v>1.094194244831684</v>
+        <v>1.094194244831698</v>
       </c>
       <c r="G8">
         <v>0.7934139376263687</v>
       </c>
       <c r="H8">
-        <v>0.7866167778521032</v>
+        <v>0.786616777852096</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.789630618705132</v>
+        <v>7.789630618705246</v>
       </c>
       <c r="K8">
-        <v>0.03999055160589826</v>
+        <v>0.03999055160591425</v>
       </c>
       <c r="L8">
-        <v>4.600060451605088</v>
+        <v>4.600060451605046</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -684,13 +684,13 @@
         <v>0.01124723561452967</v>
       </c>
       <c r="D9">
-        <v>0.008052824918438617</v>
+        <v>0.008052824918353352</v>
       </c>
       <c r="E9">
-        <v>0.05260428443935439</v>
+        <v>0.05260428443937215</v>
       </c>
       <c r="F9">
-        <v>1.601336903746372</v>
+        <v>1.601336903746386</v>
       </c>
       <c r="G9">
         <v>1.176950579195662</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.6557754133762</v>
+        <v>10.65577541337623</v>
       </c>
       <c r="K9">
-        <v>0.05291450675794351</v>
+        <v>0.05291450675792575</v>
       </c>
       <c r="L9">
         <v>6.307305941833476</v>
@@ -719,31 +719,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01419928713540841</v>
+        <v>0.01419928713513485</v>
       </c>
       <c r="D10">
-        <v>0.01600244059825684</v>
+        <v>0.01600244059826039</v>
       </c>
       <c r="E10">
-        <v>0.06280180149810377</v>
+        <v>0.06280180149811088</v>
       </c>
       <c r="F10">
-        <v>2.062360332743836</v>
+        <v>2.062360332743808</v>
       </c>
       <c r="G10">
-        <v>1.534248532696807</v>
+        <v>1.534248532696765</v>
       </c>
       <c r="H10">
-        <v>1.499690471481344</v>
+        <v>1.499690471481301</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>12.87194520843909</v>
+        <v>12.87194520843906</v>
       </c>
       <c r="K10">
-        <v>0.06422749454117138</v>
+        <v>0.06422749454115007</v>
       </c>
       <c r="L10">
         <v>7.633196546249167</v>
@@ -757,34 +757,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01568531306311272</v>
+        <v>0.01568531306319443</v>
       </c>
       <c r="D11">
-        <v>0.0208464665838255</v>
+        <v>0.02084646658383527</v>
       </c>
       <c r="E11">
-        <v>0.06798697582708257</v>
+        <v>0.06798697582708968</v>
       </c>
       <c r="F11">
-        <v>2.300503277495594</v>
+        <v>2.300503277495565</v>
       </c>
       <c r="G11">
-        <v>1.721070807193655</v>
+        <v>1.721070807193669</v>
       </c>
       <c r="H11">
-        <v>1.678026155550256</v>
+        <v>1.678026155550242</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>13.91780143924265</v>
+        <v>13.91780143924277</v>
       </c>
       <c r="K11">
-        <v>0.06995522023255418</v>
+        <v>0.0699552202325826</v>
       </c>
       <c r="L11">
-        <v>8.260671388986566</v>
+        <v>8.260671388986538</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,34 +795,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01627474307631971</v>
+        <v>0.01627474307623089</v>
       </c>
       <c r="D12">
-        <v>0.02290491920183513</v>
+        <v>0.02290491920174009</v>
       </c>
       <c r="E12">
-        <v>0.07004763450005669</v>
+        <v>0.070047634500078</v>
       </c>
       <c r="F12">
-        <v>2.395796995833265</v>
+        <v>2.395796995833223</v>
       </c>
       <c r="G12">
-        <v>1.796189364646622</v>
+        <v>1.796189364646565</v>
       </c>
       <c r="H12">
-        <v>1.749615403980599</v>
+        <v>1.749615403980556</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>14.32075940601476</v>
+        <v>14.32075940601467</v>
       </c>
       <c r="K12">
-        <v>0.07222854453369365</v>
+        <v>0.07222854453367589</v>
       </c>
       <c r="L12">
-        <v>8.502736567872205</v>
+        <v>8.502736567872176</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,31 +833,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01614649415257219</v>
+        <v>0.01614649415246916</v>
       </c>
       <c r="D13">
-        <v>0.02245071877558669</v>
+        <v>0.02245071877557248</v>
       </c>
       <c r="E13">
-        <v>0.06959916473726935</v>
+        <v>0.0695991647372729</v>
       </c>
       <c r="F13">
-        <v>2.375026942615492</v>
+        <v>2.375026942615477</v>
       </c>
       <c r="G13">
         <v>1.77980010470371</v>
       </c>
       <c r="H13">
-        <v>1.734001526378606</v>
+        <v>1.734001526378592</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>14.23363976735942</v>
+        <v>14.23363976735934</v>
       </c>
       <c r="K13">
-        <v>0.07173391099345139</v>
+        <v>0.07173391099345849</v>
       </c>
       <c r="L13">
         <v>8.450387497879831</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01573322916989639</v>
+        <v>0.01573322916999942</v>
       </c>
       <c r="D14">
-        <v>0.02101100303772974</v>
+        <v>0.02101100303771464</v>
       </c>
       <c r="E14">
-        <v>0.06815443644580554</v>
+        <v>0.06815443644580199</v>
       </c>
       <c r="F14">
         <v>2.308233771916647</v>
@@ -886,19 +886,19 @@
         <v>1.727157308521399</v>
       </c>
       <c r="H14">
-        <v>1.683829065672938</v>
+        <v>1.683829065672953</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>13.95080454338873</v>
+        <v>13.95080454338878</v>
       </c>
       <c r="K14">
-        <v>0.07014001767008082</v>
+        <v>0.07014001767005951</v>
       </c>
       <c r="L14">
-        <v>8.280490611506281</v>
+        <v>8.280490611506309</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,16 +909,16 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01548378200161693</v>
+        <v>0.01548378200162404</v>
       </c>
       <c r="D15">
-        <v>0.02015996832280909</v>
+        <v>0.0201599683227105</v>
       </c>
       <c r="E15">
         <v>0.06728278471117832</v>
       </c>
       <c r="F15">
-        <v>2.268022239810762</v>
+        <v>2.268022239810733</v>
       </c>
       <c r="G15">
         <v>1.695511776911886</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>13.77851103251936</v>
+        <v>13.77851103251942</v>
       </c>
       <c r="K15">
-        <v>0.06917801273637636</v>
+        <v>0.06917801273637991</v>
       </c>
       <c r="L15">
-        <v>8.177036463754433</v>
+        <v>8.177036463754462</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01410553692778649</v>
+        <v>0.01410553692796057</v>
       </c>
       <c r="D16">
-        <v>0.01571434792841586</v>
+        <v>0.01571434792852155</v>
       </c>
       <c r="E16">
-        <v>0.06247541393112499</v>
+        <v>0.06247541393112144</v>
       </c>
       <c r="F16">
-        <v>2.047450843097124</v>
+        <v>2.04745084309711</v>
       </c>
       <c r="G16">
         <v>1.522598059518685</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>12.80447423295561</v>
+        <v>12.80447423295558</v>
       </c>
       <c r="K16">
-        <v>0.0638665274338166</v>
+        <v>0.06386652743382015</v>
       </c>
       <c r="L16">
-        <v>7.592755471828326</v>
+        <v>7.592755471828298</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,13 +985,13 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01330053088563332</v>
+        <v>0.0133005308858074</v>
       </c>
       <c r="D17">
-        <v>0.01333145453731266</v>
+        <v>0.01333145453740148</v>
       </c>
       <c r="E17">
-        <v>0.05967797355115678</v>
+        <v>0.05967797355118876</v>
       </c>
       <c r="F17">
         <v>1.920067506707952</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12.21754477578585</v>
+        <v>12.21754477578588</v>
       </c>
       <c r="K17">
-        <v>0.060770174863368</v>
+        <v>0.06077017486338931</v>
       </c>
       <c r="L17">
         <v>7.241157005762744</v>
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01285053381253221</v>
+        <v>0.01285053381269563</v>
       </c>
       <c r="D18">
-        <v>0.01207293949483734</v>
+        <v>0.01207293949483379</v>
       </c>
       <c r="E18">
-        <v>0.05811902975629835</v>
+        <v>0.0581190297563019</v>
       </c>
       <c r="F18">
         <v>1.84940041763754</v>
       </c>
       <c r="G18">
-        <v>1.368406274673362</v>
+        <v>1.368406274673376</v>
       </c>
       <c r="H18">
-        <v>1.340988632520407</v>
+        <v>1.340988632520393</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>11.88340032570807</v>
       </c>
       <c r="K18">
-        <v>0.05904245005089237</v>
+        <v>0.05904245005088526</v>
       </c>
       <c r="L18">
-        <v>7.041146994670214</v>
+        <v>7.041146994670243</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,10 +1061,10 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01270024902082056</v>
+        <v>0.01270024902098399</v>
       </c>
       <c r="D19">
-        <v>0.01166483091840931</v>
+        <v>0.01166483091821746</v>
       </c>
       <c r="E19">
         <v>0.05759930507610633</v>
@@ -1076,16 +1076,16 @@
         <v>1.350178969035511</v>
       </c>
       <c r="H19">
-        <v>1.323520799475418</v>
+        <v>1.323520799475432</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.77081613741166</v>
+        <v>11.77081613741171</v>
       </c>
       <c r="K19">
-        <v>0.05846606313448888</v>
+        <v>0.05846606313447822</v>
       </c>
       <c r="L19">
         <v>6.973782891353267</v>
@@ -1099,34 +1099,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01338483852993733</v>
+        <v>0.01338483852983785</v>
       </c>
       <c r="D20">
-        <v>0.01357321637931186</v>
+        <v>0.01357321637931719</v>
       </c>
       <c r="E20">
-        <v>0.05997046396095485</v>
+        <v>0.05997046396097261</v>
       </c>
       <c r="F20">
-        <v>1.933351944267713</v>
+        <v>1.933351944267685</v>
       </c>
       <c r="G20">
-        <v>1.43363377508274</v>
+        <v>1.433633775082711</v>
       </c>
       <c r="H20">
-        <v>1.403455858837262</v>
+        <v>1.403455858837219</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12.2796585363821</v>
+        <v>12.27965853638202</v>
       </c>
       <c r="K20">
-        <v>0.06109414575841754</v>
+        <v>0.06109414575841399</v>
       </c>
       <c r="L20">
-        <v>7.278349298893346</v>
+        <v>7.278349298893318</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01585383265839724</v>
+        <v>0.01585383265857132</v>
       </c>
       <c r="D21">
-        <v>0.02142735175443633</v>
+        <v>0.02142735175442656</v>
       </c>
       <c r="E21">
-        <v>0.06857597898492784</v>
+        <v>0.06857597898494205</v>
       </c>
       <c r="F21">
         <v>2.327704170326101</v>
       </c>
       <c r="G21">
-        <v>1.742492871625856</v>
+        <v>1.742492871625842</v>
       </c>
       <c r="H21">
-        <v>1.698448211936849</v>
+        <v>1.698448211936821</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>14.03367865002647</v>
+        <v>14.03367865002642</v>
       </c>
       <c r="K21">
-        <v>0.07060515730465156</v>
+        <v>0.0706051573046409</v>
       </c>
       <c r="L21">
-        <v>8.330263712456286</v>
+        <v>8.330263712456258</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.01762738710349865</v>
+        <v>0.01762738710340273</v>
       </c>
       <c r="D22">
-        <v>0.02789997446219861</v>
+        <v>0.02789997446230608</v>
       </c>
       <c r="E22">
-        <v>0.07477895027707504</v>
+        <v>0.07477895027707859</v>
       </c>
       <c r="F22">
-        <v>2.615944598653712</v>
+        <v>2.61594459865367</v>
       </c>
       <c r="G22">
-        <v>1.970440205996766</v>
+        <v>1.970440205996724</v>
       </c>
       <c r="H22">
-        <v>1.915447937524348</v>
+        <v>1.91544793752432</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>15.22133115798567</v>
       </c>
       <c r="K22">
-        <v>0.07744349989322785</v>
+        <v>0.07744349989322075</v>
       </c>
       <c r="L22">
-        <v>9.044351414790157</v>
+        <v>9.044351414790128</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,13 +1213,13 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01666364927017128</v>
+        <v>0.0166636492702672</v>
       </c>
       <c r="D23">
-        <v>0.02430325151077639</v>
+        <v>0.02430325151077017</v>
       </c>
       <c r="E23">
-        <v>0.07140783330086009</v>
+        <v>0.07140783330087075</v>
       </c>
       <c r="F23">
         <v>2.458896068610926</v>
@@ -1228,7 +1228,7 @@
         <v>1.846034646911008</v>
       </c>
       <c r="H23">
-        <v>1.797084646387745</v>
+        <v>1.797084646387759</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>14.58308068958542</v>
       </c>
       <c r="K23">
-        <v>0.07372838560442574</v>
+        <v>0.07372838560440442</v>
       </c>
       <c r="L23">
-        <v>8.660410569417337</v>
+        <v>8.660410569417394</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,31 +1251,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01334668357580782</v>
+        <v>0.01334668357570123</v>
       </c>
       <c r="D24">
-        <v>0.01346357212971672</v>
+        <v>0.01346357212980109</v>
       </c>
       <c r="E24">
-        <v>0.05983807669248975</v>
+        <v>0.05983807669246488</v>
       </c>
       <c r="F24">
-        <v>1.927338127139478</v>
+        <v>1.92733812713945</v>
       </c>
       <c r="G24">
-        <v>1.428954556411441</v>
+        <v>1.428954556411426</v>
       </c>
       <c r="H24">
-        <v>1.398976803874149</v>
+        <v>1.398976803874163</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12.25156676774003</v>
+        <v>12.25156676773992</v>
       </c>
       <c r="K24">
-        <v>0.06094751676160115</v>
+        <v>0.0609475167615976</v>
       </c>
       <c r="L24">
         <v>7.261528101765492</v>
@@ -1289,22 +1289,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01025445725447227</v>
+        <v>0.01025445725446161</v>
       </c>
       <c r="D25">
-        <v>0.005960524889420782</v>
+        <v>0.005960524889442098</v>
       </c>
       <c r="E25">
-        <v>0.04923245158631318</v>
+        <v>0.04923245158629186</v>
       </c>
       <c r="F25">
-        <v>1.451213151180312</v>
+        <v>1.451213151180326</v>
       </c>
       <c r="G25">
-        <v>1.062154988909882</v>
+        <v>1.062154988909924</v>
       </c>
       <c r="H25">
-        <v>1.046701533115694</v>
+        <v>1.046701533115709</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>9.864922367214859</v>
       </c>
       <c r="K25">
-        <v>0.04915163432613312</v>
+        <v>0.04915163432613134</v>
       </c>
       <c r="L25">
-        <v>5.835373826046464</v>
+        <v>5.835373826046407</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_53/res_line/pl_mw.xlsx
@@ -415,31 +415,31 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.008234609432594908</v>
+        <v>0.008234609432708595</v>
       </c>
       <c r="D2">
-        <v>0.002789600927407321</v>
+        <v>0.002789600927378011</v>
       </c>
       <c r="E2">
-        <v>0.04253223940982664</v>
+        <v>0.0425322394098373</v>
       </c>
       <c r="F2">
-        <v>1.156656100942413</v>
+        <v>1.156656100942428</v>
       </c>
       <c r="G2">
-        <v>0.8399089318529036</v>
+        <v>0.839908931852932</v>
       </c>
       <c r="H2">
-        <v>0.8317794484617096</v>
+        <v>0.8317794484617025</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>8.17681912231734</v>
+        <v>8.176819122317454</v>
       </c>
       <c r="K2">
-        <v>0.041618927633289</v>
+        <v>0.04161892763328012</v>
       </c>
       <c r="L2">
         <v>4.830188369909777</v>
@@ -453,34 +453,34 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.006969528812845738</v>
+        <v>0.006969528813009163</v>
       </c>
       <c r="D3">
-        <v>0.001668116969751665</v>
+        <v>0.001668116969569589</v>
       </c>
       <c r="E3">
-        <v>0.03850018131825372</v>
+        <v>0.03850018131824129</v>
       </c>
       <c r="F3">
         <v>0.9819582093305996</v>
       </c>
       <c r="G3">
-        <v>0.710577748883864</v>
+        <v>0.7105777488838783</v>
       </c>
       <c r="H3">
-        <v>0.7059305635002886</v>
+        <v>0.7059305635002957</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.060736167911244</v>
+        <v>7.060736167911273</v>
       </c>
       <c r="K3">
-        <v>0.03703068609065596</v>
+        <v>0.03703068609065419</v>
       </c>
       <c r="L3">
-        <v>4.167279645066472</v>
+        <v>4.1672796450665</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -491,16 +491,16 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.006229711414093231</v>
+        <v>0.006229711414356132</v>
       </c>
       <c r="D4">
-        <v>0.001374623501964933</v>
+        <v>0.001374623501854799</v>
       </c>
       <c r="E4">
-        <v>0.03622815088116127</v>
+        <v>0.03622815088117548</v>
       </c>
       <c r="F4">
-        <v>0.884389504568162</v>
+        <v>0.8843895045681904</v>
       </c>
       <c r="G4">
         <v>0.6394538626350013</v>
@@ -512,13 +512,13 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>6.385275709552417</v>
+        <v>6.385275709552445</v>
       </c>
       <c r="K4">
-        <v>0.03441627500875022</v>
+        <v>0.03441627500876976</v>
       </c>
       <c r="L4">
-        <v>3.766754570698069</v>
+        <v>3.766754570698083</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -529,34 +529,34 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.0059357475704509</v>
+        <v>0.005935747570458005</v>
       </c>
       <c r="D5">
-        <v>0.001340377439754903</v>
+        <v>0.001340377439698059</v>
       </c>
       <c r="E5">
-        <v>0.03534752582886824</v>
+        <v>0.0353475258288718</v>
       </c>
       <c r="F5">
-        <v>0.8467373682832857</v>
+        <v>0.8467373682832999</v>
       </c>
       <c r="G5">
-        <v>0.6122726534585823</v>
+        <v>0.6122726534585681</v>
       </c>
       <c r="H5">
-        <v>0.6097072940542674</v>
+        <v>0.6097072940542603</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>6.111986233827565</v>
+        <v>6.11198623382765</v>
       </c>
       <c r="K5">
-        <v>0.03339530776434607</v>
+        <v>0.0333953077643514</v>
       </c>
       <c r="L5">
-        <v>3.604852284501945</v>
+        <v>3.604852284502044</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -567,10 +567,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.005887342362417058</v>
+        <v>0.005887342362431269</v>
       </c>
       <c r="D6">
-        <v>0.001339475432335036</v>
+        <v>0.001339475432220461</v>
       </c>
       <c r="E6">
         <v>0.03520387258454427</v>
@@ -582,7 +582,7 @@
         <v>0.6078605743218191</v>
       </c>
       <c r="H6">
-        <v>0.6053738022692201</v>
+        <v>0.605373802269213</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>6.066712029513809</v>
       </c>
       <c r="K6">
-        <v>0.03322828560523838</v>
+        <v>0.03322828560524549</v>
       </c>
       <c r="L6">
-        <v>3.578039384206377</v>
+        <v>3.578039384206448</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -605,34 +605,34 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.006225718624424559</v>
+        <v>0.006225718624307319</v>
       </c>
       <c r="D7">
-        <v>0.001373833058215368</v>
+        <v>0.001373833058213592</v>
       </c>
       <c r="E7">
-        <v>0.03621609854966756</v>
+        <v>0.03621609854969066</v>
       </c>
       <c r="F7">
         <v>0.8838735847423038</v>
       </c>
       <c r="G7">
-        <v>0.63908033414301</v>
+        <v>0.6390803341430171</v>
       </c>
       <c r="H7">
-        <v>0.6360074171262013</v>
+        <v>0.6360074171262085</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>6.381582687497627</v>
+        <v>6.381582687497598</v>
       </c>
       <c r="K7">
-        <v>0.03440233401283344</v>
+        <v>0.034402334012821</v>
       </c>
       <c r="L7">
-        <v>3.7645661683935</v>
+        <v>3.764566168393458</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -643,34 +643,34 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.007789583815519308</v>
+        <v>0.007789583815632994</v>
       </c>
       <c r="D8">
-        <v>0.002311796567700419</v>
+        <v>0.002311796567554758</v>
       </c>
       <c r="E8">
-        <v>0.04109584361356156</v>
+        <v>0.04109584361357577</v>
       </c>
       <c r="F8">
-        <v>1.094194244831698</v>
+        <v>1.094194244831684</v>
       </c>
       <c r="G8">
         <v>0.7934139376263687</v>
       </c>
       <c r="H8">
-        <v>0.786616777852096</v>
+        <v>0.7866167778521032</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.789630618705246</v>
+        <v>7.789630618705132</v>
       </c>
       <c r="K8">
-        <v>0.03999055160591425</v>
+        <v>0.03999055160589826</v>
       </c>
       <c r="L8">
-        <v>4.600060451605046</v>
+        <v>4.600060451605088</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -684,13 +684,13 @@
         <v>0.01124723561452967</v>
       </c>
       <c r="D9">
-        <v>0.008052824918353352</v>
+        <v>0.008052824918438617</v>
       </c>
       <c r="E9">
-        <v>0.05260428443937215</v>
+        <v>0.05260428443935439</v>
       </c>
       <c r="F9">
-        <v>1.601336903746386</v>
+        <v>1.601336903746372</v>
       </c>
       <c r="G9">
         <v>1.176950579195662</v>
@@ -702,10 +702,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.65577541337623</v>
+        <v>10.6557754133762</v>
       </c>
       <c r="K9">
-        <v>0.05291450675792575</v>
+        <v>0.05291450675794351</v>
       </c>
       <c r="L9">
         <v>6.307305941833476</v>
@@ -719,31 +719,31 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01419928713513485</v>
+        <v>0.01419928713540841</v>
       </c>
       <c r="D10">
-        <v>0.01600244059826039</v>
+        <v>0.01600244059825684</v>
       </c>
       <c r="E10">
-        <v>0.06280180149811088</v>
+        <v>0.06280180149810377</v>
       </c>
       <c r="F10">
-        <v>2.062360332743808</v>
+        <v>2.062360332743836</v>
       </c>
       <c r="G10">
-        <v>1.534248532696765</v>
+        <v>1.534248532696807</v>
       </c>
       <c r="H10">
-        <v>1.499690471481301</v>
+        <v>1.499690471481344</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>12.87194520843906</v>
+        <v>12.87194520843909</v>
       </c>
       <c r="K10">
-        <v>0.06422749454115007</v>
+        <v>0.06422749454117138</v>
       </c>
       <c r="L10">
         <v>7.633196546249167</v>
@@ -757,34 +757,34 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01568531306319443</v>
+        <v>0.01568531306311272</v>
       </c>
       <c r="D11">
-        <v>0.02084646658383527</v>
+        <v>0.0208464665838255</v>
       </c>
       <c r="E11">
-        <v>0.06798697582708968</v>
+        <v>0.06798697582708257</v>
       </c>
       <c r="F11">
-        <v>2.300503277495565</v>
+        <v>2.300503277495594</v>
       </c>
       <c r="G11">
-        <v>1.721070807193669</v>
+        <v>1.721070807193655</v>
       </c>
       <c r="H11">
-        <v>1.678026155550242</v>
+        <v>1.678026155550256</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>13.91780143924277</v>
+        <v>13.91780143924265</v>
       </c>
       <c r="K11">
-        <v>0.0699552202325826</v>
+        <v>0.06995522023255418</v>
       </c>
       <c r="L11">
-        <v>8.260671388986538</v>
+        <v>8.260671388986566</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -795,34 +795,34 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01627474307623089</v>
+        <v>0.01627474307631971</v>
       </c>
       <c r="D12">
-        <v>0.02290491920174009</v>
+        <v>0.02290491920183513</v>
       </c>
       <c r="E12">
-        <v>0.070047634500078</v>
+        <v>0.07004763450005669</v>
       </c>
       <c r="F12">
-        <v>2.395796995833223</v>
+        <v>2.395796995833265</v>
       </c>
       <c r="G12">
-        <v>1.796189364646565</v>
+        <v>1.796189364646622</v>
       </c>
       <c r="H12">
-        <v>1.749615403980556</v>
+        <v>1.749615403980599</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>14.32075940601467</v>
+        <v>14.32075940601476</v>
       </c>
       <c r="K12">
-        <v>0.07222854453367589</v>
+        <v>0.07222854453369365</v>
       </c>
       <c r="L12">
-        <v>8.502736567872176</v>
+        <v>8.502736567872205</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -833,31 +833,31 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01614649415246916</v>
+        <v>0.01614649415257219</v>
       </c>
       <c r="D13">
-        <v>0.02245071877557248</v>
+        <v>0.02245071877558669</v>
       </c>
       <c r="E13">
-        <v>0.0695991647372729</v>
+        <v>0.06959916473726935</v>
       </c>
       <c r="F13">
-        <v>2.375026942615477</v>
+        <v>2.375026942615492</v>
       </c>
       <c r="G13">
         <v>1.77980010470371</v>
       </c>
       <c r="H13">
-        <v>1.734001526378592</v>
+        <v>1.734001526378606</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>14.23363976735934</v>
+        <v>14.23363976735942</v>
       </c>
       <c r="K13">
-        <v>0.07173391099345849</v>
+        <v>0.07173391099345139</v>
       </c>
       <c r="L13">
         <v>8.450387497879831</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01573322916999942</v>
+        <v>0.01573322916989639</v>
       </c>
       <c r="D14">
-        <v>0.02101100303771464</v>
+        <v>0.02101100303772974</v>
       </c>
       <c r="E14">
-        <v>0.06815443644580199</v>
+        <v>0.06815443644580554</v>
       </c>
       <c r="F14">
         <v>2.308233771916647</v>
@@ -886,19 +886,19 @@
         <v>1.727157308521399</v>
       </c>
       <c r="H14">
-        <v>1.683829065672953</v>
+        <v>1.683829065672938</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>13.95080454338878</v>
+        <v>13.95080454338873</v>
       </c>
       <c r="K14">
-        <v>0.07014001767005951</v>
+        <v>0.07014001767008082</v>
       </c>
       <c r="L14">
-        <v>8.280490611506309</v>
+        <v>8.280490611506281</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -909,16 +909,16 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01548378200162404</v>
+        <v>0.01548378200161693</v>
       </c>
       <c r="D15">
-        <v>0.0201599683227105</v>
+        <v>0.02015996832280909</v>
       </c>
       <c r="E15">
         <v>0.06728278471117832</v>
       </c>
       <c r="F15">
-        <v>2.268022239810733</v>
+        <v>2.268022239810762</v>
       </c>
       <c r="G15">
         <v>1.695511776911886</v>
@@ -930,13 +930,13 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>13.77851103251942</v>
+        <v>13.77851103251936</v>
       </c>
       <c r="K15">
-        <v>0.06917801273637991</v>
+        <v>0.06917801273637636</v>
       </c>
       <c r="L15">
-        <v>8.177036463754462</v>
+        <v>8.177036463754433</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -947,16 +947,16 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01410553692796057</v>
+        <v>0.01410553692778649</v>
       </c>
       <c r="D16">
-        <v>0.01571434792852155</v>
+        <v>0.01571434792841586</v>
       </c>
       <c r="E16">
-        <v>0.06247541393112144</v>
+        <v>0.06247541393112499</v>
       </c>
       <c r="F16">
-        <v>2.04745084309711</v>
+        <v>2.047450843097124</v>
       </c>
       <c r="G16">
         <v>1.522598059518685</v>
@@ -968,13 +968,13 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>12.80447423295558</v>
+        <v>12.80447423295561</v>
       </c>
       <c r="K16">
-        <v>0.06386652743382015</v>
+        <v>0.0638665274338166</v>
       </c>
       <c r="L16">
-        <v>7.592755471828298</v>
+        <v>7.592755471828326</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -985,13 +985,13 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.0133005308858074</v>
+        <v>0.01330053088563332</v>
       </c>
       <c r="D17">
-        <v>0.01333145453740148</v>
+        <v>0.01333145453731266</v>
       </c>
       <c r="E17">
-        <v>0.05967797355118876</v>
+        <v>0.05967797355115678</v>
       </c>
       <c r="F17">
         <v>1.920067506707952</v>
@@ -1006,10 +1006,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>12.21754477578588</v>
+        <v>12.21754477578585</v>
       </c>
       <c r="K17">
-        <v>0.06077017486338931</v>
+        <v>0.060770174863368</v>
       </c>
       <c r="L17">
         <v>7.241157005762744</v>
@@ -1023,22 +1023,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01285053381269563</v>
+        <v>0.01285053381253221</v>
       </c>
       <c r="D18">
-        <v>0.01207293949483379</v>
+        <v>0.01207293949483734</v>
       </c>
       <c r="E18">
-        <v>0.0581190297563019</v>
+        <v>0.05811902975629835</v>
       </c>
       <c r="F18">
         <v>1.84940041763754</v>
       </c>
       <c r="G18">
-        <v>1.368406274673376</v>
+        <v>1.368406274673362</v>
       </c>
       <c r="H18">
-        <v>1.340988632520393</v>
+        <v>1.340988632520407</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,10 +1047,10 @@
         <v>11.88340032570807</v>
       </c>
       <c r="K18">
-        <v>0.05904245005088526</v>
+        <v>0.05904245005089237</v>
       </c>
       <c r="L18">
-        <v>7.041146994670243</v>
+        <v>7.041146994670214</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1061,10 +1061,10 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01270024902098399</v>
+        <v>0.01270024902082056</v>
       </c>
       <c r="D19">
-        <v>0.01166483091821746</v>
+        <v>0.01166483091840931</v>
       </c>
       <c r="E19">
         <v>0.05759930507610633</v>
@@ -1076,16 +1076,16 @@
         <v>1.350178969035511</v>
       </c>
       <c r="H19">
-        <v>1.323520799475432</v>
+        <v>1.323520799475418</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.77081613741171</v>
+        <v>11.77081613741166</v>
       </c>
       <c r="K19">
-        <v>0.05846606313447822</v>
+        <v>0.05846606313448888</v>
       </c>
       <c r="L19">
         <v>6.973782891353267</v>
@@ -1099,34 +1099,34 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01338483852983785</v>
+        <v>0.01338483852993733</v>
       </c>
       <c r="D20">
-        <v>0.01357321637931719</v>
+        <v>0.01357321637931186</v>
       </c>
       <c r="E20">
-        <v>0.05997046396097261</v>
+        <v>0.05997046396095485</v>
       </c>
       <c r="F20">
-        <v>1.933351944267685</v>
+        <v>1.933351944267713</v>
       </c>
       <c r="G20">
-        <v>1.433633775082711</v>
+        <v>1.43363377508274</v>
       </c>
       <c r="H20">
-        <v>1.403455858837219</v>
+        <v>1.403455858837262</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>12.27965853638202</v>
+        <v>12.2796585363821</v>
       </c>
       <c r="K20">
-        <v>0.06109414575841399</v>
+        <v>0.06109414575841754</v>
       </c>
       <c r="L20">
-        <v>7.278349298893318</v>
+        <v>7.278349298893346</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1137,34 +1137,34 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01585383265857132</v>
+        <v>0.01585383265839724</v>
       </c>
       <c r="D21">
-        <v>0.02142735175442656</v>
+        <v>0.02142735175443633</v>
       </c>
       <c r="E21">
-        <v>0.06857597898494205</v>
+        <v>0.06857597898492784</v>
       </c>
       <c r="F21">
         <v>2.327704170326101</v>
       </c>
       <c r="G21">
-        <v>1.742492871625842</v>
+        <v>1.742492871625856</v>
       </c>
       <c r="H21">
-        <v>1.698448211936821</v>
+        <v>1.698448211936849</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>14.03367865002642</v>
+        <v>14.03367865002647</v>
       </c>
       <c r="K21">
-        <v>0.0706051573046409</v>
+        <v>0.07060515730465156</v>
       </c>
       <c r="L21">
-        <v>8.330263712456258</v>
+        <v>8.330263712456286</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1175,22 +1175,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.01762738710340273</v>
+        <v>0.01762738710349865</v>
       </c>
       <c r="D22">
-        <v>0.02789997446230608</v>
+        <v>0.02789997446219861</v>
       </c>
       <c r="E22">
-        <v>0.07477895027707859</v>
+        <v>0.07477895027707504</v>
       </c>
       <c r="F22">
-        <v>2.61594459865367</v>
+        <v>2.615944598653712</v>
       </c>
       <c r="G22">
-        <v>1.970440205996724</v>
+        <v>1.970440205996766</v>
       </c>
       <c r="H22">
-        <v>1.91544793752432</v>
+        <v>1.915447937524348</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>15.22133115798567</v>
       </c>
       <c r="K22">
-        <v>0.07744349989322075</v>
+        <v>0.07744349989322785</v>
       </c>
       <c r="L22">
-        <v>9.044351414790128</v>
+        <v>9.044351414790157</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1213,13 +1213,13 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.0166636492702672</v>
+        <v>0.01666364927017128</v>
       </c>
       <c r="D23">
-        <v>0.02430325151077017</v>
+        <v>0.02430325151077639</v>
       </c>
       <c r="E23">
-        <v>0.07140783330087075</v>
+        <v>0.07140783330086009</v>
       </c>
       <c r="F23">
         <v>2.458896068610926</v>
@@ -1228,7 +1228,7 @@
         <v>1.846034646911008</v>
       </c>
       <c r="H23">
-        <v>1.797084646387759</v>
+        <v>1.797084646387745</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,10 +1237,10 @@
         <v>14.58308068958542</v>
       </c>
       <c r="K23">
-        <v>0.07372838560440442</v>
+        <v>0.07372838560442574</v>
       </c>
       <c r="L23">
-        <v>8.660410569417394</v>
+        <v>8.660410569417337</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1251,31 +1251,31 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01334668357570123</v>
+        <v>0.01334668357580782</v>
       </c>
       <c r="D24">
-        <v>0.01346357212980109</v>
+        <v>0.01346357212971672</v>
       </c>
       <c r="E24">
-        <v>0.05983807669246488</v>
+        <v>0.05983807669248975</v>
       </c>
       <c r="F24">
-        <v>1.92733812713945</v>
+        <v>1.927338127139478</v>
       </c>
       <c r="G24">
-        <v>1.428954556411426</v>
+        <v>1.428954556411441</v>
       </c>
       <c r="H24">
-        <v>1.398976803874163</v>
+        <v>1.398976803874149</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>12.25156676773992</v>
+        <v>12.25156676774003</v>
       </c>
       <c r="K24">
-        <v>0.0609475167615976</v>
+        <v>0.06094751676160115</v>
       </c>
       <c r="L24">
         <v>7.261528101765492</v>
@@ -1289,22 +1289,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01025445725446161</v>
+        <v>0.01025445725447227</v>
       </c>
       <c r="D25">
-        <v>0.005960524889442098</v>
+        <v>0.005960524889420782</v>
       </c>
       <c r="E25">
-        <v>0.04923245158629186</v>
+        <v>0.04923245158631318</v>
       </c>
       <c r="F25">
-        <v>1.451213151180326</v>
+        <v>1.451213151180312</v>
       </c>
       <c r="G25">
-        <v>1.062154988909924</v>
+        <v>1.062154988909882</v>
       </c>
       <c r="H25">
-        <v>1.046701533115709</v>
+        <v>1.046701533115694</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>9.864922367214859</v>
       </c>
       <c r="K25">
-        <v>0.04915163432613134</v>
+        <v>0.04915163432613312</v>
       </c>
       <c r="L25">
-        <v>5.835373826046407</v>
+        <v>5.835373826046464</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_53/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,8 +406,11 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -415,37 +418,40 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.008234609432708595</v>
+        <v>0.00825510465264756</v>
       </c>
       <c r="D2">
-        <v>0.002789600927378011</v>
+        <v>0.002806908941334285</v>
       </c>
       <c r="E2">
-        <v>0.0425322394098373</v>
+        <v>0.04251852990017468</v>
       </c>
       <c r="F2">
-        <v>1.156656100942428</v>
+        <v>1.155036728763449</v>
       </c>
       <c r="G2">
-        <v>0.839908931852932</v>
+        <v>0.2881427217480166</v>
       </c>
       <c r="H2">
-        <v>0.8317794484617025</v>
+        <v>0.5541590008986645</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.8305426807153538</v>
       </c>
       <c r="J2">
-        <v>8.176819122317454</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.04161892763328012</v>
+        <v>8.17637594094117</v>
       </c>
       <c r="L2">
-        <v>4.830188369909777</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>0.04162845377214452</v>
+      </c>
+      <c r="M2">
+        <v>4.829993702179351</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -453,37 +459,40 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.006969528813009163</v>
+        <v>0.0069887888826905</v>
       </c>
       <c r="D3">
-        <v>0.001668116969569589</v>
+        <v>0.001686850323908473</v>
       </c>
       <c r="E3">
-        <v>0.03850018131824129</v>
+        <v>0.03848729386798233</v>
       </c>
       <c r="F3">
-        <v>0.9819582093305996</v>
+        <v>0.980596772967246</v>
       </c>
       <c r="G3">
-        <v>0.7105777488838783</v>
+        <v>0.2401555762712562</v>
       </c>
       <c r="H3">
-        <v>0.7059305635002957</v>
+        <v>0.4731942767615038</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.7048911786612493</v>
       </c>
       <c r="J3">
-        <v>7.060736167911273</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0.03703068609065419</v>
+        <v>7.060430990132659</v>
       </c>
       <c r="L3">
-        <v>4.1672796450665</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>0.03703852953369235</v>
+      </c>
+      <c r="M3">
+        <v>4.167161074849972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -491,37 +500,40 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.006229711414356132</v>
+        <v>0.006248051145902878</v>
       </c>
       <c r="D4">
-        <v>0.001374623501854799</v>
+        <v>0.001393213772942659</v>
       </c>
       <c r="E4">
-        <v>0.03622815088117548</v>
+        <v>0.0362161282199871</v>
       </c>
       <c r="F4">
-        <v>0.8843895045681904</v>
+        <v>0.8831711043782775</v>
       </c>
       <c r="G4">
-        <v>0.6394538626350013</v>
+        <v>0.2134141427509348</v>
       </c>
       <c r="H4">
-        <v>0.6363735248737825</v>
+        <v>0.4290248646967498</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.6354432274046005</v>
       </c>
       <c r="J4">
-        <v>6.385275709552445</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0.03441627500876976</v>
+        <v>6.385041610345496</v>
       </c>
       <c r="L4">
-        <v>3.766754570698083</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>0.03442324270206853</v>
+      </c>
+      <c r="M4">
+        <v>3.766673727049124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -529,37 +541,40 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.005935747570458005</v>
+        <v>0.005953678077741387</v>
       </c>
       <c r="D5">
-        <v>0.001340377439698059</v>
+        <v>0.001358691452127303</v>
       </c>
       <c r="E5">
-        <v>0.0353475258288718</v>
+        <v>0.03533593765128096</v>
       </c>
       <c r="F5">
-        <v>0.8467373682832999</v>
+        <v>0.8455740557108697</v>
       </c>
       <c r="G5">
-        <v>0.6122726534585681</v>
+        <v>0.2031059173666208</v>
       </c>
       <c r="H5">
-        <v>0.6097072940542603</v>
+        <v>0.4122345292620295</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.6088189224288172</v>
       </c>
       <c r="J5">
-        <v>6.11198623382765</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0.0333953077643514</v>
+        <v>6.111778315719192</v>
       </c>
       <c r="L5">
-        <v>3.604852284502044</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>0.03340195512497957</v>
+      </c>
+      <c r="M5">
+        <v>3.604784972200946</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -567,37 +582,40 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.005887342362431269</v>
+        <v>0.005905203024383354</v>
       </c>
       <c r="D6">
-        <v>0.001339475432220461</v>
+        <v>0.001357731398498707</v>
       </c>
       <c r="E6">
-        <v>0.03520387258454427</v>
+        <v>0.0351923612766516</v>
       </c>
       <c r="F6">
-        <v>0.8406037348056827</v>
+        <v>0.8394493931717335</v>
       </c>
       <c r="G6">
-        <v>0.6078605743218191</v>
+        <v>0.2014272712880256</v>
       </c>
       <c r="H6">
-        <v>0.605373802269213</v>
+        <v>0.4095145898261663</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.6044922530760033</v>
       </c>
       <c r="J6">
-        <v>6.066712029513809</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0.03322828560524549</v>
+        <v>6.066508307358305</v>
       </c>
       <c r="L6">
-        <v>3.578039384206448</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>0.03323488189248458</v>
+      </c>
+      <c r="M6">
+        <v>3.57797421830638</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -605,37 +623,40 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.006225718624307319</v>
+        <v>0.006244052967893765</v>
       </c>
       <c r="D7">
-        <v>0.001373833058213592</v>
+        <v>0.00139242044060861</v>
       </c>
       <c r="E7">
-        <v>0.03621609854969066</v>
+        <v>0.03620408142644749</v>
       </c>
       <c r="F7">
-        <v>0.8838735847423038</v>
+        <v>0.8826559396605376</v>
       </c>
       <c r="G7">
-        <v>0.6390803341430171</v>
+        <v>0.2132728541308992</v>
       </c>
       <c r="H7">
-        <v>0.6360074171262085</v>
+        <v>0.428793755329167</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.6350776947044423</v>
       </c>
       <c r="J7">
-        <v>6.381582687497598</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0.034402334012821</v>
+        <v>6.38134895187892</v>
       </c>
       <c r="L7">
-        <v>3.764566168393458</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>0.03440929724212616</v>
+      </c>
+      <c r="M7">
+        <v>3.764485514195115</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -643,37 +664,40 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.007789583815632994</v>
+        <v>0.007809691083981107</v>
       </c>
       <c r="D8">
-        <v>0.002311796567554758</v>
+        <v>0.00232983255815622</v>
       </c>
       <c r="E8">
-        <v>0.04109584361357577</v>
+        <v>0.04108233748981505</v>
       </c>
       <c r="F8">
-        <v>1.094194244831684</v>
+        <v>1.092667426740135</v>
       </c>
       <c r="G8">
-        <v>0.7934139376263687</v>
+        <v>0.2709698366645341</v>
       </c>
       <c r="H8">
-        <v>0.7866167778521032</v>
+        <v>0.524972344085306</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.7854509224780841</v>
       </c>
       <c r="J8">
-        <v>7.789630618705132</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0.03999055160589826</v>
+        <v>7.789238287776413</v>
       </c>
       <c r="L8">
-        <v>4.600060451605088</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>0.03999946306633717</v>
+      </c>
+      <c r="M8">
+        <v>4.5998941693245</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -681,37 +705,40 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01124723561452967</v>
+        <v>0.01126916301814163</v>
       </c>
       <c r="D9">
-        <v>0.008052824918438617</v>
+        <v>0.008059521761600408</v>
       </c>
       <c r="E9">
-        <v>0.05260428443935439</v>
+        <v>0.05259113853685093</v>
       </c>
       <c r="F9">
-        <v>1.601336903746372</v>
+        <v>1.59904438362291</v>
       </c>
       <c r="G9">
-        <v>1.176950579195662</v>
+        <v>0.4108626582957413</v>
       </c>
       <c r="H9">
-        <v>1.157225479351908</v>
+        <v>0.767513819934976</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>1.155470800294879</v>
       </c>
       <c r="J9">
-        <v>10.6557754133762</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0.05291450675794351</v>
+        <v>10.6549259116068</v>
       </c>
       <c r="L9">
-        <v>6.307305941833476</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>0.05292861443010466</v>
+      </c>
+      <c r="M9">
+        <v>6.306875889687518</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -719,37 +746,40 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01419928713540841</v>
+        <v>0.01422085213210877</v>
       </c>
       <c r="D10">
-        <v>0.01600244059825684</v>
+        <v>0.01599047174274482</v>
       </c>
       <c r="E10">
-        <v>0.06280180149810377</v>
+        <v>0.06279157417124992</v>
       </c>
       <c r="F10">
-        <v>2.062360332743836</v>
+        <v>2.059337046731457</v>
       </c>
       <c r="G10">
-        <v>1.534248532696807</v>
+        <v>0.5388467159810233</v>
       </c>
       <c r="H10">
-        <v>1.499690471481344</v>
+        <v>0.9958078092732165</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>1.497370508195729</v>
       </c>
       <c r="J10">
-        <v>12.87194520843909</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.06422749454117138</v>
+        <v>12.87059851793774</v>
       </c>
       <c r="L10">
-        <v>7.633196546249167</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>0.06424638508235248</v>
+      </c>
+      <c r="M10">
+        <v>7.632467486286345</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -757,37 +787,40 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01568531306311272</v>
+        <v>0.01570611543139222</v>
       </c>
       <c r="D11">
-        <v>0.0208464665838255</v>
+        <v>0.0208223930025504</v>
       </c>
       <c r="E11">
-        <v>0.06798697582708257</v>
+        <v>0.06797881410510342</v>
       </c>
       <c r="F11">
-        <v>2.300503277495594</v>
+        <v>2.297087090808063</v>
       </c>
       <c r="G11">
-        <v>1.721070807193655</v>
+        <v>0.6052176930610642</v>
       </c>
       <c r="H11">
-        <v>1.678026155550256</v>
+        <v>1.115721559546856</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>1.675401319805147</v>
       </c>
       <c r="J11">
-        <v>13.91780143924265</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.06995522023255418</v>
+        <v>13.91616879201391</v>
       </c>
       <c r="L11">
-        <v>8.260671388986566</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>0.06997649214680735</v>
+      </c>
+      <c r="M11">
+        <v>8.259767388948575</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -795,37 +828,40 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01627474307631971</v>
+        <v>0.01629514280761413</v>
       </c>
       <c r="D12">
-        <v>0.02290491920183513</v>
+        <v>0.02287557358816983</v>
       </c>
       <c r="E12">
-        <v>0.07004763450005669</v>
+        <v>0.07004037530206375</v>
       </c>
       <c r="F12">
-        <v>2.395796995833265</v>
+        <v>2.392220376358466</v>
       </c>
       <c r="G12">
-        <v>1.796189364646622</v>
+        <v>0.6318216896289073</v>
       </c>
       <c r="H12">
-        <v>1.749615403980599</v>
+        <v>1.164018614062698</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1.746865921361319</v>
       </c>
       <c r="J12">
-        <v>14.32075940601476</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.07222854453369365</v>
+        <v>14.31900678136739</v>
       </c>
       <c r="L12">
-        <v>8.502736567872205</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>0.07225074267811138</v>
+      </c>
+      <c r="M12">
+        <v>8.501758712207788</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -833,37 +869,40 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01614649415257219</v>
+        <v>0.01616698621504042</v>
       </c>
       <c r="D13">
-        <v>0.02245071877558669</v>
+        <v>0.02242254256083687</v>
       </c>
       <c r="E13">
-        <v>0.06959916473726935</v>
+        <v>0.0695917055894526</v>
       </c>
       <c r="F13">
-        <v>2.375026942615492</v>
+        <v>2.371485452347599</v>
       </c>
       <c r="G13">
-        <v>1.77980010470371</v>
+        <v>0.626020987737121</v>
       </c>
       <c r="H13">
-        <v>1.734001526378606</v>
+        <v>1.153477586677994</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.731279344480157</v>
       </c>
       <c r="J13">
-        <v>14.23363976735942</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.07173391099345139</v>
+        <v>14.23191356420526</v>
       </c>
       <c r="L13">
-        <v>8.450387497879831</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>0.07175590872020621</v>
+      </c>
+      <c r="M13">
+        <v>8.449425927285432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -871,37 +910,40 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01573322916989639</v>
+        <v>0.01575400089021173</v>
       </c>
       <c r="D14">
-        <v>0.02101100303772974</v>
+        <v>0.02098651070427238</v>
       </c>
       <c r="E14">
-        <v>0.06815443644580554</v>
+        <v>0.06814634648274875</v>
       </c>
       <c r="F14">
-        <v>2.308233771916647</v>
+        <v>2.304804640646509</v>
       </c>
       <c r="G14">
-        <v>1.727157308521399</v>
+        <v>0.6073749413430392</v>
       </c>
       <c r="H14">
-        <v>1.683829065672938</v>
+        <v>1.119633221244413</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>1.681194175990584</v>
       </c>
       <c r="J14">
-        <v>13.95080454338873</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0.07014001767008082</v>
+        <v>13.94916228182751</v>
       </c>
       <c r="L14">
-        <v>8.280490611506281</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>0.07016136534735296</v>
+      </c>
+      <c r="M14">
+        <v>8.279580702124434</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -909,37 +951,40 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01548378200161693</v>
+        <v>0.01550470919839952</v>
       </c>
       <c r="D15">
-        <v>0.02015996832280909</v>
+        <v>0.02013763679608704</v>
       </c>
       <c r="E15">
-        <v>0.06728278471117832</v>
+        <v>0.06727432444526116</v>
       </c>
       <c r="F15">
-        <v>2.268022239810762</v>
+        <v>2.264660308416808</v>
       </c>
       <c r="G15">
-        <v>1.695511776911886</v>
+        <v>0.5961554765473664</v>
       </c>
       <c r="H15">
-        <v>1.653653324749655</v>
+        <v>1.099298558043088</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>1.651070622234641</v>
       </c>
       <c r="J15">
-        <v>13.77851103251936</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0.06917801273637636</v>
+        <v>13.77691855323181</v>
       </c>
       <c r="L15">
-        <v>8.177036463754433</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>0.06919896516836843</v>
+      </c>
+      <c r="M15">
+        <v>8.176157134619928</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -947,37 +992,40 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01410553692778649</v>
+        <v>0.01412713756353057</v>
       </c>
       <c r="D16">
-        <v>0.01571434792841586</v>
+        <v>0.01570308433312828</v>
       </c>
       <c r="E16">
-        <v>0.06247541393112499</v>
+        <v>0.06246506767451265</v>
       </c>
       <c r="F16">
-        <v>2.047450843097124</v>
+        <v>2.044451787911839</v>
       </c>
       <c r="G16">
-        <v>1.522598059518685</v>
+        <v>0.5346970064706227</v>
       </c>
       <c r="H16">
-        <v>1.488554417461415</v>
+        <v>0.9883404318526203</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>1.486253236748823</v>
       </c>
       <c r="J16">
-        <v>12.80447423295561</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0.0638665274338166</v>
+        <v>12.80314478787537</v>
       </c>
       <c r="L16">
-        <v>7.592755471828326</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>0.0638852661756566</v>
+      </c>
+      <c r="M16">
+        <v>7.592036905720846</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -985,37 +1033,40 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01330053088563332</v>
+        <v>0.01332237451056173</v>
       </c>
       <c r="D17">
-        <v>0.01333145453731266</v>
+        <v>0.01332595266335268</v>
       </c>
       <c r="E17">
-        <v>0.05967797355115678</v>
+        <v>0.05966666935315956</v>
       </c>
       <c r="F17">
-        <v>1.920067506707952</v>
+        <v>1.917273781153398</v>
       </c>
       <c r="G17">
-        <v>1.423298800724268</v>
+        <v>0.499270887705336</v>
       </c>
       <c r="H17">
-        <v>1.393562550002059</v>
+        <v>0.9247513458425232</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1.391420432450758</v>
       </c>
       <c r="J17">
-        <v>12.21754477578585</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0.060770174863368</v>
+        <v>12.2163595105072</v>
       </c>
       <c r="L17">
-        <v>7.241157005762744</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>0.06078760626902024</v>
+      </c>
+      <c r="M17">
+        <v>7.240525878049141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1023,37 +1074,40 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01285053381253221</v>
+        <v>0.01287246304588052</v>
       </c>
       <c r="D18">
-        <v>0.01207293949483734</v>
+        <v>0.01207042431117422</v>
       </c>
       <c r="E18">
-        <v>0.05811902975629835</v>
+        <v>0.05810724314028093</v>
       </c>
       <c r="F18">
-        <v>1.84940041763754</v>
+        <v>1.846719325488905</v>
       </c>
       <c r="G18">
-        <v>1.368406274673362</v>
+        <v>0.4796401395276604</v>
       </c>
       <c r="H18">
-        <v>1.340988632520407</v>
+        <v>0.8896462758498984</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>1.338933690186465</v>
       </c>
       <c r="J18">
-        <v>11.88340032570807</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0.05904245005089237</v>
+        <v>11.88229259890761</v>
       </c>
       <c r="L18">
-        <v>7.041146994670214</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>0.05905914940646184</v>
+      </c>
+      <c r="M18">
+        <v>7.040562650218448</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1061,37 +1115,40 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01270024902082056</v>
+        <v>0.01272219864247859</v>
       </c>
       <c r="D19">
-        <v>0.01166483091840931</v>
+        <v>0.01166327499174713</v>
       </c>
       <c r="E19">
-        <v>0.05759930507610633</v>
+        <v>0.0575873664675548</v>
       </c>
       <c r="F19">
-        <v>1.825893262896258</v>
+        <v>1.823249441548171</v>
       </c>
       <c r="G19">
-        <v>1.350178969035511</v>
+        <v>0.4731136498805739</v>
       </c>
       <c r="H19">
-        <v>1.323520799475418</v>
+        <v>0.8779974578545193</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>1.321494690757206</v>
       </c>
       <c r="J19">
-        <v>11.77081613741166</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0.05846606313448888</v>
+        <v>11.76973381511203</v>
       </c>
       <c r="L19">
-        <v>6.973782891353267</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>0.05848251811621097</v>
+      </c>
+      <c r="M19">
+        <v>6.973213834291784</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1099,37 +1156,40 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01338483852993733</v>
+        <v>0.01340666206482055</v>
       </c>
       <c r="D20">
-        <v>0.01357321637931186</v>
+        <v>0.01356713607193694</v>
       </c>
       <c r="E20">
-        <v>0.05997046396095485</v>
+        <v>0.05995925453856898</v>
       </c>
       <c r="F20">
-        <v>1.933351944267713</v>
+        <v>1.93053694496615</v>
       </c>
       <c r="G20">
-        <v>1.43363377508274</v>
+        <v>0.5029629919925327</v>
       </c>
       <c r="H20">
-        <v>1.403455858837262</v>
+        <v>0.9313646893679675</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>1.401297269539924</v>
       </c>
       <c r="J20">
-        <v>12.2796585363821</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0.06109414575841754</v>
+        <v>12.27845849967326</v>
       </c>
       <c r="L20">
-        <v>7.278349298893346</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>0.06111171429227724</v>
+      </c>
+      <c r="M20">
+        <v>7.277709238675499</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1137,37 +1197,40 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01585383265839724</v>
+        <v>0.01587452559831704</v>
       </c>
       <c r="D21">
-        <v>0.02142735175443633</v>
+        <v>0.02140179770770079</v>
       </c>
       <c r="E21">
-        <v>0.06857597898492784</v>
+        <v>0.06856807092966122</v>
       </c>
       <c r="F21">
-        <v>2.327704170326101</v>
+        <v>2.324242381674225</v>
       </c>
       <c r="G21">
-        <v>1.742492871625856</v>
+        <v>0.612809034311482</v>
       </c>
       <c r="H21">
-        <v>1.698448211936849</v>
+        <v>1.12949034364533</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>1.695787955004235</v>
       </c>
       <c r="J21">
-        <v>14.03367865002647</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0.07060515730465156</v>
+        <v>14.03201208066557</v>
       </c>
       <c r="L21">
-        <v>8.330263712456286</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>0.07062669532542643</v>
+      </c>
+      <c r="M21">
+        <v>8.32933885534473</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1175,37 +1238,40 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.01762738710349865</v>
+        <v>0.0176466564601796</v>
       </c>
       <c r="D22">
-        <v>0.02789997446219861</v>
+        <v>0.02785755249278488</v>
       </c>
       <c r="E22">
-        <v>0.07477895027707504</v>
+        <v>0.07477390730254996</v>
       </c>
       <c r="F22">
-        <v>2.615944598653712</v>
+        <v>2.611989922288032</v>
       </c>
       <c r="G22">
-        <v>1.970440205996766</v>
+        <v>0.6933760512540346</v>
       </c>
       <c r="H22">
-        <v>1.915447937524348</v>
+        <v>1.276206871039605</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>1.912404400170757</v>
       </c>
       <c r="J22">
-        <v>15.22133115798567</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0.07744349989322785</v>
+        <v>15.21928912516228</v>
       </c>
       <c r="L22">
-        <v>9.044351414790157</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>0.07746776696715685</v>
+      </c>
+      <c r="M22">
+        <v>9.043194502229653</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1213,37 +1279,40 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01666364927017128</v>
+        <v>0.01668375312749149</v>
       </c>
       <c r="D23">
-        <v>0.02430325151077639</v>
+        <v>0.02427028460836134</v>
       </c>
       <c r="E23">
-        <v>0.07140783330086009</v>
+        <v>0.07140119188812832</v>
       </c>
       <c r="F23">
-        <v>2.458896068610926</v>
+        <v>2.455212166017262</v>
       </c>
       <c r="G23">
-        <v>1.846034646911008</v>
+        <v>0.649451328465716</v>
       </c>
       <c r="H23">
-        <v>1.797084646387745</v>
+        <v>1.1960894280014</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>1.794251763638485</v>
       </c>
       <c r="J23">
-        <v>14.58308068958542</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0.07372838560442574</v>
+        <v>14.58124686625882</v>
       </c>
       <c r="L23">
-        <v>8.660410569417337</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>0.07375118734863051</v>
+      </c>
+      <c r="M23">
+        <v>8.659382597864123</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1251,37 +1320,40 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.01334668357580782</v>
+        <v>0.0133685163595807</v>
       </c>
       <c r="D24">
-        <v>0.01346357212971672</v>
+        <v>0.01345775433499163</v>
       </c>
       <c r="E24">
-        <v>0.05983807669248975</v>
+        <v>0.05982682421031527</v>
       </c>
       <c r="F24">
-        <v>1.927338127139478</v>
+        <v>1.924532762353408</v>
       </c>
       <c r="G24">
-        <v>1.428954556411441</v>
+        <v>0.5012915199519483</v>
       </c>
       <c r="H24">
-        <v>1.398976803874149</v>
+        <v>0.9283703120045743</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>1.396825674596997</v>
       </c>
       <c r="J24">
-        <v>12.25156676774003</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0.06094751676160115</v>
+        <v>12.2503734256502</v>
       </c>
       <c r="L24">
-        <v>7.261528101765492</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>0.0609650232386052</v>
+      </c>
+      <c r="M24">
+        <v>7.260892090651168</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1289,34 +1361,37 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01025445725447227</v>
+        <v>0.01027612972135827</v>
       </c>
       <c r="D25">
-        <v>0.005960524889420782</v>
+        <v>0.005971741373702599</v>
       </c>
       <c r="E25">
-        <v>0.04923245158631318</v>
+        <v>0.04921879355934777</v>
       </c>
       <c r="F25">
-        <v>1.451213151180312</v>
+        <v>1.449150985134253</v>
       </c>
       <c r="G25">
-        <v>1.062154988909882</v>
+        <v>0.3693461539606915</v>
       </c>
       <c r="H25">
-        <v>1.046701533115694</v>
+        <v>0.6945623084280328</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>1.045124453054441</v>
       </c>
       <c r="J25">
-        <v>9.864922367214859</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0.04915163432613312</v>
+        <v>9.864218387050045</v>
       </c>
       <c r="L25">
-        <v>5.835373826046464</v>
+        <v>0.04916417259889805</v>
+      </c>
+      <c r="M25">
+        <v>5.835029403949278</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_53/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,8 +409,14 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -418,40 +424,46 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.00825510465264756</v>
+        <v>0.1516643630543371</v>
       </c>
       <c r="D2">
-        <v>0.002806908941334285</v>
+        <v>0.1131685901726769</v>
       </c>
       <c r="E2">
-        <v>0.04251852990017468</v>
+        <v>0.03334861483994267</v>
       </c>
       <c r="F2">
-        <v>1.155036728763449</v>
+        <v>3.906746906753028</v>
       </c>
       <c r="G2">
-        <v>0.2881427217480166</v>
+        <v>0.0007495918666800023</v>
       </c>
       <c r="H2">
-        <v>0.5541590008986645</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0.8305426807153538</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.02673863327440795</v>
       </c>
       <c r="K2">
-        <v>8.17637594094117</v>
+        <v>4.729952097657758</v>
       </c>
       <c r="L2">
-        <v>0.04162845377214452</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>4.829993702179351</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>2.931834866130075</v>
+      </c>
+      <c r="N2">
+        <v>0.8610909972358343</v>
+      </c>
+      <c r="O2">
+        <v>3.209455600684251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -459,40 +471,46 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.0069887888826905</v>
+        <v>0.1292004522396866</v>
       </c>
       <c r="D3">
-        <v>0.001686850323908473</v>
+        <v>0.09589611132323483</v>
       </c>
       <c r="E3">
-        <v>0.03848729386798233</v>
+        <v>0.03141779541505407</v>
       </c>
       <c r="F3">
-        <v>0.980596772967246</v>
+        <v>3.439347655331744</v>
       </c>
       <c r="G3">
-        <v>0.2401555762712562</v>
+        <v>0.0007649665861183074</v>
       </c>
       <c r="H3">
-        <v>0.4731942767615038</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.7048911786612493</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.02888270299041551</v>
       </c>
       <c r="K3">
-        <v>7.060430990132659</v>
+        <v>4.068103113532146</v>
       </c>
       <c r="L3">
-        <v>0.03703852953369235</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>4.167161074849972</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>2.530243052379276</v>
+      </c>
+      <c r="N3">
+        <v>0.8701777984375241</v>
+      </c>
+      <c r="O3">
+        <v>2.808002703562167</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -500,40 +518,46 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.006248051145902878</v>
+        <v>0.1158708128117638</v>
       </c>
       <c r="D4">
-        <v>0.001393213772942659</v>
+        <v>0.08577120193650956</v>
       </c>
       <c r="E4">
-        <v>0.0362161282199871</v>
+        <v>0.03026773267647709</v>
       </c>
       <c r="F4">
-        <v>0.8831711043782775</v>
+        <v>3.169371350633412</v>
       </c>
       <c r="G4">
-        <v>0.2134141427509348</v>
+        <v>0.0007745213314454755</v>
       </c>
       <c r="H4">
-        <v>0.4290248646967498</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0.6354432274046005</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.03026951330469174</v>
       </c>
       <c r="K4">
-        <v>6.385041610345496</v>
+        <v>3.671725762519657</v>
       </c>
       <c r="L4">
-        <v>0.03442324270206853</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>3.766673727049124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>2.289928203670783</v>
+      </c>
+      <c r="N4">
+        <v>0.8773244545567422</v>
+      </c>
+      <c r="O4">
+        <v>2.575784848513194</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -541,40 +565,46 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.005953678077741387</v>
+        <v>0.1105352736167333</v>
       </c>
       <c r="D5">
-        <v>0.001358691452127303</v>
+        <v>0.08174343168624887</v>
       </c>
       <c r="E5">
-        <v>0.03533593765128096</v>
+        <v>0.02980614906476209</v>
       </c>
       <c r="F5">
-        <v>0.8455740557108697</v>
+        <v>3.06301545441292</v>
       </c>
       <c r="G5">
-        <v>0.2031059173666208</v>
+        <v>0.000778451365765062</v>
       </c>
       <c r="H5">
-        <v>0.4122345292620295</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0.6088189224288172</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.03085160310526369</v>
       </c>
       <c r="K5">
-        <v>6.111778315719192</v>
+        <v>3.512273445086919</v>
       </c>
       <c r="L5">
-        <v>0.03340195512497957</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>3.604784972200946</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>2.193306218701537</v>
+      </c>
+      <c r="N5">
+        <v>0.8806086579277093</v>
+      </c>
+      <c r="O5">
+        <v>2.484217410685702</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -582,40 +612,46 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.005905203024383354</v>
+        <v>0.1096546007748174</v>
       </c>
       <c r="D6">
-        <v>0.001357731398498707</v>
+        <v>0.08107996048468635</v>
       </c>
       <c r="E6">
-        <v>0.0351923612766516</v>
+        <v>0.02972988281278255</v>
       </c>
       <c r="F6">
-        <v>0.8394493931717335</v>
+        <v>3.045559988644413</v>
       </c>
       <c r="G6">
-        <v>0.2014272712880256</v>
+        <v>0.0007791063445335537</v>
       </c>
       <c r="H6">
-        <v>0.4095145898261663</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0.6044922530760033</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.03094926278419852</v>
       </c>
       <c r="K6">
-        <v>6.066508307358305</v>
+        <v>3.485910164890782</v>
       </c>
       <c r="L6">
-        <v>0.03323488189248458</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>3.57797421830638</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>2.177334157840633</v>
+      </c>
+      <c r="N6">
+        <v>0.8811758624254935</v>
+      </c>
+      <c r="O6">
+        <v>2.469183772496024</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -623,40 +659,46 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.006244052967893765</v>
+        <v>0.1157984899994773</v>
       </c>
       <c r="D7">
-        <v>0.00139242044060861</v>
+        <v>0.08571651167832073</v>
       </c>
       <c r="E7">
-        <v>0.03620408142644749</v>
+        <v>0.03026148115611527</v>
       </c>
       <c r="F7">
-        <v>0.8826559396605376</v>
+        <v>3.167922920018611</v>
       </c>
       <c r="G7">
-        <v>0.2132728541308992</v>
+        <v>0.0007745741766939286</v>
       </c>
       <c r="H7">
-        <v>0.428793755329167</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0.6350776947044423</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.03027729583467398</v>
       </c>
       <c r="K7">
-        <v>6.38134895187892</v>
+        <v>3.669567467131259</v>
       </c>
       <c r="L7">
-        <v>0.03440929724212616</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>3.764485514195115</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>2.28862015307898</v>
+      </c>
+      <c r="N7">
+        <v>0.8773672680177782</v>
+      </c>
+      <c r="O7">
+        <v>2.574538175031606</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -664,40 +706,46 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.007809691083981107</v>
+        <v>0.1438095594816247</v>
       </c>
       <c r="D8">
-        <v>0.00232983255815622</v>
+        <v>0.1070985185320481</v>
       </c>
       <c r="E8">
-        <v>0.04108233748981505</v>
+        <v>0.03267429152873724</v>
       </c>
       <c r="F8">
-        <v>1.092667426740135</v>
+        <v>3.741656703263487</v>
       </c>
       <c r="G8">
-        <v>0.2709698366645341</v>
+        <v>0.0007548742134750085</v>
       </c>
       <c r="H8">
-        <v>0.524972344085306</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0.7854509224780841</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.02746283739643429</v>
       </c>
       <c r="K8">
-        <v>7.789238287776413</v>
+        <v>4.499384067239021</v>
       </c>
       <c r="L8">
-        <v>0.03999946306633717</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>4.5998941693245</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>2.791891976069977</v>
+      </c>
+      <c r="N8">
+        <v>0.8638844932608123</v>
+      </c>
+      <c r="O8">
+        <v>3.067728628974166</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -705,40 +753,46 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.01126916301814163</v>
+        <v>0.2035199875283666</v>
       </c>
       <c r="D9">
-        <v>0.008059521761600408</v>
+        <v>0.1541012388494352</v>
       </c>
       <c r="E9">
-        <v>0.05259113853685093</v>
+        <v>0.03779205206484271</v>
       </c>
       <c r="F9">
-        <v>1.59904438362291</v>
+        <v>5.035528676730507</v>
       </c>
       <c r="G9">
-        <v>0.4108626582957413</v>
+        <v>0.0007167365237790158</v>
       </c>
       <c r="H9">
-        <v>0.767513819934976</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>1.155470800294879</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.02254055184266957</v>
       </c>
       <c r="K9">
-        <v>10.6549259116068</v>
+        <v>6.230259400422739</v>
       </c>
       <c r="L9">
-        <v>0.05292861443010466</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>6.306875889687518</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>3.843202219975012</v>
+      </c>
+      <c r="N9">
+        <v>0.8510659450448799</v>
+      </c>
+      <c r="O9">
+        <v>4.177115286593619</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -746,40 +800,46 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.01422085213210877</v>
+        <v>0.2522702252971953</v>
       </c>
       <c r="D10">
-        <v>0.01599047174274482</v>
+        <v>0.1940132780284074</v>
       </c>
       <c r="E10">
-        <v>0.06279157417124992</v>
+        <v>0.04198245060925565</v>
       </c>
       <c r="F10">
-        <v>2.059337046731457</v>
+        <v>6.149287414683101</v>
       </c>
       <c r="G10">
-        <v>0.5388467159810233</v>
+        <v>0.0006882798227532568</v>
       </c>
       <c r="H10">
-        <v>0.9958078092732165</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>1.497370508195729</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0193536904420526</v>
       </c>
       <c r="K10">
-        <v>12.87059851793774</v>
+        <v>7.608387263041237</v>
       </c>
       <c r="L10">
-        <v>0.06424638508235248</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>7.632467486286345</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>4.681031289153111</v>
+      </c>
+      <c r="N10">
+        <v>0.8519683103965434</v>
+      </c>
+      <c r="O10">
+        <v>5.130559820055964</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -787,40 +847,46 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.01570611543139222</v>
+        <v>0.2761249450498298</v>
       </c>
       <c r="D11">
-        <v>0.0208223930025504</v>
+        <v>0.2140750263707503</v>
       </c>
       <c r="E11">
-        <v>0.06797881410510342</v>
+        <v>0.04404699576919668</v>
       </c>
       <c r="F11">
-        <v>2.297087090808063</v>
+        <v>6.710338511683148</v>
       </c>
       <c r="G11">
-        <v>0.6052176930610642</v>
+        <v>0.000675007985146033</v>
       </c>
       <c r="H11">
-        <v>1.115721559546856</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>1.675401319805147</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.01801666328048857</v>
       </c>
       <c r="K11">
-        <v>13.91616879201391</v>
+        <v>8.272064229062494</v>
       </c>
       <c r="L11">
-        <v>0.06997649214680735</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>8.259767388948575</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>5.084600155239599</v>
+      </c>
+      <c r="N11">
+        <v>0.8552127603802546</v>
+      </c>
+      <c r="O11">
+        <v>5.610623088754977</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -828,40 +894,46 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.01629514280761413</v>
+        <v>0.2854714647915557</v>
       </c>
       <c r="D12">
-        <v>0.02287557358816983</v>
+        <v>0.2220339237090201</v>
       </c>
       <c r="E12">
-        <v>0.07004037530206375</v>
+        <v>0.0448594876349393</v>
       </c>
       <c r="F12">
-        <v>2.392220376358466</v>
+        <v>6.932833480751071</v>
       </c>
       <c r="G12">
-        <v>0.6318216896289073</v>
+        <v>0.0006699082992608689</v>
       </c>
       <c r="H12">
-        <v>1.164018614062698</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>1.746865921361319</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.01752875104917084</v>
       </c>
       <c r="K12">
-        <v>14.31900678136739</v>
+        <v>8.530259269927058</v>
       </c>
       <c r="L12">
-        <v>0.07225074267811138</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>8.501758712207788</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>5.241605271927142</v>
+      </c>
+      <c r="N12">
+        <v>0.8569142079331158</v>
+      </c>
+      <c r="O12">
+        <v>5.800980170016317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -869,40 +941,46 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.01616698621504042</v>
+        <v>0.2834431934978738</v>
       </c>
       <c r="D13">
-        <v>0.02242254256083687</v>
+        <v>0.2203020048807076</v>
       </c>
       <c r="E13">
-        <v>0.0695917055894526</v>
+        <v>0.04468297969627244</v>
       </c>
       <c r="F13">
-        <v>2.371485452347599</v>
+        <v>6.884425709377098</v>
       </c>
       <c r="G13">
-        <v>0.626020987737121</v>
+        <v>0.0006710104200612259</v>
       </c>
       <c r="H13">
-        <v>1.153477586677994</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>1.731279344480157</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.01763297238179096</v>
       </c>
       <c r="K13">
-        <v>14.23191356420526</v>
+        <v>8.474315659668861</v>
       </c>
       <c r="L13">
-        <v>0.07175590872020621</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>8.449425927285432</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>5.207586818415109</v>
+      </c>
+      <c r="N13">
+        <v>0.8565255128234242</v>
+      </c>
+      <c r="O13">
+        <v>5.759565242170936</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -910,40 +988,46 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.01575400089021173</v>
+        <v>0.2768871156262236</v>
       </c>
       <c r="D14">
-        <v>0.02098651070427238</v>
+        <v>0.2147219439298027</v>
       </c>
       <c r="E14">
-        <v>0.06814634648274875</v>
+        <v>0.04411316895932593</v>
       </c>
       <c r="F14">
-        <v>2.304804640646509</v>
+        <v>6.728426896283196</v>
       </c>
       <c r="G14">
-        <v>0.6073749413430392</v>
+        <v>0.0006745900980981102</v>
       </c>
       <c r="H14">
-        <v>1.119633221244413</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>1.681194175990584</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.01797613919572782</v>
       </c>
       <c r="K14">
-        <v>13.94916228182751</v>
+        <v>8.293157362303845</v>
       </c>
       <c r="L14">
-        <v>0.07016136534735296</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>8.279580702124434</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>5.097426663506681</v>
+      </c>
+      <c r="N14">
+        <v>0.8553428271174823</v>
+      </c>
+      <c r="O14">
+        <v>5.626099051774275</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -951,40 +1035,46 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.01550470919839952</v>
+        <v>0.2729146498509181</v>
       </c>
       <c r="D15">
-        <v>0.02013763679608704</v>
+        <v>0.2113542498792924</v>
       </c>
       <c r="E15">
-        <v>0.06727432444526116</v>
+        <v>0.04376842503757317</v>
       </c>
       <c r="F15">
-        <v>2.264660308416808</v>
+        <v>6.634258055766765</v>
       </c>
       <c r="G15">
-        <v>0.5961554765473664</v>
+        <v>0.0006767721801608229</v>
       </c>
       <c r="H15">
-        <v>1.099298558043088</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>1.651070622234641</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.01818880883000951</v>
       </c>
       <c r="K15">
-        <v>13.77691855323181</v>
+        <v>8.183143828037572</v>
       </c>
       <c r="L15">
-        <v>0.06919896516836843</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>8.176157134619928</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>5.030528607987407</v>
+      </c>
+      <c r="N15">
+        <v>0.8546822060554717</v>
+      </c>
+      <c r="O15">
+        <v>5.545529844897146</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -992,40 +1082,46 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.01412713756353057</v>
+        <v>0.2507506871013305</v>
       </c>
       <c r="D16">
-        <v>0.01570308433312828</v>
+        <v>0.1927474162545906</v>
       </c>
       <c r="E16">
-        <v>0.06246506767451265</v>
+        <v>0.04185132934355984</v>
       </c>
       <c r="F16">
-        <v>2.044451787911839</v>
+        <v>6.113890094685672</v>
       </c>
       <c r="G16">
-        <v>0.5346970064706227</v>
+        <v>0.0006891384756306597</v>
       </c>
       <c r="H16">
-        <v>0.9883404318526203</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>1.486253236748823</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.01944350996883415</v>
       </c>
       <c r="K16">
-        <v>12.80314478787537</v>
+        <v>7.565878992839856</v>
       </c>
       <c r="L16">
-        <v>0.0638852661756566</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>7.592036905720846</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>4.655183769443099</v>
+      </c>
+      <c r="N16">
+        <v>0.8518185189572449</v>
+      </c>
+      <c r="O16">
+        <v>5.100268600238024</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1033,40 +1129,46 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.01332237451056173</v>
+        <v>0.2376282521169486</v>
       </c>
       <c r="D17">
-        <v>0.01332595266335268</v>
+        <v>0.1818748715838154</v>
       </c>
       <c r="E17">
-        <v>0.05966666935315956</v>
+        <v>0.04072062603324866</v>
       </c>
       <c r="F17">
-        <v>1.917273781153398</v>
+        <v>5.809967320456053</v>
       </c>
       <c r="G17">
-        <v>0.499270887705336</v>
+        <v>0.000696624396099077</v>
       </c>
       <c r="H17">
-        <v>0.9247513458425232</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>1.391420432450758</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.02024347588289643</v>
       </c>
       <c r="K17">
-        <v>12.2163595105072</v>
+        <v>7.197607501036856</v>
       </c>
       <c r="L17">
-        <v>0.06078760626902024</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>7.240525878049141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>4.431261795525373</v>
+      </c>
+      <c r="N17">
+        <v>0.8508291399955112</v>
+      </c>
+      <c r="O17">
+        <v>4.840163749354161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1074,40 +1176,46 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.01287246304588052</v>
+        <v>0.2302331659606551</v>
       </c>
       <c r="D18">
-        <v>0.01207042431117422</v>
+        <v>0.1757940290505218</v>
       </c>
       <c r="E18">
-        <v>0.05810724314028093</v>
+        <v>0.04008457423949885</v>
       </c>
       <c r="F18">
-        <v>1.846719325488905</v>
+        <v>5.640114288194411</v>
       </c>
       <c r="G18">
-        <v>0.4796401395276604</v>
+        <v>0.0007009013485380372</v>
       </c>
       <c r="H18">
-        <v>0.8896462758498984</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>1.338933690186465</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.02071404362784568</v>
       </c>
       <c r="K18">
-        <v>11.88229259890761</v>
+        <v>6.989129253941599</v>
       </c>
       <c r="L18">
-        <v>0.05905914940646184</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>7.040562650218448</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>4.304508546109659</v>
+      </c>
+      <c r="N18">
+        <v>0.8505221073480271</v>
+      </c>
+      <c r="O18">
+        <v>4.694777987189354</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1115,40 +1223,46 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.01272219864247859</v>
+        <v>0.2277536730279763</v>
       </c>
       <c r="D19">
-        <v>0.01166327499174713</v>
+        <v>0.1737625948025538</v>
       </c>
       <c r="E19">
-        <v>0.0575873664675548</v>
+        <v>0.03987147487877252</v>
       </c>
       <c r="F19">
-        <v>1.823249441548171</v>
+        <v>5.583399107410514</v>
       </c>
       <c r="G19">
-        <v>0.4731136498805739</v>
+        <v>0.000702345205930488</v>
       </c>
       <c r="H19">
-        <v>0.8779974578545193</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>1.321494690757206</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.02087510663876868</v>
       </c>
       <c r="K19">
-        <v>11.76973381511203</v>
+        <v>6.919075211361928</v>
       </c>
       <c r="L19">
-        <v>0.05848251811621097</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>6.973213834291784</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>4.261917970909067</v>
+      </c>
+      <c r="N19">
+        <v>0.8504614219151847</v>
+      </c>
+      <c r="O19">
+        <v>4.646228672480675</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1156,40 +1270,46 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.01340666206482055</v>
+        <v>0.2390089127734143</v>
       </c>
       <c r="D20">
-        <v>0.01356713607193694</v>
+        <v>0.1830138453868244</v>
       </c>
       <c r="E20">
-        <v>0.05995925453856898</v>
+        <v>0.04083946265576266</v>
       </c>
       <c r="F20">
-        <v>1.93053694496615</v>
+        <v>5.841793650670013</v>
       </c>
       <c r="G20">
-        <v>0.5029629919925327</v>
+        <v>0.0006958306518468971</v>
       </c>
       <c r="H20">
-        <v>0.9313646893679675</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>1.401297269539924</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.02015722272855758</v>
       </c>
       <c r="K20">
-        <v>12.27845849967326</v>
+        <v>7.236454789710393</v>
       </c>
       <c r="L20">
-        <v>0.06111171429227724</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>7.277709238675499</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>4.454881452015954</v>
+      </c>
+      <c r="N20">
+        <v>0.8509069202629433</v>
+      </c>
+      <c r="O20">
+        <v>4.867403680045442</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1197,40 +1317,46 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.01587452559831704</v>
+        <v>0.278803603817309</v>
       </c>
       <c r="D21">
-        <v>0.02140179770770079</v>
+        <v>0.2163502684628753</v>
       </c>
       <c r="E21">
-        <v>0.06856807092966122</v>
+        <v>0.04427962541852892</v>
       </c>
       <c r="F21">
-        <v>2.324242381674225</v>
+        <v>6.773953896558226</v>
       </c>
       <c r="G21">
-        <v>0.612809034311482</v>
+        <v>0.0006735409244658628</v>
       </c>
       <c r="H21">
-        <v>1.12949034364533</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>1.695787955004235</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.01787482324171741</v>
       </c>
       <c r="K21">
-        <v>14.03201208066557</v>
+        <v>8.346166129036419</v>
       </c>
       <c r="L21">
-        <v>0.07062669532542643</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>8.32933885534473</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>5.12966070979131</v>
+      </c>
+      <c r="N21">
+        <v>0.8556767710817752</v>
+      </c>
+      <c r="O21">
+        <v>5.665050522111926</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1238,40 +1364,46 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.0176466564601796</v>
+        <v>0.3066899199739481</v>
       </c>
       <c r="D22">
-        <v>0.02785755249278488</v>
+        <v>0.2403128168564166</v>
       </c>
       <c r="E22">
-        <v>0.07477390730254996</v>
+        <v>0.04671296131852465</v>
       </c>
       <c r="F22">
-        <v>2.611989922288032</v>
+        <v>7.443291052425309</v>
       </c>
       <c r="G22">
-        <v>0.6933760512540346</v>
+        <v>0.0006585227654548313</v>
       </c>
       <c r="H22">
-        <v>1.276206871039605</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>1.912404400170757</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.01649183850642988</v>
       </c>
       <c r="K22">
-        <v>15.21928912516228</v>
+        <v>9.112656563768951</v>
       </c>
       <c r="L22">
-        <v>0.07746776696715685</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>9.043194502229653</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>5.595740313464518</v>
+      </c>
+      <c r="N22">
+        <v>0.8615944295407587</v>
+      </c>
+      <c r="O22">
+        <v>6.237685715755958</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1279,40 +1411,46 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.01668375312749149</v>
+        <v>0.2916042320619852</v>
       </c>
       <c r="D23">
-        <v>0.02427028460836134</v>
+        <v>0.2272868262053009</v>
       </c>
       <c r="E23">
-        <v>0.07140119188812832</v>
+        <v>0.04539385934360141</v>
       </c>
       <c r="F23">
-        <v>2.455212166017262</v>
+        <v>7.079616358705152</v>
       </c>
       <c r="G23">
-        <v>0.649451328465716</v>
+        <v>0.0006665908516297808</v>
       </c>
       <c r="H23">
-        <v>1.1960894280014</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>1.794251763638485</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.01721912577496898</v>
       </c>
       <c r="K23">
-        <v>14.58124686625882</v>
+        <v>8.69912190616455</v>
       </c>
       <c r="L23">
-        <v>0.07375118734863051</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>8.659382597864123</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>5.344287204180176</v>
+      </c>
+      <c r="N23">
+        <v>0.8581533868178042</v>
+      </c>
+      <c r="O23">
+        <v>5.926557465167178</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1320,40 +1458,46 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.0133685163595807</v>
+        <v>0.238384256534701</v>
       </c>
       <c r="D24">
-        <v>0.01345775433499163</v>
+        <v>0.1824983922374059</v>
       </c>
       <c r="E24">
-        <v>0.05982682421031527</v>
+        <v>0.040785693552845</v>
       </c>
       <c r="F24">
-        <v>1.924532762353408</v>
+        <v>5.82738993522949</v>
       </c>
       <c r="G24">
-        <v>0.5012915199519483</v>
+        <v>0.0006961895853457505</v>
       </c>
       <c r="H24">
-        <v>0.9283703120045743</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>1.396825674596997</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.02019618474288176</v>
       </c>
       <c r="K24">
-        <v>12.2503734256502</v>
+        <v>7.218881932593291</v>
       </c>
       <c r="L24">
-        <v>0.0609650232386052</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>7.260892090651168</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>4.444196898049881</v>
+      </c>
+      <c r="N24">
+        <v>0.8508709451229493</v>
+      </c>
+      <c r="O24">
+        <v>4.855075709648077</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1361,37 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.01027612972135827</v>
+        <v>0.1866791955032454</v>
       </c>
       <c r="D25">
-        <v>0.005971741373702599</v>
+        <v>0.1406406539815919</v>
       </c>
       <c r="E25">
-        <v>0.04921879355934777</v>
+        <v>0.03634922248758521</v>
       </c>
       <c r="F25">
-        <v>1.449150985134253</v>
+        <v>4.662052881720655</v>
       </c>
       <c r="G25">
-        <v>0.3693461539606915</v>
+        <v>0.0007270669235390408</v>
       </c>
       <c r="H25">
-        <v>0.6945623084280328</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>1.045124453054441</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.0238022562374427</v>
       </c>
       <c r="K25">
-        <v>9.864218387050045</v>
+        <v>5.747054944409228</v>
       </c>
       <c r="L25">
-        <v>0.04916417259889805</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>5.835029403949278</v>
+        <v>3.549561737264582</v>
+      </c>
+      <c r="N25">
+        <v>0.8528906005176964</v>
+      </c>
+      <c r="O25">
+        <v>3.857159123441505</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_53/res_line/pl_mw.xlsx
@@ -424,43 +424,43 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.1516643630543371</v>
+        <v>0.4258075968336641</v>
       </c>
       <c r="D2">
-        <v>0.1131685901726769</v>
+        <v>0.001645069267929289</v>
       </c>
       <c r="E2">
-        <v>0.03334861483994267</v>
+        <v>0.1909845854651451</v>
       </c>
       <c r="F2">
-        <v>3.906746906753028</v>
+        <v>1.382260993551924</v>
       </c>
       <c r="G2">
-        <v>0.0007495918666800023</v>
+        <v>1.408574614911942</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.7373293823108895</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.02673863327440795</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>4.729952097657758</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1765143227982762</v>
       </c>
       <c r="M2">
-        <v>2.931834866130075</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.8610909972358343</v>
+        <v>7.66312166460591</v>
       </c>
       <c r="O2">
-        <v>3.209455600684251</v>
+        <v>4.482871070596616</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,43 +471,43 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.1292004522396866</v>
+        <v>0.3781671966524982</v>
       </c>
       <c r="D3">
-        <v>0.09589611132323483</v>
+        <v>0.001829878608001545</v>
       </c>
       <c r="E3">
-        <v>0.03141779541505407</v>
+        <v>0.1690765959446807</v>
       </c>
       <c r="F3">
-        <v>3.439347655331744</v>
+        <v>1.209856809135403</v>
       </c>
       <c r="G3">
-        <v>0.0007649665861183074</v>
+        <v>1.226758546874464</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.6574334384979466</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.02888270299041551</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>4.068103113532146</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1558150272378782</v>
       </c>
       <c r="M3">
-        <v>2.530243052379276</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8701777984375241</v>
+        <v>6.74968365211538</v>
       </c>
       <c r="O3">
-        <v>2.808002703562167</v>
+        <v>3.929704370131958</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,43 +518,43 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.1158708128117638</v>
+        <v>0.3495639423813657</v>
       </c>
       <c r="D4">
-        <v>0.08577120193650956</v>
+        <v>0.001947258180017508</v>
       </c>
       <c r="E4">
-        <v>0.03026773267647709</v>
+        <v>0.1559253000643217</v>
       </c>
       <c r="F4">
-        <v>3.169371350633412</v>
+        <v>1.105966306463387</v>
       </c>
       <c r="G4">
-        <v>0.0007745213314454755</v>
+        <v>1.117119749325894</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.6095026360563907</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.03026951330469174</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>3.671725762519657</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1433914722852307</v>
       </c>
       <c r="M4">
-        <v>2.289928203670783</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8773244545567422</v>
+        <v>6.187481969423061</v>
       </c>
       <c r="O4">
-        <v>2.575784848513194</v>
+        <v>3.596630771206833</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,43 +565,43 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.1105352736167333</v>
+        <v>0.3380549256656877</v>
       </c>
       <c r="D5">
-        <v>0.08174343168624887</v>
+        <v>0.001995966307223318</v>
       </c>
       <c r="E5">
-        <v>0.02980614906476209</v>
+        <v>0.1506339184392971</v>
       </c>
       <c r="F5">
-        <v>3.06301545441292</v>
+        <v>1.064070082465165</v>
       </c>
       <c r="G5">
-        <v>0.000778451365765062</v>
+        <v>1.072884826342715</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.5902264277076483</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.03085160310526369</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>3.512273445086919</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1383931803576957</v>
       </c>
       <c r="M5">
-        <v>2.193306218701537</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.8806086579277093</v>
+        <v>5.958052239810286</v>
       </c>
       <c r="O5">
-        <v>2.484217410685702</v>
+        <v>3.462372948421887</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,43 +612,43 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.1096546007748174</v>
+        <v>0.3361522983546479</v>
       </c>
       <c r="D6">
-        <v>0.08107996048468635</v>
+        <v>0.002004104269868079</v>
       </c>
       <c r="E6">
-        <v>0.02972988281278255</v>
+        <v>0.1497591753113632</v>
       </c>
       <c r="F6">
-        <v>3.045559988644413</v>
+        <v>1.057138301704171</v>
       </c>
       <c r="G6">
-        <v>0.0007791063445335537</v>
+        <v>1.065564825701927</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.587040334035521</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.03094926278419852</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>3.485910164890782</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1375668992545087</v>
       </c>
       <c r="M6">
-        <v>2.177334157840633</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8811758624254935</v>
+        <v>5.919936152110608</v>
       </c>
       <c r="O6">
-        <v>2.469183772496024</v>
+        <v>3.440163434169392</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,43 +659,43 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.1157984899994773</v>
+        <v>0.3494081526440596</v>
       </c>
       <c r="D7">
-        <v>0.08571651167832073</v>
+        <v>0.001947911662205426</v>
       </c>
       <c r="E7">
-        <v>0.03026148115611527</v>
+        <v>0.155853673500399</v>
       </c>
       <c r="F7">
-        <v>3.167922920018611</v>
+        <v>1.105399566986875</v>
       </c>
       <c r="G7">
-        <v>0.0007745741766939286</v>
+        <v>1.116521459003394</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.6092416682717499</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.03027729583467398</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>3.669567467131259</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1433238122878677</v>
       </c>
       <c r="M7">
-        <v>2.28862015307898</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>0.8773672680177782</v>
+        <v>6.184389112219776</v>
       </c>
       <c r="O7">
-        <v>2.574538175031606</v>
+        <v>3.594814390855959</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,43 +706,43 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.1438095594816247</v>
+        <v>0.409236699543186</v>
       </c>
       <c r="D8">
-        <v>0.1070985185320481</v>
+        <v>0.001707911177853738</v>
       </c>
       <c r="E8">
-        <v>0.03267429152873724</v>
+        <v>0.1833636090959274</v>
       </c>
       <c r="F8">
-        <v>3.741656703263487</v>
+        <v>1.322373861221266</v>
       </c>
       <c r="G8">
-        <v>0.0007548742134750085</v>
+        <v>1.345433439282402</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.7095307046690777</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.02746283739643429</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>4.499384067239021</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.169313185799858</v>
       </c>
       <c r="M8">
-        <v>2.791891976069977</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>0.8638844932608123</v>
+        <v>7.348453399592813</v>
       </c>
       <c r="O8">
-        <v>3.067728628974166</v>
+        <v>4.290662092988157</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,43 +753,43 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.2035199875283666</v>
+        <v>0.5324893930996666</v>
       </c>
       <c r="D9">
-        <v>0.1541012388494352</v>
+        <v>0.00127404880444959</v>
       </c>
       <c r="E9">
-        <v>0.03779205206484271</v>
+        <v>0.240070189988252</v>
       </c>
       <c r="F9">
-        <v>5.035528676730507</v>
+        <v>1.766149794455487</v>
       </c>
       <c r="G9">
-        <v>0.0007167365237790158</v>
+        <v>1.813057980356092</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.9164658905371255</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.02254055184266957</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>6.230259400422739</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.2229165315756205</v>
       </c>
       <c r="M9">
-        <v>3.843202219975012</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>0.8510659450448799</v>
+        <v>9.620230281550789</v>
       </c>
       <c r="O9">
-        <v>4.177115286593619</v>
+        <v>5.716284687559892</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,43 +800,43 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.2522702252971953</v>
+        <v>0.6278652465356913</v>
       </c>
       <c r="D10">
-        <v>0.1940132780284074</v>
+        <v>0.0009875281143925108</v>
       </c>
       <c r="E10">
-        <v>0.04198245060925565</v>
+        <v>0.2839944294429486</v>
       </c>
       <c r="F10">
-        <v>6.149287414683101</v>
+        <v>2.107471108454035</v>
       </c>
       <c r="G10">
-        <v>0.0006882798227532568</v>
+        <v>2.172473005211828</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1.076818433794784</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0193536904420526</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>7.608387263041237</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.2644764625622997</v>
       </c>
       <c r="M10">
-        <v>4.681031289153111</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>0.8519683103965434</v>
+        <v>11.28258838837513</v>
       </c>
       <c r="O10">
-        <v>5.130559820055964</v>
+        <v>6.814625299618854</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,43 +847,43 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.2761249450498298</v>
+        <v>0.6726037882581579</v>
       </c>
       <c r="D11">
-        <v>0.2140750263707503</v>
+        <v>0.0008669919650310387</v>
       </c>
       <c r="E11">
-        <v>0.04404699576919668</v>
+        <v>0.3046133526322947</v>
       </c>
       <c r="F11">
-        <v>6.710338511683148</v>
+        <v>2.267099422685803</v>
       </c>
       <c r="G11">
-        <v>0.000675007985146033</v>
+        <v>2.340534858232331</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1.152089566274782</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.01801666328048857</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>8.272064229062494</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2839991671513786</v>
       </c>
       <c r="M11">
-        <v>5.084600155239599</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>0.8552127603802546</v>
+        <v>12.03742316731751</v>
       </c>
       <c r="O11">
-        <v>5.610623088754977</v>
+        <v>7.328789785585514</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,43 +894,43 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.2854714647915557</v>
+        <v>0.6897677560976376</v>
       </c>
       <c r="D12">
-        <v>0.2220339237090201</v>
+        <v>0.000823052064003349</v>
       </c>
       <c r="E12">
-        <v>0.0448594876349393</v>
+        <v>0.3125265208231056</v>
       </c>
       <c r="F12">
-        <v>6.932833480751071</v>
+        <v>2.328270158656025</v>
       </c>
       <c r="G12">
-        <v>0.0006699082992608689</v>
+        <v>2.404935752021998</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1.180975664011839</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.01752875104917084</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>8.530259269927058</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2914940631141718</v>
       </c>
       <c r="M12">
-        <v>5.241605271927142</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>0.8569142079331158</v>
+        <v>12.32306348037548</v>
       </c>
       <c r="O12">
-        <v>5.800980170016317</v>
+        <v>7.525901302194654</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,43 +941,43 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.2834431934978738</v>
+        <v>0.6860608139425608</v>
       </c>
       <c r="D13">
-        <v>0.2203020048807076</v>
+        <v>0.0008324341980485706</v>
       </c>
       <c r="E13">
-        <v>0.04468297969627244</v>
+        <v>0.3108173662251588</v>
       </c>
       <c r="F13">
-        <v>6.884425709377098</v>
+        <v>2.315062147928955</v>
       </c>
       <c r="G13">
-        <v>0.0006710104200612259</v>
+        <v>2.391030314672975</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1.174736687974445</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.01763297238179096</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>8.474315659668861</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2898751343181232</v>
       </c>
       <c r="M13">
-        <v>5.207586818415109</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>0.8565255128234242</v>
+        <v>12.2615545799186</v>
       </c>
       <c r="O13">
-        <v>5.759565242170936</v>
+        <v>7.483337204243526</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,43 +988,43 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.2768871156262236</v>
+        <v>0.6740112478778713</v>
       </c>
       <c r="D14">
-        <v>0.2147219439298027</v>
+        <v>0.000863340952141689</v>
       </c>
       <c r="E14">
-        <v>0.04411316895932593</v>
+        <v>0.3052621817442329</v>
       </c>
       <c r="F14">
-        <v>6.728426896283196</v>
+        <v>2.272116898462372</v>
       </c>
       <c r="G14">
-        <v>0.0006745900980981102</v>
+        <v>2.345817302446989</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1.154458081247725</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.01797613919572782</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>8.293157362303845</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.2846136491045286</v>
       </c>
       <c r="M14">
-        <v>5.097426663506681</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>0.8553428271174823</v>
+        <v>12.06092695796559</v>
       </c>
       <c r="O14">
-        <v>5.626099051774275</v>
+        <v>7.34495603536817</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,43 +1035,43 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.2729146498509181</v>
+        <v>0.6666603975473322</v>
       </c>
       <c r="D15">
-        <v>0.2113542498792924</v>
+        <v>0.0008825039152446923</v>
       </c>
       <c r="E15">
-        <v>0.04376842503757317</v>
+        <v>0.3018736028406366</v>
       </c>
       <c r="F15">
-        <v>6.634258055766765</v>
+        <v>2.245908876141442</v>
       </c>
       <c r="G15">
-        <v>0.0006767721801608229</v>
+        <v>2.31822520741801</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1.14208818793287</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.01818880883000951</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>8.183143828037572</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.281404552734827</v>
       </c>
       <c r="M15">
-        <v>5.030528607987407</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>0.8546822060554717</v>
+        <v>11.93801081193851</v>
       </c>
       <c r="O15">
-        <v>5.545529844897146</v>
+        <v>7.260517353484488</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,43 +1082,43 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.2507506871013305</v>
+        <v>0.6249710074910979</v>
       </c>
       <c r="D16">
-        <v>0.1927474162545906</v>
+        <v>0.0009956266646085066</v>
       </c>
       <c r="E16">
-        <v>0.04185132934355984</v>
+        <v>0.2826608880457115</v>
       </c>
       <c r="F16">
-        <v>6.113890094685672</v>
+        <v>2.097134721971344</v>
       </c>
       <c r="G16">
-        <v>0.0006891384756306597</v>
+        <v>2.161590158042287</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1.071950082499001</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.01944350996883415</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>7.565878992839856</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2632141297538908</v>
       </c>
       <c r="M16">
-        <v>4.655183769443099</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>0.8518185189572449</v>
+        <v>11.23323027560724</v>
       </c>
       <c r="O16">
-        <v>5.100268600238024</v>
+        <v>6.781342259464338</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,43 +1129,43 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.2376282521169486</v>
+        <v>0.5997611372656877</v>
       </c>
       <c r="D17">
-        <v>0.1818748715838154</v>
+        <v>0.001067727622375614</v>
       </c>
       <c r="E17">
-        <v>0.04072062603324866</v>
+        <v>0.271046983716495</v>
       </c>
       <c r="F17">
-        <v>5.809967320456053</v>
+        <v>2.007048291617039</v>
       </c>
       <c r="G17">
-        <v>0.000696624396099077</v>
+        <v>2.066738216303861</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>1.029550932092008</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.02024347588289643</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>7.197607501036856</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2522219406872495</v>
       </c>
       <c r="M17">
-        <v>4.431261795525373</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.8508291399955112</v>
+        <v>10.80051555282938</v>
       </c>
       <c r="O17">
-        <v>4.840163749354161</v>
+        <v>6.49132060166545</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,43 +1176,43 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.2302331659606551</v>
+        <v>0.5853864514961344</v>
       </c>
       <c r="D18">
-        <v>0.1757940290505218</v>
+        <v>0.001110100299714034</v>
       </c>
       <c r="E18">
-        <v>0.04008457423949885</v>
+        <v>0.2644260892649157</v>
       </c>
       <c r="F18">
-        <v>5.640114288194411</v>
+        <v>1.955636963178435</v>
       </c>
       <c r="G18">
-        <v>0.0007009013485380372</v>
+        <v>2.012604467659997</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>1.005379816933555</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.02071404362784568</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>6.989129253941599</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.2459567048010456</v>
       </c>
       <c r="M18">
-        <v>4.304508546109659</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.8505221073480271</v>
+        <v>10.55149949033284</v>
       </c>
       <c r="O18">
-        <v>4.694777987189354</v>
+        <v>6.325853733654696</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,43 +1223,43 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.2277536730279763</v>
+        <v>0.5805401543834421</v>
       </c>
       <c r="D19">
-        <v>0.1737625948025538</v>
+        <v>0.001124593793682127</v>
       </c>
       <c r="E19">
-        <v>0.03987147487877252</v>
+        <v>0.2621941325971804</v>
       </c>
       <c r="F19">
-        <v>5.583399107410514</v>
+        <v>1.938296599871862</v>
       </c>
       <c r="G19">
-        <v>0.000702345205930488</v>
+        <v>1.994345318654211</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.9972315688223148</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.02087510663876868</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>6.919075211361928</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2438448411451617</v>
       </c>
       <c r="M19">
-        <v>4.261917970909067</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.8504614219151847</v>
+        <v>10.4671646587006</v>
       </c>
       <c r="O19">
-        <v>4.646228672480675</v>
+        <v>6.270051471517263</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,43 +1270,43 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.2390089127734143</v>
+        <v>0.6024316023785445</v>
       </c>
       <c r="D20">
-        <v>0.1830138453868244</v>
+        <v>0.001059957025540736</v>
       </c>
       <c r="E20">
-        <v>0.04083946265576266</v>
+        <v>0.2722770919638151</v>
       </c>
       <c r="F20">
-        <v>5.841793650670013</v>
+        <v>2.01659567044959</v>
       </c>
       <c r="G20">
-        <v>0.0006958306518468971</v>
+        <v>2.076790918571845</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>1.03404173276391</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.02015722272855758</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>7.236454789710393</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2533860679389761</v>
       </c>
       <c r="M20">
-        <v>4.454881452015954</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>0.8509069202629433</v>
+        <v>10.84659223998074</v>
       </c>
       <c r="O20">
-        <v>4.867403680045442</v>
+        <v>6.522052398077051</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,43 +1317,43 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.278803603817309</v>
+        <v>0.6775442207823517</v>
       </c>
       <c r="D21">
-        <v>0.2163502684628753</v>
+        <v>0.0008542139996845499</v>
       </c>
       <c r="E21">
-        <v>0.04427962541852892</v>
+        <v>0.3068909026302507</v>
       </c>
       <c r="F21">
-        <v>6.773953896558226</v>
+        <v>2.284710519668337</v>
       </c>
       <c r="G21">
-        <v>0.0006735409244658628</v>
+        <v>2.359075964482685</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1.160403607075779</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.01787482324171741</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>8.346166129036419</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2861561905754968</v>
       </c>
       <c r="M21">
-        <v>5.12966070979131</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>0.8556767710817752</v>
+        <v>12.11986155709377</v>
       </c>
       <c r="O21">
-        <v>5.665050522111926</v>
+        <v>7.385533840963149</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,43 +1364,43 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.3066899199739481</v>
+        <v>0.7279466526765646</v>
       </c>
       <c r="D22">
-        <v>0.2403128168564166</v>
+        <v>0.0007298637572903388</v>
       </c>
       <c r="E22">
-        <v>0.04671296131852465</v>
+        <v>0.3301338134954719</v>
       </c>
       <c r="F22">
-        <v>7.443291052425309</v>
+        <v>2.464205582073404</v>
       </c>
       <c r="G22">
-        <v>0.0006585227654548313</v>
+        <v>2.548049318725901</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>1.245244570409341</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.01649183850642988</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>9.112656563768951</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.3081756516100427</v>
       </c>
       <c r="M22">
-        <v>5.595740313464518</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>0.8615944295407587</v>
+        <v>12.95085643057945</v>
       </c>
       <c r="O22">
-        <v>6.237685715755958</v>
+        <v>7.964083373418362</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,43 +1411,43 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.2916042320619852</v>
+        <v>0.7009157598086517</v>
       </c>
       <c r="D23">
-        <v>0.2272868262053009</v>
+        <v>0.0007951936924559533</v>
       </c>
       <c r="E23">
-        <v>0.04539385934360141</v>
+        <v>0.317666947412107</v>
       </c>
       <c r="F23">
-        <v>7.079616358705152</v>
+        <v>2.36798070040517</v>
       </c>
       <c r="G23">
-        <v>0.0006665908516297808</v>
+        <v>2.446743110219018</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1.199739572750275</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.01721912577496898</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>8.69912190616455</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2963635167919989</v>
       </c>
       <c r="M23">
-        <v>5.344287204180176</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>0.8581533868178042</v>
+        <v>12.50744471934257</v>
       </c>
       <c r="O23">
-        <v>5.926557465167178</v>
+        <v>7.653884571337528</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,43 +1458,43 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.238384256534701</v>
+        <v>0.6012239171363944</v>
       </c>
       <c r="D24">
-        <v>0.1824983922374059</v>
+        <v>0.001063467265598472</v>
       </c>
       <c r="E24">
-        <v>0.040785693552845</v>
+        <v>0.2717207863101407</v>
       </c>
       <c r="F24">
-        <v>5.82738993522949</v>
+        <v>2.012278122245831</v>
       </c>
       <c r="G24">
-        <v>0.0006961895853457505</v>
+        <v>2.072244860194871</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1.032010807686163</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.02019618474288176</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>7.218881932593291</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2528595978045587</v>
       </c>
       <c r="M24">
-        <v>4.444196898049881</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>0.8508709451229493</v>
+        <v>10.82576172529139</v>
       </c>
       <c r="O24">
-        <v>4.855075709648077</v>
+        <v>6.508154619504523</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,43 +1505,43 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.1866791955032454</v>
+        <v>0.4983938150554366</v>
       </c>
       <c r="D25">
-        <v>0.1406406539815919</v>
+        <v>0.001386579660597631</v>
       </c>
       <c r="E25">
-        <v>0.03634922248758521</v>
+        <v>0.224377671372153</v>
       </c>
       <c r="F25">
-        <v>4.662052881720655</v>
+        <v>1.643736125138872</v>
       </c>
       <c r="G25">
-        <v>0.0007270669235390408</v>
+        <v>1.684116221194699</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.8591847672907988</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.0238022562374427</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>5.747054944409228</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2080775698222226</v>
       </c>
       <c r="M25">
-        <v>3.549561737264582</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>0.8528906005176964</v>
+        <v>9.00683856119241</v>
       </c>
       <c r="O25">
-        <v>3.857159123441505</v>
+        <v>5.32274319939313</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_53/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4258075968336641</v>
+        <v>0.406809337325484</v>
       </c>
       <c r="D2">
-        <v>0.001645069267929289</v>
+        <v>0.009351139749045556</v>
       </c>
       <c r="E2">
-        <v>0.1909845854651451</v>
+        <v>0.1720958756594797</v>
       </c>
       <c r="F2">
-        <v>1.382260993551924</v>
+        <v>0.9159663923201578</v>
       </c>
       <c r="G2">
-        <v>1.408574614911942</v>
+        <v>0.7963027762736203</v>
       </c>
       <c r="H2">
-        <v>0.7373293823108895</v>
+        <v>0.7612044533489666</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1765143227982762</v>
+        <v>0.1504037954569029</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>7.66312166460591</v>
+        <v>2.873581687696344</v>
       </c>
       <c r="O2">
-        <v>4.482871070596616</v>
+        <v>3.128153583713527</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3781671966524982</v>
+        <v>0.3975481905098661</v>
       </c>
       <c r="D3">
-        <v>0.001829878608001545</v>
+        <v>0.009435166500811443</v>
       </c>
       <c r="E3">
-        <v>0.1690765959446807</v>
+        <v>0.167768567701188</v>
       </c>
       <c r="F3">
-        <v>1.209856809135403</v>
+        <v>0.8772088377580189</v>
       </c>
       <c r="G3">
-        <v>1.226758546874464</v>
+        <v>0.7538445135138545</v>
       </c>
       <c r="H3">
-        <v>0.6574334384979466</v>
+        <v>0.7461335867586456</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1558150272378782</v>
+        <v>0.1462578624851503</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>6.74968365211538</v>
+        <v>2.562605684679454</v>
       </c>
       <c r="O3">
-        <v>3.929704370131958</v>
+        <v>3.006157524453954</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3495639423813657</v>
+        <v>0.3920966218257433</v>
       </c>
       <c r="D4">
-        <v>0.001947258180017508</v>
+        <v>0.009488329380747729</v>
       </c>
       <c r="E4">
-        <v>0.1559253000643217</v>
+        <v>0.165213771466334</v>
       </c>
       <c r="F4">
-        <v>1.105966306463387</v>
+        <v>0.8539758345155803</v>
       </c>
       <c r="G4">
-        <v>1.117119749325894</v>
+        <v>0.7282703734058202</v>
       </c>
       <c r="H4">
-        <v>0.6095026360563907</v>
+        <v>0.7373056249113006</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1433914722852307</v>
+        <v>0.1438038777470965</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>6.187481969423061</v>
+        <v>2.371325805375761</v>
       </c>
       <c r="O4">
-        <v>3.596630771206833</v>
+        <v>2.933175414339928</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3380549256656877</v>
+        <v>0.3899339996493438</v>
       </c>
       <c r="D5">
-        <v>0.001995966307223318</v>
+        <v>0.009510388064757791</v>
       </c>
       <c r="E5">
-        <v>0.1506339184392971</v>
+        <v>0.1641983007239354</v>
       </c>
       <c r="F5">
-        <v>1.064070082465165</v>
+        <v>0.8446496412523885</v>
       </c>
       <c r="G5">
-        <v>1.072884826342715</v>
+        <v>0.7179726945568348</v>
       </c>
       <c r="H5">
-        <v>0.5902264277076483</v>
+        <v>0.7338150516635267</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1383931803576957</v>
+        <v>0.1428268243801014</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>5.958052239810286</v>
+        <v>2.293303068607429</v>
       </c>
       <c r="O5">
-        <v>3.462372948421887</v>
+        <v>2.90391688686924</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3361522983546479</v>
+        <v>0.3895784543456386</v>
       </c>
       <c r="D6">
-        <v>0.002004104269868079</v>
+        <v>0.009514074699971564</v>
       </c>
       <c r="E6">
-        <v>0.1497591753113632</v>
+        <v>0.1640312286104617</v>
       </c>
       <c r="F6">
-        <v>1.057138301704171</v>
+        <v>0.8431095637789809</v>
       </c>
       <c r="G6">
-        <v>1.065564825701927</v>
+        <v>0.7162702446706817</v>
       </c>
       <c r="H6">
-        <v>0.587040334035521</v>
+        <v>0.7332418969717196</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1375668992545087</v>
+        <v>0.1426659702312065</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>5.919936152110608</v>
+        <v>2.280343261403573</v>
       </c>
       <c r="O6">
-        <v>3.440163434169392</v>
+        <v>2.899087614875384</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3494081526440596</v>
+        <v>0.3920672174581625</v>
       </c>
       <c r="D7">
-        <v>0.001947911662205426</v>
+        <v>0.009488625275758444</v>
       </c>
       <c r="E7">
-        <v>0.155853673500399</v>
+        <v>0.1651999727869686</v>
       </c>
       <c r="F7">
-        <v>1.105399566986875</v>
+        <v>0.8538494861101213</v>
       </c>
       <c r="G7">
-        <v>1.116521459003394</v>
+        <v>0.7281309940445908</v>
       </c>
       <c r="H7">
-        <v>0.6092416682717499</v>
+        <v>0.7372581171935622</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1433238122878677</v>
+        <v>0.1437906079780333</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>6.184389112219776</v>
+        <v>2.370273851395496</v>
       </c>
       <c r="O7">
-        <v>3.594814390855959</v>
+        <v>2.932778872918107</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.409236699543186</v>
+        <v>0.4035672883946972</v>
       </c>
       <c r="D8">
-        <v>0.001707911177853738</v>
+        <v>0.009379786018809844</v>
       </c>
       <c r="E8">
-        <v>0.1833636090959274</v>
+        <v>0.1705825686378546</v>
       </c>
       <c r="F8">
-        <v>1.322373861221266</v>
+        <v>0.9024853816899849</v>
       </c>
       <c r="G8">
-        <v>1.345433439282402</v>
+        <v>0.7815599795247579</v>
       </c>
       <c r="H8">
-        <v>0.7095307046690777</v>
+        <v>0.7559195968969448</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.169313185799858</v>
+        <v>0.1489552107992722</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>7.348453399592813</v>
+        <v>2.766433886209654</v>
       </c>
       <c r="O8">
-        <v>4.290662092988157</v>
+        <v>3.085689059124093</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.5324893930996666</v>
+        <v>0.4279886984083419</v>
       </c>
       <c r="D9">
-        <v>0.00127404880444959</v>
+        <v>0.009178828835495256</v>
       </c>
       <c r="E9">
-        <v>0.240070189988252</v>
+        <v>0.1819524292491792</v>
       </c>
       <c r="F9">
-        <v>1.766149794455487</v>
+        <v>1.002364138748504</v>
       </c>
       <c r="G9">
-        <v>1.813057980356092</v>
+        <v>0.8902974908078249</v>
       </c>
       <c r="H9">
-        <v>0.9164658905371255</v>
+        <v>0.7959006314800376</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.2229165315756205</v>
+        <v>0.1598142602100125</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>9.620230281550789</v>
+        <v>3.540180268007646</v>
       </c>
       <c r="O9">
-        <v>5.716284687559892</v>
+        <v>3.400899602077345</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.6278652465356913</v>
+        <v>0.4470827431900943</v>
       </c>
       <c r="D10">
-        <v>0.0009875281143925108</v>
+        <v>0.009038814223037761</v>
       </c>
       <c r="E10">
-        <v>0.2839944294429486</v>
+        <v>0.1908088464604418</v>
       </c>
       <c r="F10">
-        <v>2.107471108454035</v>
+        <v>1.078536330038474</v>
       </c>
       <c r="G10">
-        <v>2.172473005211828</v>
+        <v>0.9726574500498657</v>
       </c>
       <c r="H10">
-        <v>1.076818433794784</v>
+        <v>0.8273555155266763</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.2644764625622997</v>
+        <v>0.16824506866962</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>11.28258838837513</v>
+        <v>4.10623028343673</v>
       </c>
       <c r="O10">
-        <v>6.814625299618854</v>
+        <v>3.641995857184952</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.6726037882581579</v>
+        <v>0.4560218970184167</v>
       </c>
       <c r="D11">
-        <v>0.0008669919650310387</v>
+        <v>0.008976781068605</v>
       </c>
       <c r="E11">
-        <v>0.3046133526322947</v>
+        <v>0.1949485316877713</v>
       </c>
       <c r="F11">
-        <v>2.267099422685803</v>
+        <v>1.113805546471013</v>
       </c>
       <c r="G11">
-        <v>2.340534858232331</v>
+        <v>1.010673884672968</v>
       </c>
       <c r="H11">
-        <v>1.152089566274782</v>
+        <v>0.8421208982347537</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.2839991671513786</v>
+        <v>0.1721803059860036</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>12.03742316731751</v>
+        <v>4.363110593465422</v>
       </c>
       <c r="O11">
-        <v>7.328789785585514</v>
+        <v>3.75377647496191</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.6897677560976376</v>
+        <v>0.4594434993398977</v>
       </c>
       <c r="D12">
-        <v>0.000823052064003349</v>
+        <v>0.008953530418285949</v>
       </c>
       <c r="E12">
-        <v>0.3125265208231056</v>
+        <v>0.1965321595870648</v>
       </c>
       <c r="F12">
-        <v>2.328270158656025</v>
+        <v>1.127250626168532</v>
       </c>
       <c r="G12">
-        <v>2.404935752021998</v>
+        <v>1.025149684591923</v>
       </c>
       <c r="H12">
-        <v>1.180975664011839</v>
+        <v>0.8477780284605387</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.2914940631141718</v>
+        <v>0.1736849660906188</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>12.32306348037548</v>
+        <v>4.460285735714251</v>
       </c>
       <c r="O12">
-        <v>7.525901302194654</v>
+        <v>3.796409758596212</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.6860608139425608</v>
+        <v>0.4587049688618947</v>
       </c>
       <c r="D13">
-        <v>0.0008324341980485706</v>
+        <v>0.008958527169437236</v>
       </c>
       <c r="E13">
-        <v>0.3108173662251588</v>
+        <v>0.196190383286627</v>
       </c>
       <c r="F13">
-        <v>2.315062147928955</v>
+        <v>1.12435100373186</v>
       </c>
       <c r="G13">
-        <v>2.391030314672975</v>
+        <v>1.022028502582799</v>
       </c>
       <c r="H13">
-        <v>1.174736687974445</v>
+        <v>0.8465567350012009</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.2898751343181232</v>
+        <v>0.1733602655908442</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>12.2615545799186</v>
+        <v>4.439361943450422</v>
       </c>
       <c r="O13">
-        <v>7.483337204243526</v>
+        <v>3.787214352518163</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.6740112478778713</v>
+        <v>0.4563026612448198</v>
       </c>
       <c r="D14">
-        <v>0.000863340952141689</v>
+        <v>0.008974863407454681</v>
       </c>
       <c r="E14">
-        <v>0.3052621817442329</v>
+        <v>0.1950784962148759</v>
       </c>
       <c r="F14">
-        <v>2.272116898462372</v>
+        <v>1.11490988676033</v>
       </c>
       <c r="G14">
-        <v>2.345817302446989</v>
+        <v>1.011863214402609</v>
       </c>
       <c r="H14">
-        <v>1.154458081247725</v>
+        <v>0.8425849940171588</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.2846136491045286</v>
+        <v>0.1723038047457663</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>12.06092695796559</v>
+        <v>4.371107314139522</v>
       </c>
       <c r="O14">
-        <v>7.34495603536817</v>
+        <v>3.757277830442263</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.6666603975473322</v>
+        <v>0.4548359408504723</v>
       </c>
       <c r="D15">
-        <v>0.0008825039152446923</v>
+        <v>0.008984901112563559</v>
       </c>
       <c r="E15">
-        <v>0.3018736028406366</v>
+        <v>0.194399521746945</v>
       </c>
       <c r="F15">
-        <v>2.245908876141442</v>
+        <v>1.109138586840288</v>
       </c>
       <c r="G15">
-        <v>2.31822520741801</v>
+        <v>1.00564709354552</v>
       </c>
       <c r="H15">
-        <v>1.14208818793287</v>
+        <v>0.8401607622488143</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.281404552734827</v>
+        <v>0.1716585791815533</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>11.93801081193851</v>
+        <v>4.329286057409945</v>
       </c>
       <c r="O15">
-        <v>7.260517353484488</v>
+        <v>3.738980538580222</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.6249710074910979</v>
+        <v>0.4465036542897565</v>
       </c>
       <c r="D16">
-        <v>0.0009956266646085066</v>
+        <v>0.009042901745663023</v>
       </c>
       <c r="E16">
-        <v>0.2826608880457115</v>
+        <v>0.1905405456509044</v>
       </c>
       <c r="F16">
-        <v>2.097134721971344</v>
+        <v>1.0762438851241</v>
       </c>
       <c r="G16">
-        <v>2.161590158042287</v>
+        <v>0.9701841184885609</v>
       </c>
       <c r="H16">
-        <v>1.071950082499001</v>
+        <v>0.8263997614479308</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.2632141297538908</v>
+        <v>0.1679899118500998</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>11.23323027560724</v>
+        <v>4.089429168003562</v>
       </c>
       <c r="O16">
-        <v>6.781342259464338</v>
+        <v>3.634733230999814</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.5997611372656877</v>
+        <v>0.4414570045306334</v>
       </c>
       <c r="D17">
-        <v>0.001067727622375614</v>
+        <v>0.00907890930486599</v>
       </c>
       <c r="E17">
-        <v>0.271046983716495</v>
+        <v>0.1882016369688557</v>
       </c>
       <c r="F17">
-        <v>2.007048291617039</v>
+        <v>1.056222723677024</v>
       </c>
       <c r="G17">
-        <v>2.066738216303861</v>
+        <v>0.9485701779533144</v>
       </c>
       <c r="H17">
-        <v>1.029550932092008</v>
+        <v>0.818074847965363</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.2522219406872495</v>
+        <v>0.1657649834153574</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>10.80051555282938</v>
+        <v>3.94211849063862</v>
       </c>
       <c r="O17">
-        <v>6.49132060166545</v>
+        <v>3.571321180802727</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.5853864514961344</v>
+        <v>0.4385781272713132</v>
       </c>
       <c r="D18">
-        <v>0.001110100299714034</v>
+        <v>0.009099776085976785</v>
       </c>
       <c r="E18">
-        <v>0.2644260892649157</v>
+        <v>0.1868667881919635</v>
       </c>
       <c r="F18">
-        <v>1.955636963178435</v>
+        <v>1.044765229239161</v>
       </c>
       <c r="G18">
-        <v>2.012604467659997</v>
+        <v>0.9361901856157431</v>
       </c>
       <c r="H18">
-        <v>1.005379816933555</v>
+        <v>0.813329525841624</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.2459567048010456</v>
+        <v>0.1644946724680381</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>10.55149949033284</v>
+        <v>3.857331695637754</v>
       </c>
       <c r="O18">
-        <v>6.325853733654696</v>
+        <v>3.535046248280196</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.5805401543834421</v>
+        <v>0.4376074763868019</v>
       </c>
       <c r="D19">
-        <v>0.001124593793682127</v>
+        <v>0.009106868008980529</v>
       </c>
       <c r="E19">
-        <v>0.2621941325971804</v>
+        <v>0.186416620273782</v>
       </c>
       <c r="F19">
-        <v>1.938296599871862</v>
+        <v>1.040895890022568</v>
       </c>
       <c r="G19">
-        <v>1.994345318654211</v>
+        <v>0.9320074057541774</v>
       </c>
       <c r="H19">
-        <v>0.9972315688223148</v>
+        <v>0.811730212508138</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.2438448411451617</v>
+        <v>0.164066180343994</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>10.4671646587006</v>
+        <v>3.828614786364199</v>
       </c>
       <c r="O19">
-        <v>6.270051471517263</v>
+        <v>3.522798133886681</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.6024316023785445</v>
+        <v>0.4419917625539256</v>
       </c>
       <c r="D20">
-        <v>0.001059957025540736</v>
+        <v>0.009075060065984131</v>
       </c>
       <c r="E20">
-        <v>0.2722770919638151</v>
+        <v>0.188449537801354</v>
       </c>
       <c r="F20">
-        <v>2.01659567044959</v>
+        <v>1.058347988721067</v>
       </c>
       <c r="G20">
-        <v>2.076790918571845</v>
+        <v>0.9508656557133861</v>
       </c>
       <c r="H20">
-        <v>1.03404173276391</v>
+        <v>0.8189566030620767</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.2533860679389761</v>
+        <v>0.1660008564073507</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>10.84659223998074</v>
+        <v>3.957806003280837</v>
       </c>
       <c r="O20">
-        <v>6.522052398077051</v>
+        <v>3.578050996947979</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.6775442207823517</v>
+        <v>0.4570072845097002</v>
       </c>
       <c r="D21">
-        <v>0.0008542139996845499</v>
+        <v>0.008970058535879621</v>
       </c>
       <c r="E21">
-        <v>0.3068909026302507</v>
+        <v>0.195404649025015</v>
       </c>
       <c r="F21">
-        <v>2.284710519668337</v>
+        <v>1.117680541478578</v>
       </c>
       <c r="G21">
-        <v>2.359075964482685</v>
+        <v>1.014846835011781</v>
       </c>
       <c r="H21">
-        <v>1.160403607075779</v>
+        <v>0.8437498034405735</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.2861561905754968</v>
+        <v>0.1726137194532527</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>12.11986155709377</v>
+        <v>4.391158149571254</v>
       </c>
       <c r="O21">
-        <v>7.385533840963149</v>
+        <v>3.766062637682523</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.7279466526765646</v>
+        <v>0.4670338348652194</v>
       </c>
       <c r="D22">
-        <v>0.0007298637572903388</v>
+        <v>0.008902833277983024</v>
       </c>
       <c r="E22">
-        <v>0.3301338134954719</v>
+        <v>0.2000436238092007</v>
       </c>
       <c r="F22">
-        <v>2.464205582073404</v>
+        <v>1.156979085665597</v>
       </c>
       <c r="G22">
-        <v>2.548049318725901</v>
+        <v>1.05712767971977</v>
       </c>
       <c r="H22">
-        <v>1.245244570409341</v>
+        <v>0.8603372093284065</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.3081756516100427</v>
+        <v>0.1770199983058518</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>12.95085643057945</v>
+        <v>4.673791817957863</v>
       </c>
       <c r="O22">
-        <v>7.964083373418362</v>
+        <v>3.890714148656627</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.7009157598086517</v>
+        <v>0.4616629389616662</v>
       </c>
       <c r="D23">
-        <v>0.0007951936924559533</v>
+        <v>0.008938584191028331</v>
       </c>
       <c r="E23">
-        <v>0.317666947412107</v>
+        <v>0.1975591428688332</v>
       </c>
       <c r="F23">
-        <v>2.36798070040517</v>
+        <v>1.135956844762447</v>
       </c>
       <c r="G23">
-        <v>2.446743110219018</v>
+        <v>1.034518794695003</v>
       </c>
       <c r="H23">
-        <v>1.199739572750275</v>
+        <v>0.851449040292664</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.2963635167919989</v>
+        <v>0.1746605331654081</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>12.50744471934257</v>
+        <v>4.523002190001307</v>
       </c>
       <c r="O23">
-        <v>7.653884571337528</v>
+        <v>3.824022297306726</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.6012239171363944</v>
+        <v>0.4417499283512996</v>
       </c>
       <c r="D24">
-        <v>0.001063467265598472</v>
+        <v>0.009076799791260637</v>
       </c>
       <c r="E24">
-        <v>0.2717207863101407</v>
+        <v>0.1883374312510355</v>
       </c>
       <c r="F24">
-        <v>2.012278122245831</v>
+        <v>1.057386991536674</v>
       </c>
       <c r="G24">
-        <v>2.072244860194871</v>
+        <v>0.9498277265160766</v>
       </c>
       <c r="H24">
-        <v>1.032010807686163</v>
+        <v>0.818557834561858</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.2528595978045587</v>
+        <v>0.1658941907312084</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>10.82576172529139</v>
+        <v>3.950713976768498</v>
       </c>
       <c r="O24">
-        <v>6.508154619504523</v>
+        <v>3.575007881843646</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4983938150554366</v>
+        <v>0.4211806766275288</v>
       </c>
       <c r="D25">
-        <v>0.001386579660597631</v>
+        <v>0.009231855463464278</v>
       </c>
       <c r="E25">
-        <v>0.224377671372153</v>
+        <v>0.1787887158458972</v>
       </c>
       <c r="F25">
-        <v>1.643736125138872</v>
+        <v>0.9748574239048935</v>
       </c>
       <c r="G25">
-        <v>1.684116221194699</v>
+        <v>0.8604512084783096</v>
       </c>
       <c r="H25">
-        <v>0.8591847672907988</v>
+        <v>0.7847205061395357</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.2080775698222226</v>
+        <v>0.1567976055938942</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>9.00683856119241</v>
+        <v>3.331249627311138</v>
       </c>
       <c r="O25">
-        <v>5.32274319939313</v>
+        <v>3.313967518965057</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_53/res_line/pl_mw.xlsx
@@ -424,22 +424,22 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.406809337325484</v>
+        <v>0.4258075968337778</v>
       </c>
       <c r="D2">
-        <v>0.009351139749045556</v>
+        <v>0.001645069267818267</v>
       </c>
       <c r="E2">
-        <v>0.1720958756594797</v>
+        <v>0.1909845854651451</v>
       </c>
       <c r="F2">
-        <v>0.9159663923201578</v>
+        <v>1.382260993551952</v>
       </c>
       <c r="G2">
-        <v>0.7963027762736203</v>
+        <v>1.408574614911913</v>
       </c>
       <c r="H2">
-        <v>0.7612044533489666</v>
+        <v>0.7373293823108895</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -451,16 +451,16 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0.1504037954569029</v>
+        <v>0.1765143227982193</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.873581687696344</v>
+        <v>7.66312166460591</v>
       </c>
       <c r="O2">
-        <v>3.128153583713527</v>
+        <v>4.482871070596673</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,22 +471,22 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3975481905098661</v>
+        <v>0.3781671966525266</v>
       </c>
       <c r="D3">
-        <v>0.009435166500811443</v>
+        <v>0.001829878608002766</v>
       </c>
       <c r="E3">
-        <v>0.167768567701188</v>
+        <v>0.1690765959446381</v>
       </c>
       <c r="F3">
-        <v>0.8772088377580189</v>
+        <v>1.209856809135417</v>
       </c>
       <c r="G3">
-        <v>0.7538445135138545</v>
+        <v>1.226758546874464</v>
       </c>
       <c r="H3">
-        <v>0.7461335867586456</v>
+        <v>0.6574334384979466</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -498,16 +498,16 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0.1462578624851503</v>
+        <v>0.1558150272378924</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.562605684679454</v>
+        <v>6.749683652115209</v>
       </c>
       <c r="O3">
-        <v>3.006157524453954</v>
+        <v>3.929704370131958</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,22 +518,22 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3920966218257433</v>
+        <v>0.3495639423816783</v>
       </c>
       <c r="D4">
-        <v>0.009488329380747729</v>
+        <v>0.001947258180275191</v>
       </c>
       <c r="E4">
-        <v>0.165213771466334</v>
+        <v>0.1559253000643182</v>
       </c>
       <c r="F4">
-        <v>0.8539758345155803</v>
+        <v>1.105966306463387</v>
       </c>
       <c r="G4">
-        <v>0.7282703734058202</v>
+        <v>1.117119749325951</v>
       </c>
       <c r="H4">
-        <v>0.7373056249113006</v>
+        <v>0.6095026360563907</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -545,16 +545,16 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.1438038777470965</v>
+        <v>0.1433914722852236</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.371325805375761</v>
+        <v>6.187481969422947</v>
       </c>
       <c r="O4">
-        <v>2.933175414339928</v>
+        <v>3.596630771206833</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,22 +565,22 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3899339996493438</v>
+        <v>0.3380549256658298</v>
       </c>
       <c r="D5">
-        <v>0.009510388064757791</v>
+        <v>0.001995966307044572</v>
       </c>
       <c r="E5">
-        <v>0.1641983007239354</v>
+        <v>0.15063391843929</v>
       </c>
       <c r="F5">
-        <v>0.8446496412523885</v>
+        <v>1.064070082465136</v>
       </c>
       <c r="G5">
-        <v>0.7179726945568348</v>
+        <v>1.072884826342687</v>
       </c>
       <c r="H5">
-        <v>0.7338150516635267</v>
+        <v>0.5902264277076483</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -592,16 +592,16 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0.1428268243801014</v>
+        <v>0.1383931803578093</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.293303068607429</v>
+        <v>5.958052239810399</v>
       </c>
       <c r="O5">
-        <v>2.90391688686924</v>
+        <v>3.46237294842183</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,22 +612,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3895784543456386</v>
+        <v>0.3361522983544205</v>
       </c>
       <c r="D6">
-        <v>0.009514074699971564</v>
+        <v>0.002004104269941465</v>
       </c>
       <c r="E6">
-        <v>0.1640312286104617</v>
+        <v>0.1497591753113667</v>
       </c>
       <c r="F6">
-        <v>0.8431095637789809</v>
+        <v>1.057138301704185</v>
       </c>
       <c r="G6">
-        <v>0.7162702446706817</v>
+        <v>1.065564825701898</v>
       </c>
       <c r="H6">
-        <v>0.7332418969717196</v>
+        <v>0.587040334035521</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -639,16 +639,16 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0.1426659702312065</v>
+        <v>0.1375668992543808</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.280343261403573</v>
+        <v>5.919936152110608</v>
       </c>
       <c r="O6">
-        <v>2.899087614875384</v>
+        <v>3.440163434169335</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,22 +659,22 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3920672174581625</v>
+        <v>0.3494081526441732</v>
       </c>
       <c r="D7">
-        <v>0.009488625275758444</v>
+        <v>0.001947911662199653</v>
       </c>
       <c r="E7">
-        <v>0.1651999727869686</v>
+        <v>0.1558536735003599</v>
       </c>
       <c r="F7">
-        <v>0.8538494861101213</v>
+        <v>1.10539956698689</v>
       </c>
       <c r="G7">
-        <v>0.7281309940445908</v>
+        <v>1.116521459003394</v>
       </c>
       <c r="H7">
-        <v>0.7372581171935622</v>
+        <v>0.6092416682717499</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -686,16 +686,16 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0.1437906079780333</v>
+        <v>0.1433238122879104</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.370273851395496</v>
+        <v>6.184389112219662</v>
       </c>
       <c r="O7">
-        <v>2.932778872918107</v>
+        <v>3.594814390856016</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4035672883946972</v>
+        <v>0.4092366995434134</v>
       </c>
       <c r="D8">
-        <v>0.009379786018809844</v>
+        <v>0.001707911177744492</v>
       </c>
       <c r="E8">
-        <v>0.1705825686378546</v>
+        <v>0.1833636090959558</v>
       </c>
       <c r="F8">
-        <v>0.9024853816899849</v>
+        <v>1.322373861221266</v>
       </c>
       <c r="G8">
-        <v>0.7815599795247579</v>
+        <v>1.345433439282402</v>
       </c>
       <c r="H8">
-        <v>0.7559195968969448</v>
+        <v>0.7095307046690777</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -733,16 +733,16 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0.1489552107992722</v>
+        <v>0.1693131857998793</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.766433886209654</v>
+        <v>7.348453399592699</v>
       </c>
       <c r="O8">
-        <v>3.085689059124093</v>
+        <v>4.290662092988157</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,22 +753,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.4279886984083419</v>
+        <v>0.5324893930995529</v>
       </c>
       <c r="D9">
-        <v>0.009178828835495256</v>
+        <v>0.00127404880434101</v>
       </c>
       <c r="E9">
-        <v>0.1819524292491792</v>
+        <v>0.2400701899882876</v>
       </c>
       <c r="F9">
-        <v>1.002364138748504</v>
+        <v>1.766149794455472</v>
       </c>
       <c r="G9">
-        <v>0.8902974908078249</v>
+        <v>1.81305798035612</v>
       </c>
       <c r="H9">
-        <v>0.7959006314800376</v>
+        <v>0.9164658905371255</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -780,16 +780,16 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0.1598142602100125</v>
+        <v>0.2229165315756205</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>3.540180268007646</v>
+        <v>9.620230281550675</v>
       </c>
       <c r="O9">
-        <v>3.400899602077345</v>
+        <v>5.716284687559892</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,22 +800,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.4470827431900943</v>
+        <v>0.6278652465360892</v>
       </c>
       <c r="D10">
-        <v>0.009038814223037761</v>
+        <v>0.0009875281145006465</v>
       </c>
       <c r="E10">
-        <v>0.1908088464604418</v>
+        <v>0.2839944294429486</v>
       </c>
       <c r="F10">
-        <v>1.078536330038474</v>
+        <v>2.107471108454021</v>
       </c>
       <c r="G10">
-        <v>0.9726574500498657</v>
+        <v>2.172473005211742</v>
       </c>
       <c r="H10">
-        <v>0.8273555155266763</v>
+        <v>1.076818433794784</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -827,16 +827,16 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.16824506866962</v>
+        <v>0.2644764625622855</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>4.10623028343673</v>
+        <v>11.28258838837536</v>
       </c>
       <c r="O10">
-        <v>3.641995857184952</v>
+        <v>6.814625299618911</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,22 +847,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.4560218970184167</v>
+        <v>0.6726037882586411</v>
       </c>
       <c r="D11">
-        <v>0.008976781068605</v>
+        <v>0.0008669919651431712</v>
       </c>
       <c r="E11">
-        <v>0.1949485316877713</v>
+        <v>0.3046133526322947</v>
       </c>
       <c r="F11">
-        <v>1.113805546471013</v>
+        <v>2.267099422685803</v>
       </c>
       <c r="G11">
-        <v>1.010673884672968</v>
+        <v>2.340534858232246</v>
       </c>
       <c r="H11">
-        <v>0.8421208982347537</v>
+        <v>1.152089566274782</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -874,16 +874,16 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0.1721803059860036</v>
+        <v>0.2839991671514497</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>4.363110593465422</v>
+        <v>12.03742316731763</v>
       </c>
       <c r="O11">
-        <v>3.75377647496191</v>
+        <v>7.3287897855854</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,22 +894,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.4594434993398977</v>
+        <v>0.689767756097325</v>
       </c>
       <c r="D12">
-        <v>0.008953530418285949</v>
+        <v>0.0008230520640983841</v>
       </c>
       <c r="E12">
-        <v>0.1965321595870648</v>
+        <v>0.3125265208230985</v>
       </c>
       <c r="F12">
-        <v>1.127250626168532</v>
+        <v>2.328270158656053</v>
       </c>
       <c r="G12">
-        <v>1.025149684591923</v>
+        <v>2.404935752022027</v>
       </c>
       <c r="H12">
-        <v>0.8477780284605387</v>
+        <v>1.180975664011839</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -921,16 +921,16 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0.1736849660906188</v>
+        <v>0.2914940631142997</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>4.460285735714251</v>
+        <v>12.32306348037548</v>
       </c>
       <c r="O12">
-        <v>3.796409758596212</v>
+        <v>7.525901302194541</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,22 +941,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.4587049688618947</v>
+        <v>0.6860608139432429</v>
       </c>
       <c r="D13">
-        <v>0.008958527169437236</v>
+        <v>0.0008324341980425753</v>
       </c>
       <c r="E13">
-        <v>0.196190383286627</v>
+        <v>0.3108173662251232</v>
       </c>
       <c r="F13">
-        <v>1.12435100373186</v>
+        <v>2.31506214792897</v>
       </c>
       <c r="G13">
-        <v>1.022028502582799</v>
+        <v>2.391030314673003</v>
       </c>
       <c r="H13">
-        <v>0.8465567350012009</v>
+        <v>1.174736687974416</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -968,16 +968,16 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0.1733602655908442</v>
+        <v>0.2898751343180379</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>4.439361943450422</v>
+        <v>12.26155457991871</v>
       </c>
       <c r="O13">
-        <v>3.787214352518163</v>
+        <v>7.483337204243526</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.4563026612448198</v>
+        <v>0.6740112478778428</v>
       </c>
       <c r="D14">
-        <v>0.008974863407454681</v>
+        <v>0.0008633409524665403</v>
       </c>
       <c r="E14">
-        <v>0.1950784962148759</v>
+        <v>0.3052621817442471</v>
       </c>
       <c r="F14">
-        <v>1.11490988676033</v>
+        <v>2.272116898462386</v>
       </c>
       <c r="G14">
-        <v>1.011863214402609</v>
+        <v>2.345817302446932</v>
       </c>
       <c r="H14">
-        <v>0.8425849940171588</v>
+        <v>1.154458081247697</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1015,16 +1015,16 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0.1723038047457663</v>
+        <v>0.2846136491044575</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>4.371107314139522</v>
+        <v>12.06092695796548</v>
       </c>
       <c r="O14">
-        <v>3.757277830442263</v>
+        <v>7.344956035368227</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,22 +1035,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.4548359408504723</v>
+        <v>0.6666603975473606</v>
       </c>
       <c r="D15">
-        <v>0.008984901112563559</v>
+        <v>0.0008825039153501635</v>
       </c>
       <c r="E15">
-        <v>0.194399521746945</v>
+        <v>0.3018736028406437</v>
       </c>
       <c r="F15">
-        <v>1.109138586840288</v>
+        <v>2.245908876141442</v>
       </c>
       <c r="G15">
-        <v>1.00564709354552</v>
+        <v>2.31822520741801</v>
       </c>
       <c r="H15">
-        <v>0.8401607622488143</v>
+        <v>1.142088187932956</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1062,16 +1062,16 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.1716585791815533</v>
+        <v>0.2814045527347844</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>4.329286057409945</v>
+        <v>11.93801081193834</v>
       </c>
       <c r="O15">
-        <v>3.738980538580222</v>
+        <v>7.260517353484488</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,22 +1082,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.4465036542897565</v>
+        <v>0.624971007490899</v>
       </c>
       <c r="D16">
-        <v>0.009042901745663023</v>
+        <v>0.000995626664715088</v>
       </c>
       <c r="E16">
-        <v>0.1905405456509044</v>
+        <v>0.2826608880457329</v>
       </c>
       <c r="F16">
-        <v>1.0762438851241</v>
+        <v>2.097134721971315</v>
       </c>
       <c r="G16">
-        <v>0.9701841184885609</v>
+        <v>2.161590158042259</v>
       </c>
       <c r="H16">
-        <v>0.8263997614479308</v>
+        <v>1.071950082498915</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1109,16 +1109,16 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0.1679899118500998</v>
+        <v>0.2632141297539192</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>4.089429168003562</v>
+        <v>11.23323027560713</v>
       </c>
       <c r="O16">
-        <v>3.634733230999814</v>
+        <v>6.781342259464395</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,22 +1129,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.4414570045306334</v>
+        <v>0.5997611372658582</v>
       </c>
       <c r="D17">
-        <v>0.00907890930486599</v>
+        <v>0.001067727622263259</v>
       </c>
       <c r="E17">
-        <v>0.1882016369688557</v>
+        <v>0.2710469837165022</v>
       </c>
       <c r="F17">
-        <v>1.056222723677024</v>
+        <v>2.007048291617039</v>
       </c>
       <c r="G17">
-        <v>0.9485701779533144</v>
+        <v>2.066738216303861</v>
       </c>
       <c r="H17">
-        <v>0.818074847965363</v>
+        <v>1.02955093209215</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1156,16 +1156,16 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.1657649834153574</v>
+        <v>0.2522219406871358</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>3.94211849063862</v>
+        <v>10.80051555282938</v>
       </c>
       <c r="O17">
-        <v>3.571321180802727</v>
+        <v>6.49132060166545</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.4385781272713132</v>
+        <v>0.5853864514961344</v>
       </c>
       <c r="D18">
-        <v>0.009099776085976785</v>
+        <v>0.00111010029971581</v>
       </c>
       <c r="E18">
-        <v>0.1868667881919635</v>
+        <v>0.2644260892649086</v>
       </c>
       <c r="F18">
-        <v>1.044765229239161</v>
+        <v>1.955636963178449</v>
       </c>
       <c r="G18">
-        <v>0.9361901856157431</v>
+        <v>2.012604467659827</v>
       </c>
       <c r="H18">
-        <v>0.813329525841624</v>
+        <v>1.005379816933583</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1203,16 +1203,16 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.1644946724680381</v>
+        <v>0.245956704801003</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>3.857331695637754</v>
+        <v>10.5514994903329</v>
       </c>
       <c r="O18">
-        <v>3.535046248280196</v>
+        <v>6.325853733654753</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,22 +1223,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.4376074763868019</v>
+        <v>0.5805401543836126</v>
       </c>
       <c r="D19">
-        <v>0.009106868008980529</v>
+        <v>0.001124593793772943</v>
       </c>
       <c r="E19">
-        <v>0.186416620273782</v>
+        <v>0.2621941325971804</v>
       </c>
       <c r="F19">
-        <v>1.040895890022568</v>
+        <v>1.938296599871848</v>
       </c>
       <c r="G19">
-        <v>0.9320074057541774</v>
+        <v>1.994345318654126</v>
       </c>
       <c r="H19">
-        <v>0.811730212508138</v>
+        <v>0.9972315688222295</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1250,16 +1250,16 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.164066180343994</v>
+        <v>0.2438448411451759</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>3.828614786364199</v>
+        <v>10.4671646587006</v>
       </c>
       <c r="O19">
-        <v>3.522798133886681</v>
+        <v>6.270051471517263</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,22 +1270,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.4419917625539256</v>
+        <v>0.6024316023785161</v>
       </c>
       <c r="D20">
-        <v>0.009075060065984131</v>
+        <v>0.001059957025552949</v>
       </c>
       <c r="E20">
-        <v>0.188449537801354</v>
+        <v>0.272277091963808</v>
       </c>
       <c r="F20">
-        <v>1.058347988721067</v>
+        <v>2.016595670449604</v>
       </c>
       <c r="G20">
-        <v>0.9508656557133861</v>
+        <v>2.07679091857193</v>
       </c>
       <c r="H20">
-        <v>0.8189566030620767</v>
+        <v>1.03404173276391</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1297,16 +1297,16 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0.1660008564073507</v>
+        <v>0.2533860679389761</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>3.957806003280837</v>
+        <v>10.84659223998074</v>
       </c>
       <c r="O20">
-        <v>3.578050996947979</v>
+        <v>6.522052398076994</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,22 +1317,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.4570072845097002</v>
+        <v>0.6775442207823232</v>
       </c>
       <c r="D21">
-        <v>0.008970058535879621</v>
+        <v>0.000854213999694764</v>
       </c>
       <c r="E21">
-        <v>0.195404649025015</v>
+        <v>0.3068909026302578</v>
       </c>
       <c r="F21">
-        <v>1.117680541478578</v>
+        <v>2.284710519668337</v>
       </c>
       <c r="G21">
-        <v>1.014846835011781</v>
+        <v>2.359075964482685</v>
       </c>
       <c r="H21">
-        <v>0.8437498034405735</v>
+        <v>1.160403607075779</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1344,16 +1344,16 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0.1726137194532527</v>
+        <v>0.2861561905755821</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>4.391158149571254</v>
+        <v>12.11986155709377</v>
       </c>
       <c r="O21">
-        <v>3.766062637682523</v>
+        <v>7.385533840963092</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,22 +1364,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.4670338348652194</v>
+        <v>0.7279466526763656</v>
       </c>
       <c r="D22">
-        <v>0.008902833277983024</v>
+        <v>0.000729863757181981</v>
       </c>
       <c r="E22">
-        <v>0.2000436238092007</v>
+        <v>0.3301338134955003</v>
       </c>
       <c r="F22">
-        <v>1.156979085665597</v>
+        <v>2.464205582073433</v>
       </c>
       <c r="G22">
-        <v>1.05712767971977</v>
+        <v>2.548049318725958</v>
       </c>
       <c r="H22">
-        <v>0.8603372093284065</v>
+        <v>1.245244570409369</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.1770199983058518</v>
+        <v>0.3081756516101137</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>4.673791817957863</v>
+        <v>12.95085643057962</v>
       </c>
       <c r="O22">
-        <v>3.890714148656627</v>
+        <v>7.964083373418362</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.4616629389616662</v>
+        <v>0.7009157598090781</v>
       </c>
       <c r="D23">
-        <v>0.008938584191028331</v>
+        <v>0.0007951936923547009</v>
       </c>
       <c r="E23">
-        <v>0.1975591428688332</v>
+        <v>0.3176669474121141</v>
       </c>
       <c r="F23">
-        <v>1.135956844762447</v>
+        <v>2.367980700405184</v>
       </c>
       <c r="G23">
-        <v>1.034518794695003</v>
+        <v>2.446743110218989</v>
       </c>
       <c r="H23">
-        <v>0.851449040292664</v>
+        <v>1.199739572750275</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1438,16 +1438,16 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.1746605331654081</v>
+        <v>0.2963635167918852</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>4.523002190001307</v>
+        <v>12.50744471934257</v>
       </c>
       <c r="O23">
-        <v>3.824022297306726</v>
+        <v>7.653884571337585</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,22 +1458,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.4417499283512996</v>
+        <v>0.6012239171359681</v>
       </c>
       <c r="D24">
-        <v>0.009076799791260637</v>
+        <v>0.001063467265598028</v>
       </c>
       <c r="E24">
-        <v>0.1883374312510355</v>
+        <v>0.2717207863101621</v>
       </c>
       <c r="F24">
-        <v>1.057386991536674</v>
+        <v>2.012278122245831</v>
       </c>
       <c r="G24">
-        <v>0.9498277265160766</v>
+        <v>2.0722448601949</v>
       </c>
       <c r="H24">
-        <v>0.818557834561858</v>
+        <v>1.032010807686163</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1485,16 +1485,16 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.1658941907312084</v>
+        <v>0.2528595978044024</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.950713976768498</v>
+        <v>10.82576172529139</v>
       </c>
       <c r="O24">
-        <v>3.575007881843646</v>
+        <v>6.508154619504467</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,22 +1505,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.4211806766275288</v>
+        <v>0.498393815055465</v>
       </c>
       <c r="D25">
-        <v>0.009231855463464278</v>
+        <v>0.00138657966060296</v>
       </c>
       <c r="E25">
-        <v>0.1787887158458972</v>
+        <v>0.2243776713721886</v>
       </c>
       <c r="F25">
-        <v>0.9748574239048935</v>
+        <v>1.643736125138872</v>
       </c>
       <c r="G25">
-        <v>0.8604512084783096</v>
+        <v>1.684116221194785</v>
       </c>
       <c r="H25">
-        <v>0.7847205061395357</v>
+        <v>0.8591847672906852</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1532,16 +1532,16 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0.1567976055938942</v>
+        <v>0.2080775698221942</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>3.331249627311138</v>
+        <v>9.00683856119241</v>
       </c>
       <c r="O25">
-        <v>3.313967518965057</v>
+        <v>5.322743199393074</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_53/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,8 +415,14 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -424,46 +430,52 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.4258075968337778</v>
+        <v>0.05885632450042522</v>
       </c>
       <c r="D2">
-        <v>0.001645069267818267</v>
+        <v>0.157263706274307</v>
       </c>
       <c r="E2">
-        <v>0.1909845854651451</v>
+        <v>0.1075459432408792</v>
       </c>
       <c r="F2">
-        <v>1.382260993551952</v>
+        <v>0.6330573737508018</v>
       </c>
       <c r="G2">
-        <v>1.408574614911913</v>
+        <v>0.3585479692633626</v>
       </c>
       <c r="H2">
-        <v>0.7373293823108895</v>
+        <v>0.0001135723500191865</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.004983987496332887</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.3058153402551937</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.364248491684819</v>
       </c>
       <c r="L2">
-        <v>0.1765143227982193</v>
+        <v>0.1075130725073308</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>2.325776460609148</v>
       </c>
       <c r="N2">
-        <v>7.66312166460591</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>4.482871070596673</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0.5979049369739684</v>
+      </c>
+      <c r="P2">
+        <v>0.967081359967537</v>
+      </c>
+      <c r="Q2">
+        <v>1.348731575278435</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -471,46 +483,52 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.3781671966525266</v>
+        <v>0.05127171027502442</v>
       </c>
       <c r="D3">
-        <v>0.001829878608002766</v>
+        <v>0.1432637588408454</v>
       </c>
       <c r="E3">
-        <v>0.1690765959446381</v>
+        <v>0.09989714328957433</v>
       </c>
       <c r="F3">
-        <v>1.209856809135417</v>
+        <v>0.6032538843222781</v>
       </c>
       <c r="G3">
-        <v>1.226758546874464</v>
+        <v>0.3404173564935462</v>
       </c>
       <c r="H3">
-        <v>0.6574334384979466</v>
+        <v>0.0005273440554965925</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.00342238188113031</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.3011278471087948</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.3463377502390586</v>
       </c>
       <c r="L3">
-        <v>0.1558150272378924</v>
+        <v>0.1012033675336106</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>2.028647277822245</v>
       </c>
       <c r="N3">
-        <v>6.749683652115209</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>3.929704370131958</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0.5225358496611037</v>
+      </c>
+      <c r="P3">
+        <v>0.9565652394406001</v>
+      </c>
+      <c r="Q3">
+        <v>1.300213818217259</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -518,46 +536,52 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.3495639423816783</v>
+        <v>0.04647016028413731</v>
       </c>
       <c r="D4">
-        <v>0.001947258180275191</v>
+        <v>0.1347261881044375</v>
       </c>
       <c r="E4">
-        <v>0.1559253000643182</v>
+        <v>0.09520262816254998</v>
       </c>
       <c r="F4">
-        <v>1.105966306463387</v>
+        <v>0.5853810871334133</v>
       </c>
       <c r="G4">
-        <v>1.117119749325951</v>
+        <v>0.3295927316624372</v>
       </c>
       <c r="H4">
-        <v>0.6095026360563907</v>
+        <v>0.0009491193840569512</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.002614603542028249</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.2984735046599809</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.3354656165993717</v>
       </c>
       <c r="L4">
-        <v>0.1433914722852236</v>
+        <v>0.09729775725091372</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>1.845463406084065</v>
       </c>
       <c r="N4">
-        <v>6.187481969422947</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>3.596630771206833</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0.4761555909162851</v>
+      </c>
+      <c r="P4">
+        <v>0.9507757567637469</v>
+      </c>
+      <c r="Q4">
+        <v>1.271536900880449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -565,46 +589,52 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.3380549256658298</v>
+        <v>0.04413465753165013</v>
       </c>
       <c r="D5">
-        <v>0.001995966307044572</v>
+        <v>0.1313366460311158</v>
       </c>
       <c r="E5">
-        <v>0.15063391843929</v>
+        <v>0.09330621794735805</v>
       </c>
       <c r="F5">
-        <v>1.064070082465136</v>
+        <v>0.5778355201408374</v>
       </c>
       <c r="G5">
-        <v>1.072884826342687</v>
+        <v>0.3249241907843654</v>
       </c>
       <c r="H5">
-        <v>0.5902264277076483</v>
+        <v>0.001162314391714991</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.002376540002432481</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.297277919352517</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.3306075635228858</v>
       </c>
       <c r="L5">
-        <v>0.1383931803578093</v>
+        <v>0.09569022841242969</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>1.769925468327472</v>
       </c>
       <c r="N5">
-        <v>5.958052239810399</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>3.46237294842183</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0.4571323773569347</v>
+      </c>
+      <c r="P5">
+        <v>0.9488521164579353</v>
+      </c>
+      <c r="Q5">
+        <v>1.259064330031649</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -612,46 +642,52 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.3361522983544205</v>
+        <v>0.04332667683267033</v>
       </c>
       <c r="D6">
-        <v>0.002004104269941465</v>
+        <v>0.1308675384295057</v>
       </c>
       <c r="E6">
-        <v>0.1497591753113667</v>
+        <v>0.09301187933697719</v>
       </c>
       <c r="F6">
-        <v>1.057138301704185</v>
+        <v>0.5761428403650442</v>
       </c>
       <c r="G6">
-        <v>1.065564825701898</v>
+        <v>0.323749217781284</v>
       </c>
       <c r="H6">
-        <v>0.587040334035521</v>
+        <v>0.001201420749514903</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.002414123584800087</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.2968767997225683</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>0.3292440580414073</v>
       </c>
       <c r="L6">
-        <v>0.1375668992543808</v>
+        <v>0.09541368944629269</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>1.756514966975743</v>
       </c>
       <c r="N6">
-        <v>5.919936152110608</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>3.440163434169335</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0.4538552543114136</v>
+      </c>
+      <c r="P6">
+        <v>0.9488770996417415</v>
+      </c>
+      <c r="Q6">
+        <v>1.255721072052324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -659,46 +695,52 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.3494081526441732</v>
+        <v>0.04528954337205704</v>
       </c>
       <c r="D7">
-        <v>0.001947911662199653</v>
+        <v>0.1349345869878249</v>
       </c>
       <c r="E7">
-        <v>0.1558536735003599</v>
+        <v>0.09523351517646361</v>
       </c>
       <c r="F7">
-        <v>1.10539956698689</v>
+        <v>0.5840609217416173</v>
       </c>
       <c r="G7">
-        <v>1.116521459003394</v>
+        <v>0.328424823038965</v>
       </c>
       <c r="H7">
-        <v>0.6092416682717499</v>
+        <v>0.000954974966348443</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.002801040072881733</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2978952130011976</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>0.3338720951986787</v>
       </c>
       <c r="L7">
-        <v>0.1433238122879104</v>
+        <v>0.0972515664531528</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>1.842099241542769</v>
       </c>
       <c r="N7">
-        <v>6.184389112219662</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>3.594814390856016</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0.4755795154465972</v>
+      </c>
+      <c r="P7">
+        <v>0.9516729673392987</v>
+      </c>
+      <c r="Q7">
+        <v>1.267848139003959</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -706,46 +748,52 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.4092366995434134</v>
+        <v>0.05473068213760968</v>
       </c>
       <c r="D8">
-        <v>0.001707911177744492</v>
+        <v>0.1527621700280264</v>
       </c>
       <c r="E8">
-        <v>0.1833636090959558</v>
+        <v>0.1049836950389498</v>
       </c>
       <c r="F8">
-        <v>1.322373861221266</v>
+        <v>0.6210759968760584</v>
       </c>
       <c r="G8">
-        <v>1.345433439282402</v>
+        <v>0.3507647665562956</v>
       </c>
       <c r="H8">
-        <v>0.7095307046690777</v>
+        <v>0.0002221787711489398</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.004635933175070051</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.3034091195931907</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>0.3560170562085077</v>
       </c>
       <c r="L8">
-        <v>0.1693131857998793</v>
+        <v>0.1053122031688147</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>2.220339983846088</v>
       </c>
       <c r="N8">
-        <v>7.348453399592699</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>4.290662092988157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0.57151022532274</v>
+      </c>
+      <c r="P8">
+        <v>0.9645773916830365</v>
+      </c>
+      <c r="Q8">
+        <v>1.327101722211907</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -753,46 +801,52 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.5324893930995529</v>
+        <v>0.07415523358572784</v>
       </c>
       <c r="D9">
-        <v>0.00127404880434101</v>
+        <v>0.1877734704204528</v>
       </c>
       <c r="E9">
-        <v>0.2400701899882876</v>
+        <v>0.124045313071143</v>
       </c>
       <c r="F9">
-        <v>1.766149794455472</v>
+        <v>0.6994759818767093</v>
       </c>
       <c r="G9">
-        <v>1.81305798035612</v>
+        <v>0.3992048615502881</v>
       </c>
       <c r="H9">
-        <v>0.9164658905371255</v>
+        <v>0.0002047339537054604</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.009257897173124974</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.3170906438234908</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>0.4032824674384017</v>
       </c>
       <c r="L9">
-        <v>0.2229165315756205</v>
+        <v>0.120941061875822</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>2.960578599732855</v>
       </c>
       <c r="N9">
-        <v>9.620230281550675</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>5.716284687559892</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0.7594800117709326</v>
+      </c>
+      <c r="P9">
+        <v>0.9936955244059078</v>
+      </c>
+      <c r="Q9">
+        <v>1.459064793091756</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -800,46 +854,52 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.6278652465360892</v>
+        <v>0.08754794430728907</v>
       </c>
       <c r="D10">
-        <v>0.0009875281145006465</v>
+        <v>0.2090071846996011</v>
       </c>
       <c r="E10">
-        <v>0.2839944294429486</v>
+        <v>0.1327237354597059</v>
       </c>
       <c r="F10">
-        <v>2.107471108454021</v>
+        <v>0.7493941653115073</v>
       </c>
       <c r="G10">
-        <v>2.172473005211742</v>
+        <v>0.4311474805589199</v>
       </c>
       <c r="H10">
-        <v>1.076818433794784</v>
+        <v>0.001287185062746943</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.01361708826882335</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.3256334782105483</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>0.4342778119685846</v>
       </c>
       <c r="L10">
-        <v>0.2644764625622855</v>
+        <v>0.126300476009547</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>3.494461220870846</v>
       </c>
       <c r="N10">
-        <v>11.28258838837536</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>6.814625299618911</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0.8838756711786928</v>
+      </c>
+      <c r="P10">
+        <v>1.025576871654891</v>
+      </c>
+      <c r="Q10">
+        <v>1.5450892173277</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -847,46 +907,52 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.6726037882586411</v>
+        <v>0.09583378862497227</v>
       </c>
       <c r="D11">
-        <v>0.0008669919651431712</v>
+        <v>0.1776824173562659</v>
       </c>
       <c r="E11">
-        <v>0.3046133526322947</v>
+        <v>0.09563683294972947</v>
       </c>
       <c r="F11">
-        <v>2.267099422685803</v>
+        <v>0.6885153265712418</v>
       </c>
       <c r="G11">
-        <v>2.340534858232246</v>
+        <v>0.4014206994993543</v>
       </c>
       <c r="H11">
-        <v>1.152089566274782</v>
+        <v>0.0197838702213744</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.01551223400990054</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.3074265681716781</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>0.4135160818512631</v>
       </c>
       <c r="L11">
-        <v>0.2839991671514497</v>
+        <v>0.08815260595059371</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>3.683619053902646</v>
       </c>
       <c r="N11">
-        <v>12.03742316731763</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>7.3287897855854</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0.8265741198972805</v>
+      </c>
+      <c r="P11">
+        <v>1.100656875188818</v>
+      </c>
+      <c r="Q11">
+        <v>1.444106786009712</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -894,46 +960,52 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.689767756097325</v>
+        <v>0.1022753976001667</v>
       </c>
       <c r="D12">
-        <v>0.0008230520640983841</v>
+        <v>0.1488942111665494</v>
       </c>
       <c r="E12">
-        <v>0.3125265208230985</v>
+        <v>0.07047578794883691</v>
       </c>
       <c r="F12">
-        <v>2.328270158656053</v>
+        <v>0.6299853815264811</v>
       </c>
       <c r="G12">
-        <v>2.404935752022027</v>
+        <v>0.3717140246431541</v>
       </c>
       <c r="H12">
-        <v>1.180975664011839</v>
+        <v>0.05829618752294152</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.01585414696681475</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.2911754723827755</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>0.3919015933086456</v>
       </c>
       <c r="L12">
-        <v>0.2914940631142997</v>
+        <v>0.07072377037054789</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>3.733469704897686</v>
       </c>
       <c r="N12">
-        <v>12.32306348037548</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>7.525901302194541</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0.7545150588403757</v>
+      </c>
+      <c r="P12">
+        <v>1.159960507640932</v>
+      </c>
+      <c r="Q12">
+        <v>1.347156025697046</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -941,46 +1013,52 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.6860608139432429</v>
+        <v>0.1057821869231645</v>
       </c>
       <c r="D13">
-        <v>0.0008324341980425753</v>
+        <v>0.1209126009023578</v>
       </c>
       <c r="E13">
-        <v>0.3108173662251232</v>
+        <v>0.05310068182627248</v>
       </c>
       <c r="F13">
-        <v>2.31506214792897</v>
+        <v>0.5680248893119213</v>
       </c>
       <c r="G13">
-        <v>2.391030314673003</v>
+        <v>0.3385291562957491</v>
       </c>
       <c r="H13">
-        <v>1.174736687974416</v>
+        <v>0.1137931867031057</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.01526089924970719</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.2745629651614649</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>0.3659589123729035</v>
       </c>
       <c r="L13">
-        <v>0.2898751343180379</v>
+        <v>0.06792982206866416</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>3.674852386482769</v>
       </c>
       <c r="N13">
-        <v>12.26155457991871</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>7.483337204243526</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0.6669554736234744</v>
+      </c>
+      <c r="P13">
+        <v>1.210925611403823</v>
+      </c>
+      <c r="Q13">
+        <v>1.241994937358072</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -988,46 +1066,52 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.6740112478778428</v>
+        <v>0.1065229247832775</v>
       </c>
       <c r="D14">
-        <v>0.0008633409524665403</v>
+        <v>0.1022529520311224</v>
       </c>
       <c r="E14">
-        <v>0.3052621817442471</v>
+        <v>0.0455834469234464</v>
       </c>
       <c r="F14">
-        <v>2.272116898462386</v>
+        <v>0.5234021522405428</v>
       </c>
       <c r="G14">
-        <v>2.345817302446932</v>
+        <v>0.3137175170652782</v>
       </c>
       <c r="H14">
-        <v>1.154458081247697</v>
+        <v>0.1629415323459966</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.01450416461168214</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.2627383816772095</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>0.3456004417383056</v>
       </c>
       <c r="L14">
-        <v>0.2846136491044575</v>
+        <v>0.07457237567900066</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>3.584095222245878</v>
       </c>
       <c r="N14">
-        <v>12.06092695796548</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>7.344956035368227</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0.5994603401119818</v>
+      </c>
+      <c r="P14">
+        <v>1.243202635054502</v>
+      </c>
+      <c r="Q14">
+        <v>1.164580962600624</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1035,46 +1119,52 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.6666603975473606</v>
+        <v>0.105487641018712</v>
       </c>
       <c r="D15">
-        <v>0.0008825039153501635</v>
+        <v>0.09765313428321321</v>
       </c>
       <c r="E15">
-        <v>0.3018736028406437</v>
+        <v>0.04436768397078339</v>
       </c>
       <c r="F15">
-        <v>2.245908876141442</v>
+        <v>0.5113184013964229</v>
       </c>
       <c r="G15">
-        <v>2.31822520741801</v>
+        <v>0.3065651773720575</v>
       </c>
       <c r="H15">
-        <v>1.142088187932956</v>
+        <v>0.1753669156935587</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.01421294504395654</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.2596106428679903</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>0.3392261234282472</v>
       </c>
       <c r="L15">
-        <v>0.2814045527347844</v>
+        <v>0.0771916879340111</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>3.538075580295924</v>
       </c>
       <c r="N15">
-        <v>11.93801081193834</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>7.260517353484488</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0.5795129447920431</v>
+      </c>
+      <c r="P15">
+        <v>1.249059713639696</v>
+      </c>
+      <c r="Q15">
+        <v>1.14283740957265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1082,46 +1172,52 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.624971007490899</v>
+        <v>0.09815204763506813</v>
       </c>
       <c r="D16">
-        <v>0.000995626664715088</v>
+        <v>0.09500578282189309</v>
       </c>
       <c r="E16">
-        <v>0.2826608880457329</v>
+        <v>0.04456698417558824</v>
       </c>
       <c r="F16">
-        <v>2.097134721971315</v>
+        <v>0.5025147527895655</v>
       </c>
       <c r="G16">
-        <v>2.161590158042259</v>
+        <v>0.2991598635389821</v>
       </c>
       <c r="H16">
-        <v>1.071950082498915</v>
+        <v>0.1622274024000347</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.01248496369438978</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.2589802219868318</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.3305095020509157</v>
       </c>
       <c r="L16">
-        <v>0.2632141297539192</v>
+        <v>0.07535471487706147</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>3.3196784669463</v>
       </c>
       <c r="N16">
-        <v>11.23323027560713</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>6.781342259464395</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0.5461578805190399</v>
+      </c>
+      <c r="P16">
+        <v>1.222175093672249</v>
+      </c>
+      <c r="Q16">
+        <v>1.125643133367404</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1129,46 +1225,52 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.5997611372658582</v>
+        <v>0.09209890743862559</v>
       </c>
       <c r="D17">
-        <v>0.001067727622263259</v>
+        <v>0.1025645721042494</v>
       </c>
       <c r="E17">
-        <v>0.2710469837165022</v>
+        <v>0.04794824110532936</v>
       </c>
       <c r="F17">
-        <v>2.007048291617039</v>
+        <v>0.5191803472531475</v>
       </c>
       <c r="G17">
-        <v>2.066738216303861</v>
+        <v>0.306562257613642</v>
       </c>
       <c r="H17">
-        <v>1.02955093209215</v>
+        <v>0.1242517394059917</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.01160089523428276</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.2647661836466284</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>0.3345478327884948</v>
       </c>
       <c r="L17">
-        <v>0.2522219406871358</v>
+        <v>0.06905485914472109</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>3.200471374696122</v>
       </c>
       <c r="N17">
-        <v>10.80051555282938</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>6.49132060166545</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0.5557800398906281</v>
+      </c>
+      <c r="P17">
+        <v>1.184819018239949</v>
+      </c>
+      <c r="Q17">
+        <v>1.153345670833829</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1176,46 +1278,52 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.5853864514961344</v>
+        <v>0.08768177069653404</v>
       </c>
       <c r="D18">
-        <v>0.00111010029971581</v>
+        <v>0.1209856012568125</v>
       </c>
       <c r="E18">
-        <v>0.2644260892649086</v>
+        <v>0.05842836200828572</v>
       </c>
       <c r="F18">
-        <v>1.955636963178449</v>
+        <v>0.5614674490470861</v>
       </c>
       <c r="G18">
-        <v>2.012604467659827</v>
+        <v>0.3286347598658494</v>
       </c>
       <c r="H18">
-        <v>1.005379816933583</v>
+        <v>0.07139846489103263</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.01107686883069814</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.2772074091529078</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>0.3512665497740244</v>
       </c>
       <c r="L18">
-        <v>0.245956704801003</v>
+        <v>0.06587742628002546</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>3.154566454668497</v>
       </c>
       <c r="N18">
-        <v>10.5514994903329</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>6.325853733654753</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0.6051484237381004</v>
+      </c>
+      <c r="P18">
+        <v>1.134780376594065</v>
+      </c>
+      <c r="Q18">
+        <v>1.226136212536829</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1223,46 +1331,52 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.5805401543836126</v>
+        <v>0.08267979004543236</v>
       </c>
       <c r="D19">
-        <v>0.001124593793772943</v>
+        <v>0.1493616436938936</v>
       </c>
       <c r="E19">
-        <v>0.2621941325971804</v>
+        <v>0.07988712178630131</v>
       </c>
       <c r="F19">
-        <v>1.938296599871848</v>
+        <v>0.6212919545669138</v>
       </c>
       <c r="G19">
-        <v>1.994345318654126</v>
+        <v>0.3598348275066741</v>
       </c>
       <c r="H19">
-        <v>0.9972315688222295</v>
+        <v>0.02630543147918019</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.01133210221134107</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.2934465707413239</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>0.3747353419362511</v>
       </c>
       <c r="L19">
-        <v>0.2438448411451759</v>
+        <v>0.07677058941811588</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>3.166012612452903</v>
       </c>
       <c r="N19">
-        <v>10.4671646587006</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>6.270051471517263</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0.6850596013103427</v>
+      </c>
+      <c r="P19">
+        <v>1.082695662478969</v>
+      </c>
+      <c r="Q19">
+        <v>1.326276891228275</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1270,46 +1384,52 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.6024316023785161</v>
+        <v>0.08042827358524107</v>
       </c>
       <c r="D20">
-        <v>0.001059957025552949</v>
+        <v>0.2040012574316705</v>
       </c>
       <c r="E20">
-        <v>0.272277091963808</v>
+        <v>0.1303890568661643</v>
       </c>
       <c r="F20">
-        <v>2.016595670449604</v>
+        <v>0.7319102865704039</v>
       </c>
       <c r="G20">
-        <v>2.07679091857193</v>
+        <v>0.4189592640714324</v>
       </c>
       <c r="H20">
-        <v>1.03404173276391</v>
+        <v>0.0009072161626106912</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.01300093610834541</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.3214587776796094</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>0.4211385905020677</v>
       </c>
       <c r="L20">
-        <v>0.2533860679389761</v>
+        <v>0.1245649025639537</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>3.346701231477994</v>
       </c>
       <c r="N20">
-        <v>10.84659223998074</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>6.522052398076994</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0.8496689686080074</v>
+      </c>
+      <c r="P20">
+        <v>1.020365399391878</v>
+      </c>
+      <c r="Q20">
+        <v>1.510399715679569</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1317,46 +1437,52 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.6775442207823232</v>
+        <v>0.09049340466485489</v>
       </c>
       <c r="D21">
-        <v>0.000854213999694764</v>
+        <v>0.2279920114282277</v>
       </c>
       <c r="E21">
-        <v>0.3068909026302578</v>
+        <v>0.1454437647098139</v>
       </c>
       <c r="F21">
-        <v>2.284710519668337</v>
+        <v>0.7868550327445973</v>
       </c>
       <c r="G21">
-        <v>2.359075964482685</v>
+        <v>0.4526491744998253</v>
       </c>
       <c r="H21">
-        <v>1.160403607075779</v>
+        <v>0.001952184227338005</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.0166653109563013</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.3326940699117955</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>0.4520870742531926</v>
       </c>
       <c r="L21">
-        <v>0.2861561905755821</v>
+        <v>0.1380001165949167</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>3.765589000320062</v>
       </c>
       <c r="N21">
-        <v>12.11986155709377</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>7.385533840963092</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0.9657237204533899</v>
+      </c>
+      <c r="P21">
+        <v>1.035838900858735</v>
+      </c>
+      <c r="Q21">
+        <v>1.605662772998443</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1364,46 +1490,52 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.7279466526763656</v>
+        <v>0.09868000451642445</v>
       </c>
       <c r="D22">
-        <v>0.000729863757181981</v>
+        <v>0.2408780022363572</v>
       </c>
       <c r="E22">
-        <v>0.3301338134955003</v>
+        <v>0.1524641865211436</v>
       </c>
       <c r="F22">
-        <v>2.464205582073433</v>
+        <v>0.8200352523219578</v>
       </c>
       <c r="G22">
-        <v>2.548049318725958</v>
+        <v>0.4740140293614843</v>
       </c>
       <c r="H22">
-        <v>1.245244570409369</v>
+        <v>0.002902310643992712</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.01900470728208159</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.3397635898784017</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>0.4725899694374931</v>
       </c>
       <c r="L22">
-        <v>0.3081756516101137</v>
+        <v>0.1437320321436815</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>4.039228017914411</v>
       </c>
       <c r="N22">
-        <v>12.95085643057962</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>7.964083373418362</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>1.035275401037723</v>
+      </c>
+      <c r="P22">
+        <v>1.048571077911745</v>
+      </c>
+      <c r="Q22">
+        <v>1.665957453893014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1411,46 +1543,52 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.7009157598090781</v>
+        <v>0.09571503500772849</v>
       </c>
       <c r="D23">
-        <v>0.0007951936923547009</v>
+        <v>0.2336844268977103</v>
       </c>
       <c r="E23">
-        <v>0.3176669474121141</v>
+        <v>0.1486441400540741</v>
       </c>
       <c r="F23">
-        <v>2.367980700405184</v>
+        <v>0.8037123818367888</v>
       </c>
       <c r="G23">
-        <v>2.446743110218989</v>
+        <v>0.4638803280006982</v>
       </c>
       <c r="H23">
-        <v>1.199739572750275</v>
+        <v>0.00237868691746046</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.0175060251655923</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.336622733272435</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>0.4634445970387873</v>
       </c>
       <c r="L23">
-        <v>0.2963635167918852</v>
+        <v>0.1406985493858031</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>3.896103991203745</v>
       </c>
       <c r="N23">
-        <v>12.50744471934257</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>7.653884571337585</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0.9985483635091441</v>
+      </c>
+      <c r="P23">
+        <v>1.040477361021431</v>
+      </c>
+      <c r="Q23">
+        <v>1.637792506558242</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1458,46 +1596,52 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.6012239171359681</v>
+        <v>0.08201694043154362</v>
       </c>
       <c r="D24">
-        <v>0.001063467265598028</v>
+        <v>0.2070998977085168</v>
       </c>
       <c r="E24">
-        <v>0.2717207863101621</v>
+        <v>0.1343406256160833</v>
       </c>
       <c r="F24">
-        <v>2.012278122245831</v>
+        <v>0.7408522902473607</v>
       </c>
       <c r="G24">
-        <v>2.0722448601949</v>
+        <v>0.4243819860814142</v>
       </c>
       <c r="H24">
-        <v>1.032010807686163</v>
+        <v>0.0008370161531958686</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.01261611137552698</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.3242652816562668</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>0.4264012623482003</v>
       </c>
       <c r="L24">
-        <v>0.2528595978044024</v>
+        <v>0.1291654835515956</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>3.348650578550007</v>
       </c>
       <c r="N24">
-        <v>10.82576172529139</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>6.508154619504467</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0.8588323545865961</v>
+      </c>
+      <c r="P24">
+        <v>1.013338017804941</v>
+      </c>
+      <c r="Q24">
+        <v>1.527770356352306</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,43 +1649,49 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.498393815055465</v>
+        <v>0.06691500567057318</v>
       </c>
       <c r="D25">
-        <v>0.00138657966060296</v>
+        <v>0.1787068504429357</v>
       </c>
       <c r="E25">
-        <v>0.2243776713721886</v>
+        <v>0.118985040735101</v>
       </c>
       <c r="F25">
-        <v>1.643736125138872</v>
+        <v>0.6756350041066455</v>
       </c>
       <c r="G25">
-        <v>1.684116221194785</v>
+        <v>0.3837807417124992</v>
       </c>
       <c r="H25">
-        <v>0.8591847672906852</v>
+        <v>4.29906904555466E-05</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.008177619799892177</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.3121647945797292</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>0.3875869547591719</v>
       </c>
       <c r="L25">
-        <v>0.2080775698221942</v>
+        <v>0.1166910067217692</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>2.756564269572408</v>
       </c>
       <c r="N25">
-        <v>9.00683856119241</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>5.322743199393074</v>
+        <v>0.708099892060325</v>
+      </c>
+      <c r="P25">
+        <v>0.9869834361031735</v>
+      </c>
+      <c r="Q25">
+        <v>1.415888364989058</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_53/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_0_53/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,8 +421,14 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -430,52 +436,58 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>0.05885632450042522</v>
+        <v>0.02996554942151164</v>
       </c>
       <c r="D2">
-        <v>0.157263706274307</v>
+        <v>0.1643571220193394</v>
       </c>
       <c r="E2">
-        <v>0.1075459432408792</v>
+        <v>0.1091778265348964</v>
       </c>
       <c r="F2">
-        <v>0.6330573737508018</v>
+        <v>0.600482596922447</v>
       </c>
       <c r="G2">
-        <v>0.3585479692633626</v>
+        <v>0.311028366547518</v>
       </c>
       <c r="H2">
-        <v>0.0001135723500191865</v>
+        <v>0.0001398741198563869</v>
       </c>
       <c r="I2">
-        <v>0.004983987496332887</v>
+        <v>0.005009157794668262</v>
       </c>
       <c r="J2">
-        <v>0.3058153402551937</v>
+        <v>0.3263709042105347</v>
       </c>
       <c r="K2">
-        <v>0.364248491684819</v>
+        <v>0.3214044730353116</v>
       </c>
       <c r="L2">
-        <v>0.1075130725073308</v>
+        <v>0.1792457286271798</v>
       </c>
       <c r="M2">
-        <v>2.325776460609148</v>
+        <v>0.07836241346767636</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.1069436544169768</v>
       </c>
       <c r="O2">
-        <v>0.5979049369739684</v>
+        <v>2.262161880665474</v>
       </c>
       <c r="P2">
-        <v>0.967081359967537</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>1.348731575278435</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0.5891872027688905</v>
+      </c>
+      <c r="R2">
+        <v>0.9935262111294776</v>
+      </c>
+      <c r="S2">
+        <v>1.255309879186086</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -483,52 +495,58 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.05127171027502442</v>
+        <v>0.02706773693817865</v>
       </c>
       <c r="D3">
-        <v>0.1432637588408454</v>
+        <v>0.1493367295213517</v>
       </c>
       <c r="E3">
-        <v>0.09989714328957433</v>
+        <v>0.1014438602155892</v>
       </c>
       <c r="F3">
-        <v>0.6032538843222781</v>
+        <v>0.5754576468735237</v>
       </c>
       <c r="G3">
-        <v>0.3404173564935462</v>
+        <v>0.2977754346488481</v>
       </c>
       <c r="H3">
-        <v>0.0005273440554965925</v>
+        <v>0.0005534025957061317</v>
       </c>
       <c r="I3">
-        <v>0.00342238188113031</v>
+        <v>0.003639134509523689</v>
       </c>
       <c r="J3">
-        <v>0.3011278471087948</v>
+        <v>0.3215451919797445</v>
       </c>
       <c r="K3">
-        <v>0.3463377502390586</v>
+        <v>0.3091959404768936</v>
       </c>
       <c r="L3">
-        <v>0.1012033675336106</v>
+        <v>0.1809908678081946</v>
       </c>
       <c r="M3">
-        <v>2.028647277822245</v>
+        <v>0.068455346792895</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.1009431546859112</v>
       </c>
       <c r="O3">
-        <v>0.5225358496611037</v>
+        <v>1.977538686518727</v>
       </c>
       <c r="P3">
-        <v>0.9565652394406001</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>1.300213818217259</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0.5154596109820844</v>
+      </c>
+      <c r="R3">
+        <v>0.9766508146653194</v>
+      </c>
+      <c r="S3">
+        <v>1.219776090360739</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -536,52 +554,58 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.04647016028413731</v>
+        <v>0.0251635066773801</v>
       </c>
       <c r="D4">
-        <v>0.1347261881044375</v>
+        <v>0.1401946413046602</v>
       </c>
       <c r="E4">
-        <v>0.09520262816254998</v>
+        <v>0.0967044479385244</v>
       </c>
       <c r="F4">
-        <v>0.5853810871334133</v>
+        <v>0.5604179868391697</v>
       </c>
       <c r="G4">
-        <v>0.3295927316624372</v>
+        <v>0.289933318379866</v>
       </c>
       <c r="H4">
-        <v>0.0009491193840569512</v>
+        <v>0.0009599815800734879</v>
       </c>
       <c r="I4">
-        <v>0.002614603542028249</v>
+        <v>0.002917361987218481</v>
       </c>
       <c r="J4">
-        <v>0.2984735046599809</v>
+        <v>0.3186491285108346</v>
       </c>
       <c r="K4">
-        <v>0.3354656165993717</v>
+        <v>0.3017133657020779</v>
       </c>
       <c r="L4">
-        <v>0.09729775725091372</v>
+        <v>0.182011486327994</v>
       </c>
       <c r="M4">
-        <v>1.845463406084065</v>
+        <v>0.06293606030692089</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.0972296700473656</v>
       </c>
       <c r="O4">
-        <v>0.4761555909162851</v>
+        <v>1.80185987913012</v>
       </c>
       <c r="P4">
-        <v>0.9507757567637469</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>1.271536900880449</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0.4700561193921047</v>
+      </c>
+      <c r="R4">
+        <v>0.9670175730318036</v>
+      </c>
+      <c r="S4">
+        <v>1.198761027180282</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -589,52 +613,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>0.04413465753165013</v>
+        <v>0.02410212884642959</v>
       </c>
       <c r="D5">
-        <v>0.1313366460311158</v>
+        <v>0.136565727944415</v>
       </c>
       <c r="E5">
-        <v>0.09330621794735805</v>
+        <v>0.0947920984233015</v>
       </c>
       <c r="F5">
-        <v>0.5778355201408374</v>
+        <v>0.5540176941662409</v>
       </c>
       <c r="G5">
-        <v>0.3249241907843654</v>
+        <v>0.2865006599813498</v>
       </c>
       <c r="H5">
-        <v>0.001162314391714991</v>
+        <v>0.001163352625806247</v>
       </c>
       <c r="I5">
-        <v>0.002376540002432481</v>
+        <v>0.002719508586566555</v>
       </c>
       <c r="J5">
-        <v>0.297277919352517</v>
+        <v>0.3173178970028516</v>
       </c>
       <c r="K5">
-        <v>0.3306075635228858</v>
+        <v>0.2982477307088303</v>
       </c>
       <c r="L5">
-        <v>0.09569022841242969</v>
+        <v>0.1822137298445234</v>
       </c>
       <c r="M5">
-        <v>1.769925468327472</v>
+        <v>0.06071060254450167</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.09570159722866123</v>
       </c>
       <c r="O5">
-        <v>0.4571323773569347</v>
+        <v>1.729356241272086</v>
       </c>
       <c r="P5">
-        <v>0.9488521164579353</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>1.259064330031649</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0.4514253261224113</v>
+      </c>
+      <c r="R5">
+        <v>0.9635523302934601</v>
+      </c>
+      <c r="S5">
+        <v>1.189395238283538</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -642,52 +672,58 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.04332667683267033</v>
+        <v>0.02361570260738688</v>
       </c>
       <c r="D6">
-        <v>0.1308675384295057</v>
+        <v>0.1360589887647023</v>
       </c>
       <c r="E6">
-        <v>0.09301187933697719</v>
+        <v>0.09449578628893818</v>
       </c>
       <c r="F6">
-        <v>0.5761428403650442</v>
+        <v>0.5525324527044333</v>
       </c>
       <c r="G6">
-        <v>0.323749217781284</v>
+        <v>0.2855598748261414</v>
       </c>
       <c r="H6">
-        <v>0.001201420749514903</v>
+        <v>0.001200530070923356</v>
       </c>
       <c r="I6">
-        <v>0.002414123584800087</v>
+        <v>0.002780291690117842</v>
       </c>
       <c r="J6">
-        <v>0.2968767997225683</v>
+        <v>0.3168933797075155</v>
       </c>
       <c r="K6">
-        <v>0.3292440580414073</v>
+        <v>0.2971610704213461</v>
       </c>
       <c r="L6">
-        <v>0.09541368944629269</v>
+        <v>0.182001920881433</v>
       </c>
       <c r="M6">
-        <v>1.756514966975743</v>
+        <v>0.06020551487096526</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.09543891405124327</v>
       </c>
       <c r="O6">
-        <v>0.4538552543114136</v>
+        <v>1.716468991560532</v>
       </c>
       <c r="P6">
-        <v>0.9488770996417415</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>1.255721072052324</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0.4482151064975497</v>
+      </c>
+      <c r="R6">
+        <v>0.9633336465771833</v>
+      </c>
+      <c r="S6">
+        <v>1.186636970982534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -695,52 +731,58 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.04528954337205704</v>
+        <v>0.02438888649140125</v>
       </c>
       <c r="D7">
-        <v>0.1349345869878249</v>
+        <v>0.1405628409959832</v>
       </c>
       <c r="E7">
-        <v>0.09523351517646361</v>
+        <v>0.09677183757700902</v>
       </c>
       <c r="F7">
-        <v>0.5840609217416173</v>
+        <v>0.5584576906243441</v>
       </c>
       <c r="G7">
-        <v>0.328424823038965</v>
+        <v>0.2914559861492521</v>
       </c>
       <c r="H7">
-        <v>0.000954974966348443</v>
+        <v>0.0009673570778415685</v>
       </c>
       <c r="I7">
-        <v>0.002801040072881733</v>
+        <v>0.003144544140078587</v>
       </c>
       <c r="J7">
-        <v>0.2978952130011976</v>
+        <v>0.314329666995512</v>
       </c>
       <c r="K7">
-        <v>0.3338720951986787</v>
+        <v>0.299831033035364</v>
       </c>
       <c r="L7">
-        <v>0.0972515664531528</v>
+        <v>0.1811562817589909</v>
       </c>
       <c r="M7">
-        <v>1.842099241542769</v>
+        <v>0.06236826647190696</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.09717209714036912</v>
       </c>
       <c r="O7">
-        <v>0.4755795154465972</v>
+        <v>1.797204039152319</v>
       </c>
       <c r="P7">
-        <v>0.9516729673392987</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1.267848139003959</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0.4693002089064393</v>
+      </c>
+      <c r="R7">
+        <v>0.9685125173588673</v>
+      </c>
+      <c r="S7">
+        <v>1.193311115436373</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -748,52 +790,58 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.05473068213760968</v>
+        <v>0.02816010961371518</v>
       </c>
       <c r="D8">
-        <v>0.1527621700280264</v>
+        <v>0.1600381189160061</v>
       </c>
       <c r="E8">
-        <v>0.1049836950389498</v>
+        <v>0.1067070337589513</v>
       </c>
       <c r="F8">
-        <v>0.6210759968760584</v>
+        <v>0.5878979781203739</v>
       </c>
       <c r="G8">
-        <v>0.3507647665562956</v>
+        <v>0.3137364971007344</v>
       </c>
       <c r="H8">
-        <v>0.0002221787711489398</v>
+        <v>0.000254527897086243</v>
       </c>
       <c r="I8">
-        <v>0.004635933175070051</v>
+        <v>0.00477506117714821</v>
       </c>
       <c r="J8">
-        <v>0.3034091195931907</v>
+        <v>0.311762621665423</v>
       </c>
       <c r="K8">
-        <v>0.3560170562085077</v>
+        <v>0.3139019867007811</v>
       </c>
       <c r="L8">
-        <v>0.1053122031688147</v>
+        <v>0.1784336569802427</v>
       </c>
       <c r="M8">
-        <v>2.220339983846088</v>
+        <v>0.07375373629612625</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.1048072803773046</v>
       </c>
       <c r="O8">
-        <v>0.57151022532274</v>
+        <v>2.156489306011281</v>
       </c>
       <c r="P8">
-        <v>0.9645773916830365</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>1.327101722211907</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0.5627318147002285</v>
+      </c>
+      <c r="R8">
+        <v>0.9908860522351546</v>
+      </c>
+      <c r="S8">
+        <v>1.231872113368823</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -801,52 +849,58 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>0.07415523358572784</v>
+        <v>0.03574649376480465</v>
       </c>
       <c r="D9">
-        <v>0.1877734704204528</v>
+        <v>0.1978702540825452</v>
       </c>
       <c r="E9">
-        <v>0.124045313071143</v>
+        <v>0.1260567902545269</v>
       </c>
       <c r="F9">
-        <v>0.6994759818767093</v>
+        <v>0.653065317996834</v>
       </c>
       <c r="G9">
-        <v>0.3992048615502881</v>
+        <v>0.3522857640679575</v>
       </c>
       <c r="H9">
-        <v>0.0002047339537054604</v>
+        <v>0.0001387057123349855</v>
       </c>
       <c r="I9">
-        <v>0.009257897173124974</v>
+        <v>0.008660397584225876</v>
       </c>
       <c r="J9">
-        <v>0.3170906438234908</v>
+        <v>0.3214998246024479</v>
       </c>
       <c r="K9">
-        <v>0.4032824674384017</v>
+        <v>0.3457421753890699</v>
       </c>
       <c r="L9">
-        <v>0.120941061875822</v>
+        <v>0.1745011454477137</v>
       </c>
       <c r="M9">
-        <v>2.960578599732855</v>
+        <v>0.1018806349103336</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.1196636164819118</v>
       </c>
       <c r="O9">
-        <v>0.7594800117709326</v>
+        <v>2.863029837676464</v>
       </c>
       <c r="P9">
-        <v>0.9936955244059078</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.459064793091756</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0.7462150002143204</v>
+      </c>
+      <c r="R9">
+        <v>1.03684724895686</v>
+      </c>
+      <c r="S9">
+        <v>1.32753787190083</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -854,52 +908,58 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>0.08754794430728907</v>
+        <v>0.04129034029975287</v>
       </c>
       <c r="D10">
-        <v>0.2090071846996011</v>
+        <v>0.2220012233615023</v>
       </c>
       <c r="E10">
-        <v>0.1327237354597059</v>
+        <v>0.1350867710321246</v>
       </c>
       <c r="F10">
-        <v>0.7493941653115073</v>
+        <v>0.6894191852035121</v>
       </c>
       <c r="G10">
-        <v>0.4311474805589199</v>
+        <v>0.3932261196202234</v>
       </c>
       <c r="H10">
-        <v>0.001287185062746943</v>
+        <v>0.001056173884516731</v>
       </c>
       <c r="I10">
-        <v>0.01361708826882335</v>
+        <v>0.01227645085364326</v>
       </c>
       <c r="J10">
-        <v>0.3256334782105483</v>
+        <v>0.306556087862738</v>
       </c>
       <c r="K10">
-        <v>0.4342778119685846</v>
+        <v>0.3631234932615754</v>
       </c>
       <c r="L10">
-        <v>0.126300476009547</v>
+        <v>0.1691791559019578</v>
       </c>
       <c r="M10">
-        <v>3.494461220870846</v>
+        <v>0.1228217188496501</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.124414645602819</v>
       </c>
       <c r="O10">
-        <v>0.8838756711786928</v>
+        <v>3.363475692061684</v>
       </c>
       <c r="P10">
-        <v>1.025576871654891</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.5450892173277</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0.8661881331355019</v>
+      </c>
+      <c r="R10">
+        <v>1.085431408908576</v>
+      </c>
+      <c r="S10">
+        <v>1.375720826223841</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -907,52 +967,58 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>0.09583378862497227</v>
+        <v>0.04789658332038016</v>
       </c>
       <c r="D11">
-        <v>0.1776824173562659</v>
+        <v>0.1912699426017639</v>
       </c>
       <c r="E11">
-        <v>0.09563683294972947</v>
+        <v>0.09739438056416816</v>
       </c>
       <c r="F11">
-        <v>0.6885153265712418</v>
+        <v>0.6231392730711534</v>
       </c>
       <c r="G11">
-        <v>0.4014206994993543</v>
+        <v>0.3987176483296366</v>
       </c>
       <c r="H11">
-        <v>0.0197838702213744</v>
+        <v>0.01952934723082578</v>
       </c>
       <c r="I11">
-        <v>0.01551223400990054</v>
+        <v>0.01392858468892744</v>
       </c>
       <c r="J11">
-        <v>0.3074265681716781</v>
+        <v>0.2541476001228489</v>
       </c>
       <c r="K11">
-        <v>0.4135160818512631</v>
+        <v>0.3389794203625485</v>
       </c>
       <c r="L11">
-        <v>0.08815260595059371</v>
+        <v>0.1557012333640841</v>
       </c>
       <c r="M11">
-        <v>3.683619053902646</v>
+        <v>0.1195218473274053</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.08608314473874401</v>
       </c>
       <c r="O11">
-        <v>0.8265741198972805</v>
+        <v>3.528973153113839</v>
       </c>
       <c r="P11">
-        <v>1.100656875188818</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>1.444106786009712</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0.8069633032323509</v>
+      </c>
+      <c r="R11">
+        <v>1.177222014710082</v>
+      </c>
+      <c r="S11">
+        <v>1.257350979807541</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -960,52 +1026,58 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.1022753976001667</v>
+        <v>0.05382731865875456</v>
       </c>
       <c r="D12">
-        <v>0.1488942111665494</v>
+        <v>0.1615849997915149</v>
       </c>
       <c r="E12">
-        <v>0.07047578794883691</v>
+        <v>0.07140242209189296</v>
       </c>
       <c r="F12">
-        <v>0.6299853815264811</v>
+        <v>0.5658319003303376</v>
       </c>
       <c r="G12">
-        <v>0.3717140246431541</v>
+        <v>0.3857606096517969</v>
       </c>
       <c r="H12">
-        <v>0.05829618752294152</v>
+        <v>0.0580549829507504</v>
       </c>
       <c r="I12">
-        <v>0.01585414696681475</v>
+        <v>0.01417119739416606</v>
       </c>
       <c r="J12">
-        <v>0.2911754723827755</v>
+        <v>0.2288243631831861</v>
       </c>
       <c r="K12">
-        <v>0.3919015933086456</v>
+        <v>0.3188732767887004</v>
       </c>
       <c r="L12">
-        <v>0.07072377037054789</v>
+        <v>0.1470519190248218</v>
       </c>
       <c r="M12">
-        <v>3.733469704897686</v>
+        <v>0.1135618858526115</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.06865578525598881</v>
       </c>
       <c r="O12">
-        <v>0.7545150588403757</v>
+        <v>3.571119045690295</v>
       </c>
       <c r="P12">
-        <v>1.159960507640932</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.347156025697046</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0.7350444115706409</v>
+      </c>
+      <c r="R12">
+        <v>1.244969559258351</v>
+      </c>
+      <c r="S12">
+        <v>1.16158278965726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1013,52 +1085,58 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>0.1057821869231645</v>
+        <v>0.05807794288180901</v>
       </c>
       <c r="D13">
-        <v>0.1209126009023578</v>
+        <v>0.1314179046865434</v>
       </c>
       <c r="E13">
-        <v>0.05310068182627248</v>
+        <v>0.05308095436321025</v>
       </c>
       <c r="F13">
-        <v>0.5680248893119213</v>
+        <v>0.5112963576673764</v>
       </c>
       <c r="G13">
-        <v>0.3385291562957491</v>
+        <v>0.3497525869073854</v>
       </c>
       <c r="H13">
-        <v>0.1137931867031057</v>
+        <v>0.1135963084391278</v>
       </c>
       <c r="I13">
-        <v>0.01526089924970719</v>
+        <v>0.0136895683067646</v>
       </c>
       <c r="J13">
-        <v>0.2745629651614649</v>
+        <v>0.2222123060549421</v>
       </c>
       <c r="K13">
-        <v>0.3659589123729035</v>
+        <v>0.2993357450888148</v>
       </c>
       <c r="L13">
-        <v>0.06792982206866416</v>
+        <v>0.1407608381754599</v>
       </c>
       <c r="M13">
-        <v>3.674852386482769</v>
+        <v>0.1048626717474797</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.06601038242046986</v>
       </c>
       <c r="O13">
-        <v>0.6669554736234744</v>
+        <v>3.520783465445561</v>
       </c>
       <c r="P13">
-        <v>1.210925611403823</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.241994937358072</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0.6495269785797433</v>
+      </c>
+      <c r="R13">
+        <v>1.295616472498793</v>
+      </c>
+      <c r="S13">
+        <v>1.075497976286641</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1066,52 +1144,58 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>0.1065229247832775</v>
+        <v>0.06002656232048054</v>
       </c>
       <c r="D14">
-        <v>0.1022529520311224</v>
+        <v>0.1108297339616371</v>
       </c>
       <c r="E14">
-        <v>0.0455834469234464</v>
+        <v>0.04494583805629704</v>
       </c>
       <c r="F14">
-        <v>0.5234021522405428</v>
+        <v>0.4741798107119664</v>
       </c>
       <c r="G14">
-        <v>0.3137175170652782</v>
+        <v>0.3155055173662689</v>
       </c>
       <c r="H14">
-        <v>0.1629415323459966</v>
+        <v>0.1627844433716348</v>
       </c>
       <c r="I14">
-        <v>0.01450416461168214</v>
+        <v>0.01311661287260524</v>
       </c>
       <c r="J14">
-        <v>0.2627383816772095</v>
+        <v>0.2243811616961651</v>
       </c>
       <c r="K14">
-        <v>0.3456004417383056</v>
+        <v>0.2854765522365916</v>
       </c>
       <c r="L14">
-        <v>0.07457237567900066</v>
+        <v>0.1371531196528437</v>
       </c>
       <c r="M14">
-        <v>3.584095222245878</v>
+        <v>0.09747990042476218</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.07281520921019435</v>
       </c>
       <c r="O14">
-        <v>0.5994603401119818</v>
+        <v>3.442842439867889</v>
       </c>
       <c r="P14">
-        <v>1.243202635054502</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>1.164580962600624</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0.5841822556285052</v>
+      </c>
+      <c r="R14">
+        <v>1.323440107875143</v>
+      </c>
+      <c r="S14">
+        <v>1.01839146599113</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1119,52 +1203,58 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>0.105487641018712</v>
+        <v>0.059686378656302</v>
       </c>
       <c r="D15">
-        <v>0.09765313428321321</v>
+        <v>0.1055928431995099</v>
       </c>
       <c r="E15">
-        <v>0.04436768397078339</v>
+        <v>0.04360268299734704</v>
       </c>
       <c r="F15">
-        <v>0.5113184013964229</v>
+        <v>0.4649439370718653</v>
       </c>
       <c r="G15">
-        <v>0.3065651773720575</v>
+        <v>0.3030768034752711</v>
       </c>
       <c r="H15">
-        <v>0.1753669156935587</v>
+        <v>0.1752267865633712</v>
       </c>
       <c r="I15">
-        <v>0.01421294504395654</v>
+        <v>0.01293627136563558</v>
       </c>
       <c r="J15">
-        <v>0.2596106428679903</v>
+        <v>0.2278123713871594</v>
       </c>
       <c r="K15">
-        <v>0.3392261234282472</v>
+        <v>0.2816224947238091</v>
       </c>
       <c r="L15">
-        <v>0.0771916879340111</v>
+        <v>0.1365046059547126</v>
       </c>
       <c r="M15">
-        <v>3.538075580295924</v>
+        <v>0.09492252401371815</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.07550456369608227</v>
       </c>
       <c r="O15">
-        <v>0.5795129447920431</v>
+        <v>3.403023035048193</v>
       </c>
       <c r="P15">
-        <v>1.249059713639696</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>1.14283740957265</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0.5650755621742789</v>
+      </c>
+      <c r="R15">
+        <v>1.326392684679831</v>
+      </c>
+      <c r="S15">
+        <v>1.004685293757461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1172,52 +1262,58 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>0.09815204763506813</v>
+        <v>0.05505925608812845</v>
       </c>
       <c r="D16">
-        <v>0.09500578282189309</v>
+        <v>0.1013826218473355</v>
       </c>
       <c r="E16">
-        <v>0.04456698417558824</v>
+        <v>0.04393256626076747</v>
       </c>
       <c r="F16">
-        <v>0.5025147527895655</v>
+        <v>0.4649169683281471</v>
       </c>
       <c r="G16">
-        <v>0.2991598635389821</v>
+        <v>0.2714716237298944</v>
       </c>
       <c r="H16">
-        <v>0.1622274024000347</v>
+        <v>0.1621590368088874</v>
       </c>
       <c r="I16">
-        <v>0.01248496369438978</v>
+        <v>0.01161972589280502</v>
       </c>
       <c r="J16">
-        <v>0.2589802219868318</v>
+        <v>0.2556248390541143</v>
       </c>
       <c r="K16">
-        <v>0.3305095020509157</v>
+        <v>0.2806180696241363</v>
       </c>
       <c r="L16">
-        <v>0.07535471487706147</v>
+        <v>0.1400575553078909</v>
       </c>
       <c r="M16">
-        <v>3.3196784669463</v>
+        <v>0.08913211126384368</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.07395461983465879</v>
       </c>
       <c r="O16">
-        <v>0.5461578805190399</v>
+        <v>3.210709367867935</v>
       </c>
       <c r="P16">
-        <v>1.222175093672249</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.125643133367404</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0.5345042077851261</v>
+      </c>
+      <c r="R16">
+        <v>1.284161886518334</v>
+      </c>
+      <c r="S16">
+        <v>1.013574598307699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1225,52 +1321,58 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>0.09209890743862559</v>
+        <v>0.05060439175441189</v>
       </c>
       <c r="D17">
-        <v>0.1025645721042494</v>
+        <v>0.1087712147679198</v>
       </c>
       <c r="E17">
-        <v>0.04794824110532936</v>
+        <v>0.04764627107223518</v>
       </c>
       <c r="F17">
-        <v>0.5191803472531475</v>
+        <v>0.4838930785864619</v>
       </c>
       <c r="G17">
-        <v>0.306562257613642</v>
+        <v>0.2682437379245428</v>
       </c>
       <c r="H17">
-        <v>0.1242517394059917</v>
+        <v>0.1242132327917744</v>
       </c>
       <c r="I17">
-        <v>0.01160089523428276</v>
+        <v>0.01094054749945794</v>
       </c>
       <c r="J17">
-        <v>0.2647661836466284</v>
+        <v>0.2741288012927967</v>
       </c>
       <c r="K17">
-        <v>0.3345478327884948</v>
+        <v>0.2867132113279816</v>
       </c>
       <c r="L17">
-        <v>0.06905485914472109</v>
+        <v>0.1447201148912569</v>
       </c>
       <c r="M17">
-        <v>3.200471374696122</v>
+        <v>0.08831498179551289</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.06778323503805161</v>
       </c>
       <c r="O17">
-        <v>0.5557800398906281</v>
+        <v>3.102276189833901</v>
       </c>
       <c r="P17">
-        <v>1.184819018239949</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>1.153345670833829</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0.5449746108468574</v>
+      </c>
+      <c r="R17">
+        <v>1.239276117858623</v>
+      </c>
+      <c r="S17">
+        <v>1.048890334546073</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1278,52 +1380,58 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>0.08768177069653404</v>
+        <v>0.04655165505513281</v>
       </c>
       <c r="D18">
-        <v>0.1209856012568125</v>
+        <v>0.1279186717007974</v>
       </c>
       <c r="E18">
-        <v>0.05842836200828572</v>
+        <v>0.05864981269042957</v>
       </c>
       <c r="F18">
-        <v>0.5614674490470861</v>
+        <v>0.5244864188348544</v>
       </c>
       <c r="G18">
-        <v>0.3286347598658494</v>
+        <v>0.2837300305588784</v>
       </c>
       <c r="H18">
-        <v>0.07139846489103263</v>
+        <v>0.07136293118853132</v>
       </c>
       <c r="I18">
-        <v>0.01107686883069814</v>
+        <v>0.01043943631542454</v>
       </c>
       <c r="J18">
-        <v>0.2772074091529078</v>
+        <v>0.2912475766891873</v>
       </c>
       <c r="K18">
-        <v>0.3512665497740244</v>
+        <v>0.3016381218051016</v>
       </c>
       <c r="L18">
-        <v>0.06587742628002546</v>
+        <v>0.1516677717752941</v>
       </c>
       <c r="M18">
-        <v>3.154566454668497</v>
+        <v>0.09229639116356836</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.06462294399771085</v>
       </c>
       <c r="O18">
-        <v>0.6051484237381004</v>
+        <v>3.058696247370051</v>
       </c>
       <c r="P18">
-        <v>1.134780376594065</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.226136212536829</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0.5940185124866133</v>
+      </c>
+      <c r="R18">
+        <v>1.185460085445882</v>
+      </c>
+      <c r="S18">
+        <v>1.118026787493775</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1331,52 +1439,58 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0.08267979004543236</v>
+        <v>0.04158527939193846</v>
       </c>
       <c r="D19">
-        <v>0.1493616436938936</v>
+        <v>0.157666462450905</v>
       </c>
       <c r="E19">
-        <v>0.07988712178630131</v>
+        <v>0.080786235580808</v>
       </c>
       <c r="F19">
-        <v>0.6212919545669138</v>
+        <v>0.5799945586408697</v>
       </c>
       <c r="G19">
-        <v>0.3598348275066741</v>
+        <v>0.3100004042318645</v>
       </c>
       <c r="H19">
-        <v>0.02630543147918019</v>
+        <v>0.02624599327587873</v>
       </c>
       <c r="I19">
-        <v>0.01133210221134107</v>
+        <v>0.01069277217955378</v>
       </c>
       <c r="J19">
-        <v>0.2934465707413239</v>
+        <v>0.30751090886843</v>
       </c>
       <c r="K19">
-        <v>0.3747353419362511</v>
+        <v>0.3209096513804752</v>
       </c>
       <c r="L19">
-        <v>0.07677058941811588</v>
+        <v>0.1593107655093426</v>
       </c>
       <c r="M19">
-        <v>3.166012612452903</v>
+        <v>0.09916940341428671</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.07544235211124928</v>
       </c>
       <c r="O19">
-        <v>0.6850596013103427</v>
+        <v>3.067083292605048</v>
       </c>
       <c r="P19">
-        <v>1.082695662478969</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>1.326276891228275</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0.6728039022699974</v>
+      </c>
+      <c r="R19">
+        <v>1.131938245408918</v>
+      </c>
+      <c r="S19">
+        <v>1.207396693839542</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1384,52 +1498,58 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>0.08042827358524107</v>
+        <v>0.03719576728438767</v>
       </c>
       <c r="D20">
-        <v>0.2040012574316705</v>
+        <v>0.2156537037800064</v>
       </c>
       <c r="E20">
-        <v>0.1303890568661643</v>
+        <v>0.1325257675083016</v>
       </c>
       <c r="F20">
-        <v>0.7319102865704039</v>
+        <v>0.6783246735778903</v>
       </c>
       <c r="G20">
-        <v>0.4189592640714324</v>
+        <v>0.3692374898737825</v>
       </c>
       <c r="H20">
-        <v>0.0009072161626106912</v>
+        <v>0.000733063890120178</v>
       </c>
       <c r="I20">
-        <v>0.01300093610834541</v>
+        <v>0.01206505434480221</v>
       </c>
       <c r="J20">
-        <v>0.3214587776796094</v>
+        <v>0.321090771438783</v>
       </c>
       <c r="K20">
-        <v>0.4211385905020677</v>
+        <v>0.3557472322687829</v>
       </c>
       <c r="L20">
-        <v>0.1245649025639537</v>
+        <v>0.1695414322426458</v>
       </c>
       <c r="M20">
-        <v>3.346701231477994</v>
+        <v>0.1160572114723841</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.1228864144198738</v>
       </c>
       <c r="O20">
-        <v>0.8496689686080074</v>
+        <v>3.230041023610909</v>
       </c>
       <c r="P20">
-        <v>1.020365399391878</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>1.510399715679569</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0.8339011716970006</v>
+      </c>
+      <c r="R20">
+        <v>1.073580338079708</v>
+      </c>
+      <c r="S20">
+        <v>1.359213867357084</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1437,52 +1557,58 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>0.09049340466485489</v>
+        <v>0.04242402218564933</v>
       </c>
       <c r="D21">
-        <v>0.2279920114282277</v>
+        <v>0.2455000686901485</v>
       </c>
       <c r="E21">
-        <v>0.1454437647098139</v>
+        <v>0.148796364766369</v>
       </c>
       <c r="F21">
-        <v>0.7868550327445973</v>
+        <v>0.7079108601324648</v>
       </c>
       <c r="G21">
-        <v>0.4526491744998253</v>
+        <v>0.4629978769055612</v>
       </c>
       <c r="H21">
-        <v>0.001952184227338005</v>
+        <v>0.00156649585980595</v>
       </c>
       <c r="I21">
-        <v>0.0166653109563013</v>
+        <v>0.01490670053158283</v>
       </c>
       <c r="J21">
-        <v>0.3326940699117955</v>
+        <v>0.256017085958085</v>
       </c>
       <c r="K21">
-        <v>0.4520870742531926</v>
+        <v>0.3665967141372732</v>
       </c>
       <c r="L21">
-        <v>0.1380001165949167</v>
+        <v>0.1647154444398851</v>
       </c>
       <c r="M21">
-        <v>3.765589000320062</v>
+        <v>0.131756241584128</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.1356190507384341</v>
       </c>
       <c r="O21">
-        <v>0.9657237204533899</v>
+        <v>3.594169287641591</v>
       </c>
       <c r="P21">
-        <v>1.035838900858735</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>1.605662772998443</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0.9423219296920067</v>
+      </c>
+      <c r="R21">
+        <v>1.114605617045953</v>
+      </c>
+      <c r="S21">
+        <v>1.383817772146898</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1490,52 +1616,58 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>0.09868000451642445</v>
+        <v>0.04714983773216375</v>
       </c>
       <c r="D22">
-        <v>0.2408780022363572</v>
+        <v>0.2624733101597769</v>
       </c>
       <c r="E22">
-        <v>0.1524641865211436</v>
+        <v>0.1566600937905065</v>
       </c>
       <c r="F22">
-        <v>0.8200352523219578</v>
+        <v>0.7234053354740055</v>
       </c>
       <c r="G22">
-        <v>0.4740140293614843</v>
+        <v>0.5327377746730804</v>
       </c>
       <c r="H22">
-        <v>0.002902310643992712</v>
+        <v>0.002345843023477734</v>
       </c>
       <c r="I22">
-        <v>0.01900470728208159</v>
+        <v>0.01657813284374487</v>
       </c>
       <c r="J22">
-        <v>0.3397635898784017</v>
+        <v>0.2186753405074242</v>
       </c>
       <c r="K22">
-        <v>0.4725899694374931</v>
+        <v>0.3731955878460909</v>
       </c>
       <c r="L22">
-        <v>0.1437320321436815</v>
+        <v>0.1614693204374973</v>
       </c>
       <c r="M22">
-        <v>4.039228017914411</v>
+        <v>0.1421766928188823</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.1409024006536086</v>
       </c>
       <c r="O22">
-        <v>1.035275401037723</v>
+        <v>3.829263975253639</v>
       </c>
       <c r="P22">
-        <v>1.048571077911745</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>1.665957453893014</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>1.006539090667673</v>
+      </c>
+      <c r="R22">
+        <v>1.145661374909153</v>
+      </c>
+      <c r="S22">
+        <v>1.394698033860465</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1543,52 +1675,58 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>0.09571503500772849</v>
+        <v>0.04534927120421628</v>
       </c>
       <c r="D23">
-        <v>0.2336844268977103</v>
+        <v>0.2526143725870469</v>
       </c>
       <c r="E23">
-        <v>0.1486441400540741</v>
+        <v>0.1522727122801193</v>
       </c>
       <c r="F23">
-        <v>0.8037123818367888</v>
+        <v>0.7183238105164094</v>
       </c>
       <c r="G23">
-        <v>0.4638803280006982</v>
+        <v>0.4882931030507223</v>
       </c>
       <c r="H23">
-        <v>0.00237868691746046</v>
+        <v>0.001920294934813604</v>
       </c>
       <c r="I23">
-        <v>0.0175060251655923</v>
+        <v>0.01538923311187812</v>
       </c>
       <c r="J23">
-        <v>0.336622733272435</v>
+        <v>0.244507368870245</v>
       </c>
       <c r="K23">
-        <v>0.4634445970387873</v>
+        <v>0.3723807631053759</v>
       </c>
       <c r="L23">
-        <v>0.1406985493858031</v>
+        <v>0.164114077425225</v>
       </c>
       <c r="M23">
-        <v>3.896103991203745</v>
+        <v>0.137718524192433</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.1381296859850281</v>
       </c>
       <c r="O23">
-        <v>0.9985483635091441</v>
+        <v>3.710539492522685</v>
       </c>
       <c r="P23">
-        <v>1.040477361021431</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.637792506558242</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0.9731981060295922</v>
+      </c>
+      <c r="R23">
+        <v>1.125809661651545</v>
+      </c>
+      <c r="S23">
+        <v>1.397784296792423</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1596,52 +1734,58 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>0.08201694043154362</v>
+        <v>0.03812343761097736</v>
       </c>
       <c r="D24">
-        <v>0.2070998977085168</v>
+        <v>0.2188674827390855</v>
       </c>
       <c r="E24">
-        <v>0.1343406256160833</v>
+        <v>0.1365496165033981</v>
       </c>
       <c r="F24">
-        <v>0.7408522902473607</v>
+        <v>0.6867817393182989</v>
       </c>
       <c r="G24">
-        <v>0.4243819860814142</v>
+        <v>0.3736531484444896</v>
       </c>
       <c r="H24">
-        <v>0.0008370161531958686</v>
+        <v>0.0006570637009626346</v>
       </c>
       <c r="I24">
-        <v>0.01261611137552698</v>
+        <v>0.01157510140849904</v>
       </c>
       <c r="J24">
-        <v>0.3242652816562668</v>
+        <v>0.3242766132569415</v>
       </c>
       <c r="K24">
-        <v>0.4264012623482003</v>
+        <v>0.3603305922169682</v>
       </c>
       <c r="L24">
-        <v>0.1291654835515956</v>
+        <v>0.1713552297777525</v>
       </c>
       <c r="M24">
-        <v>3.348650578550007</v>
+        <v>0.1176971913441101</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.1274762197799859</v>
       </c>
       <c r="O24">
-        <v>0.8588323545865961</v>
+        <v>3.231889409252801</v>
       </c>
       <c r="P24">
-        <v>1.013338017804941</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.527770356352306</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0.8429639631359294</v>
+      </c>
+      <c r="R24">
+        <v>1.066068496313278</v>
+      </c>
+      <c r="S24">
+        <v>1.37523980020066</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1649,49 +1793,55 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>0.06691500567057318</v>
+        <v>0.03225335030908383</v>
       </c>
       <c r="D25">
-        <v>0.1787068504429357</v>
+        <v>0.1878020688308624</v>
       </c>
       <c r="E25">
-        <v>0.118985040735101</v>
+        <v>0.1208630566075897</v>
       </c>
       <c r="F25">
-        <v>0.6756350041066455</v>
+        <v>0.6340308314167942</v>
       </c>
       <c r="G25">
-        <v>0.3837807417124992</v>
+        <v>0.3359212303304631</v>
       </c>
       <c r="H25">
-        <v>4.29906904555466E-05</v>
+        <v>1.990003586849198E-05</v>
       </c>
       <c r="I25">
-        <v>0.008177619799892177</v>
+        <v>0.007908918780799468</v>
       </c>
       <c r="J25">
-        <v>0.3121647945797292</v>
+        <v>0.3229997549324395</v>
       </c>
       <c r="K25">
-        <v>0.3875869547591719</v>
+        <v>0.3352468293200346</v>
       </c>
       <c r="L25">
-        <v>0.1166910067217692</v>
+        <v>0.1748752438656247</v>
       </c>
       <c r="M25">
-        <v>2.756564269572408</v>
+        <v>0.09310566643392093</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.11564287804703</v>
       </c>
       <c r="O25">
-        <v>0.708099892060325</v>
+        <v>2.670465051670448</v>
       </c>
       <c r="P25">
-        <v>0.9869834361031735</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.415888364989058</v>
+        <v>0.6963732792895101</v>
+      </c>
+      <c r="R25">
+        <v>1.024708852431274</v>
+      </c>
+      <c r="S25">
+        <v>1.297809561155489</v>
       </c>
     </row>
   </sheetData>
